--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9899651009761186</v>
+        <v>0.9899651009761188</v>
       </c>
       <c r="D2">
         <v>1.008556996895642</v>
@@ -430,7 +430,7 @@
         <v>1.000602401558429</v>
       </c>
       <c r="F2">
-        <v>1.008364956516857</v>
+        <v>1.008364956516858</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.019898392625968</v>
       </c>
       <c r="L2">
-        <v>1.012053350345552</v>
+        <v>1.012053350345553</v>
       </c>
       <c r="M2">
-        <v>1.019708971450569</v>
+        <v>1.01970897145057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002274595299495</v>
+        <v>1.002274595299496</v>
       </c>
       <c r="D3">
-        <v>1.018202204485679</v>
+        <v>1.01820220448568</v>
       </c>
       <c r="E3">
         <v>1.012311445675932</v>
       </c>
       <c r="F3">
-        <v>1.019644574634198</v>
+        <v>1.019644574634199</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009844604780814</v>
+        <v>1.009844604780816</v>
       </c>
       <c r="D4">
-        <v>1.024131469151188</v>
+        <v>1.02413146915119</v>
       </c>
       <c r="E4">
-        <v>1.019518825454519</v>
+        <v>1.019518825454521</v>
       </c>
       <c r="F4">
-        <v>1.026590157673551</v>
+        <v>1.026590157673553</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048912643054384</v>
+        <v>1.048912643054386</v>
       </c>
       <c r="J4">
-        <v>1.028999793498214</v>
+        <v>1.028999793498216</v>
       </c>
       <c r="K4">
-        <v>1.033947117670425</v>
+        <v>1.033947117670426</v>
       </c>
       <c r="L4">
-        <v>1.029387247595844</v>
+        <v>1.029387247595846</v>
       </c>
       <c r="M4">
-        <v>1.036377914981738</v>
+        <v>1.03637791498174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012941222908792</v>
+        <v>1.012941222908789</v>
       </c>
       <c r="D5">
-        <v>1.026556153273512</v>
+        <v>1.026556153273509</v>
       </c>
       <c r="E5">
-        <v>1.022468546370952</v>
+        <v>1.022468546370949</v>
       </c>
       <c r="F5">
-        <v>1.029433267143817</v>
+        <v>1.029433267143814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050083827696271</v>
+        <v>1.050083827696269</v>
       </c>
       <c r="J5">
-        <v>1.031573112648971</v>
+        <v>1.031573112648968</v>
       </c>
       <c r="K5">
-        <v>1.036127456817393</v>
+        <v>1.036127456817391</v>
       </c>
       <c r="L5">
-        <v>1.03208515565018</v>
+        <v>1.032085155650178</v>
       </c>
       <c r="M5">
-        <v>1.038972946659877</v>
+        <v>1.038972946659875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,10 +573,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013456356796554</v>
+        <v>1.013456356796555</v>
       </c>
       <c r="D6">
-        <v>1.026959457665488</v>
+        <v>1.026959457665489</v>
       </c>
       <c r="E6">
         <v>1.022959324258021</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050278354991172</v>
+        <v>1.050278354991173</v>
       </c>
       <c r="J6">
-        <v>1.032001056445646</v>
+        <v>1.032001056445647</v>
       </c>
       <c r="K6">
-        <v>1.036489928010242</v>
+        <v>1.036489928010243</v>
       </c>
       <c r="L6">
-        <v>1.032533893559253</v>
+        <v>1.032533893559254</v>
       </c>
       <c r="M6">
-        <v>1.039404588101527</v>
+        <v>1.039404588101528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009886308539381</v>
+        <v>1.009886308539383</v>
       </c>
       <c r="D7">
-        <v>1.024164126931699</v>
+        <v>1.024164126931702</v>
       </c>
       <c r="E7">
-        <v>1.019558545326969</v>
+        <v>1.019558545326971</v>
       </c>
       <c r="F7">
-        <v>1.026628439931112</v>
+        <v>1.026628439931115</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04892843644886</v>
+        <v>1.048928436448862</v>
       </c>
       <c r="J7">
-        <v>1.029034458937935</v>
+        <v>1.029034458937938</v>
       </c>
       <c r="K7">
-        <v>1.033976497311406</v>
+        <v>1.033976497311409</v>
       </c>
       <c r="L7">
-        <v>1.029423586317349</v>
+        <v>1.029423586317352</v>
       </c>
       <c r="M7">
-        <v>1.036412867011957</v>
+        <v>1.03641286701196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942126791539293</v>
+        <v>0.9942126791539276</v>
       </c>
       <c r="D8">
-        <v>1.011885564145419</v>
+        <v>1.011885564145417</v>
       </c>
       <c r="E8">
-        <v>1.004641265021147</v>
+        <v>1.004641265021146</v>
       </c>
       <c r="F8">
-        <v>1.012255103682919</v>
+        <v>1.012255103682917</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042956690978531</v>
       </c>
       <c r="J8">
-        <v>1.015990101665978</v>
+        <v>1.015990101665976</v>
       </c>
       <c r="K8">
-        <v>1.022906909230866</v>
+        <v>1.022906909230865</v>
       </c>
       <c r="L8">
-        <v>1.015758732320998</v>
+        <v>1.015758732320997</v>
       </c>
       <c r="M8">
-        <v>1.023271591704909</v>
+        <v>1.023271591704907</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9630830289396801</v>
+        <v>0.9630830289396827</v>
       </c>
       <c r="D9">
-        <v>0.987492538760457</v>
+        <v>0.9874925387604593</v>
       </c>
       <c r="E9">
-        <v>0.9750792988674882</v>
+        <v>0.9750792988674902</v>
       </c>
       <c r="F9">
-        <v>0.9837970988563541</v>
+        <v>0.9837970988563565</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030922475716114</v>
+        <v>1.030922475716115</v>
       </c>
       <c r="J9">
-        <v>0.9900103292086061</v>
+        <v>0.9900103292086085</v>
       </c>
       <c r="K9">
-        <v>1.000791853561327</v>
+        <v>1.000791853561329</v>
       </c>
       <c r="L9">
-        <v>0.9885900655493831</v>
+        <v>0.9885900655493851</v>
       </c>
       <c r="M9">
-        <v>0.997158643361976</v>
+        <v>0.9971586433619781</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9390861920293035</v>
+        <v>0.9390861920293055</v>
       </c>
       <c r="D10">
-        <v>0.968708626413684</v>
+        <v>0.9687086264136862</v>
       </c>
       <c r="E10">
-        <v>0.9523534842367396</v>
+        <v>0.9523534842367415</v>
       </c>
       <c r="F10">
-        <v>0.961946453082614</v>
+        <v>0.9619464530826162</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021533573212766</v>
+        <v>1.021533573212767</v>
       </c>
       <c r="J10">
-        <v>0.9699439298797531</v>
+        <v>0.9699439298797552</v>
       </c>
       <c r="K10">
-        <v>0.983666813562956</v>
+        <v>0.9836668135629579</v>
       </c>
       <c r="L10">
-        <v>0.9676398129157467</v>
+        <v>0.9676398129157486</v>
       </c>
       <c r="M10">
-        <v>0.9770385336641478</v>
+        <v>0.9770385336641499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9276386120723789</v>
+        <v>0.927638612072381</v>
       </c>
       <c r="D11">
-        <v>0.9597604125358757</v>
+        <v>0.9597604125358775</v>
       </c>
       <c r="E11">
-        <v>0.9415325797076765</v>
+        <v>0.9415325797076789</v>
       </c>
       <c r="F11">
-        <v>0.9515512575004309</v>
+        <v>0.9515512575004332</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017030756691716</v>
+        <v>1.017030756691717</v>
       </c>
       <c r="J11">
-        <v>0.9603655401405865</v>
+        <v>0.9603655401405886</v>
       </c>
       <c r="K11">
-        <v>0.975483293565186</v>
+        <v>0.9754832935651879</v>
       </c>
       <c r="L11">
-        <v>0.9576482774169239</v>
+        <v>0.9576482774169264</v>
       </c>
       <c r="M11">
-        <v>0.9674485787794713</v>
+        <v>0.9674485787794734</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9231928753012851</v>
+        <v>0.9231928753012844</v>
       </c>
       <c r="D12">
-        <v>0.9562881276676763</v>
+        <v>0.956288127667676</v>
       </c>
       <c r="E12">
-        <v>0.9373339017944579</v>
+        <v>0.9373339017944571</v>
       </c>
       <c r="F12">
-        <v>0.9475194238661461</v>
+        <v>0.9475194238661454</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01527882570502</v>
       </c>
       <c r="J12">
-        <v>0.9566452828170913</v>
+        <v>0.9566452828170907</v>
       </c>
       <c r="K12">
-        <v>0.9723035905283098</v>
+        <v>0.9723035905283094</v>
       </c>
       <c r="L12">
-        <v>0.9537689241971992</v>
+        <v>0.9537689241971986</v>
       </c>
       <c r="M12">
-        <v>0.9637262100250872</v>
+        <v>0.9637262100250865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9241559522205761</v>
+        <v>0.9241559522205772</v>
       </c>
       <c r="D13">
-        <v>0.9570401824161271</v>
+        <v>0.957040182416128</v>
       </c>
       <c r="E13">
-        <v>0.9382432807883813</v>
+        <v>0.9382432807883825</v>
       </c>
       <c r="F13">
-        <v>0.9483925858598212</v>
+        <v>0.9483925858598226</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015658483765292</v>
       </c>
       <c r="J13">
-        <v>0.9574512103751709</v>
+        <v>0.957451210375172</v>
       </c>
       <c r="K13">
-        <v>0.9729924680673143</v>
+        <v>0.9729924680673153</v>
       </c>
       <c r="L13">
-        <v>0.9546092544403209</v>
+        <v>0.9546092544403221</v>
       </c>
       <c r="M13">
-        <v>0.9645324829527071</v>
+        <v>0.9645324829527084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9272753194900712</v>
+        <v>0.927275319490068</v>
       </c>
       <c r="D14">
-        <v>0.9594766049144334</v>
+        <v>0.9594766049144303</v>
       </c>
       <c r="E14">
-        <v>0.9411893977229248</v>
+        <v>0.9411893977229212</v>
       </c>
       <c r="F14">
-        <v>0.9512216771284916</v>
+        <v>0.9512216771284886</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016887656608694</v>
+        <v>1.016887656608692</v>
       </c>
       <c r="J14">
-        <v>0.9600615372561976</v>
+        <v>0.9600615372561941</v>
       </c>
       <c r="K14">
-        <v>0.9752234856847816</v>
+        <v>0.9752234856847786</v>
       </c>
       <c r="L14">
-        <v>0.9573312460199026</v>
+        <v>0.9573312460198992</v>
       </c>
       <c r="M14">
-        <v>0.9671443537370598</v>
+        <v>0.9671443537370567</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9291703690375102</v>
+        <v>0.92917036903751</v>
       </c>
       <c r="D15">
-        <v>0.9609571546450398</v>
+        <v>0.9609571546450399</v>
       </c>
       <c r="E15">
-        <v>0.9429796963312629</v>
+        <v>0.9429796963312627</v>
       </c>
       <c r="F15">
-        <v>0.9529410882843493</v>
+        <v>0.9529410882843488</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017633984457669</v>
+        <v>1.017633984457668</v>
       </c>
       <c r="J15">
-        <v>0.9616472985078868</v>
+        <v>0.9616472985078865</v>
       </c>
       <c r="K15">
-        <v>0.976578666095122</v>
+        <v>0.9765786660951219</v>
       </c>
       <c r="L15">
-        <v>0.9589850229588959</v>
+        <v>0.9589850229588955</v>
       </c>
       <c r="M15">
-        <v>0.9687313712612403</v>
+        <v>0.9687313712612399</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9398209451587807</v>
+        <v>0.939820945158784</v>
       </c>
       <c r="D16">
-        <v>0.9692832835467553</v>
+        <v>0.969283283546758</v>
       </c>
       <c r="E16">
-        <v>0.9530484736633029</v>
+        <v>0.9530484736633064</v>
       </c>
       <c r="F16">
-        <v>0.9626143063143997</v>
+        <v>0.9626143063144023</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021822126457988</v>
+        <v>1.021822126457989</v>
       </c>
       <c r="J16">
-        <v>0.9705586263735908</v>
+        <v>0.9705586263735939</v>
       </c>
       <c r="K16">
-        <v>0.9841918209475194</v>
+        <v>0.9841918209475221</v>
       </c>
       <c r="L16">
-        <v>0.9682812043225465</v>
+        <v>0.9682812043225499</v>
       </c>
       <c r="M16">
-        <v>0.9776542770643433</v>
+        <v>0.9776542770643458</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9461975835919053</v>
+        <v>0.9461975835919032</v>
       </c>
       <c r="D17">
-        <v>0.9742719657742911</v>
+        <v>0.9742719657742893</v>
       </c>
       <c r="E17">
-        <v>0.9590823003309249</v>
+        <v>0.9590823003309231</v>
       </c>
       <c r="F17">
-        <v>0.9684135526345582</v>
+        <v>0.9684135526345563</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024323782478471</v>
+        <v>1.02432378247847</v>
       </c>
       <c r="J17">
-        <v>0.9758927402999562</v>
+        <v>0.9758927402999542</v>
       </c>
       <c r="K17">
-        <v>0.9887466572488939</v>
+        <v>0.9887466572488922</v>
       </c>
       <c r="L17">
-        <v>0.9738479301417048</v>
+        <v>0.9738479301417028</v>
       </c>
       <c r="M17">
-        <v>0.9829990400101588</v>
+        <v>0.9829990400101569</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9498178392244937</v>
+        <v>0.94981783922449</v>
       </c>
       <c r="D18">
-        <v>0.977105301094227</v>
+        <v>0.9771053010942234</v>
       </c>
       <c r="E18">
-        <v>0.9625097314127351</v>
+        <v>0.9625097314127313</v>
       </c>
       <c r="F18">
-        <v>0.971708529463964</v>
+        <v>0.9717085294639602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025741868875429</v>
+        <v>1.025741868875427</v>
       </c>
       <c r="J18">
-        <v>0.9789205552098449</v>
+        <v>0.9789205552098411</v>
       </c>
       <c r="K18">
-        <v>0.9913312864107113</v>
+        <v>0.9913312864107078</v>
       </c>
       <c r="L18">
-        <v>0.9770085739612552</v>
+        <v>0.9770085739612512</v>
       </c>
       <c r="M18">
-        <v>0.9860341589672189</v>
+        <v>0.9860341589672151</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510363217832909</v>
+        <v>0.9510363217832913</v>
       </c>
       <c r="D19">
-        <v>0.9780590870216122</v>
+        <v>0.9780590870216127</v>
       </c>
       <c r="E19">
-        <v>0.9636636048420419</v>
+        <v>0.9636636048420423</v>
       </c>
       <c r="F19">
-        <v>0.9728179385198288</v>
+        <v>0.9728179385198292</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.026218778137975</v>
       </c>
       <c r="J19">
-        <v>0.9799395322296699</v>
+        <v>0.9799395322296705</v>
       </c>
       <c r="K19">
-        <v>0.9922009675110141</v>
+        <v>0.9922009675110146</v>
       </c>
       <c r="L19">
-        <v>0.9780723858287464</v>
+        <v>0.9780723858287468</v>
       </c>
       <c r="M19">
         <v>0.9870558012169305</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9455239002631701</v>
+        <v>0.9455239002631705</v>
       </c>
       <c r="D20">
-        <v>0.9737448004034586</v>
+        <v>0.9737448004034591</v>
       </c>
       <c r="E20">
-        <v>0.9584446424724435</v>
+        <v>0.9584446424724439</v>
       </c>
       <c r="F20">
-        <v>0.967800600329938</v>
+        <v>0.9678006003299384</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.024059713364454</v>
       </c>
       <c r="J20">
-        <v>0.975329254278287</v>
+        <v>0.9753292542782874</v>
       </c>
       <c r="K20">
-        <v>0.988265579815285</v>
+        <v>0.9882655798152857</v>
       </c>
       <c r="L20">
-        <v>0.9732597884235503</v>
+        <v>0.9732597884235507</v>
       </c>
       <c r="M20">
-        <v>0.9824342958281066</v>
+        <v>0.982434295828107</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9263624272152831</v>
+        <v>0.9263624272152851</v>
       </c>
       <c r="D21">
-        <v>0.9587634932375511</v>
+        <v>0.9587634932375533</v>
       </c>
       <c r="E21">
-        <v>0.9403271012679876</v>
+        <v>0.9403271012679901</v>
       </c>
       <c r="F21">
-        <v>0.950393584548035</v>
+        <v>0.9503935845480371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016528020261373</v>
+        <v>1.016528020261374</v>
       </c>
       <c r="J21">
-        <v>0.9592976247335609</v>
+        <v>0.9592976247335632</v>
       </c>
       <c r="K21">
-        <v>0.9745706096525629</v>
+        <v>0.9745706096525649</v>
       </c>
       <c r="L21">
-        <v>0.9565346169417763</v>
+        <v>0.9565346169417789</v>
       </c>
       <c r="M21">
-        <v>0.9663799220105549</v>
+        <v>0.9663799220105568</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9131675473405093</v>
+        <v>0.9131675473405094</v>
       </c>
       <c r="D22">
-        <v>0.9484645357849154</v>
+        <v>0.9484645357849155</v>
       </c>
       <c r="E22">
         <v>0.9278734831721297</v>
       </c>
       <c r="F22">
-        <v>0.9384384833701165</v>
+        <v>0.9384384833701166</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0.948255777918661</v>
       </c>
       <c r="K22">
-        <v>0.9651310462375198</v>
+        <v>0.9651310462375199</v>
       </c>
       <c r="L22">
         <v>0.94502327969797</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9202862284400724</v>
+        <v>0.9202862284400731</v>
       </c>
       <c r="D23">
         <v>0.9540188635222466</v>
       </c>
       <c r="E23">
-        <v>0.9345899205735583</v>
+        <v>0.9345899205735589</v>
       </c>
       <c r="F23">
-        <v>0.9448849982117439</v>
+        <v>0.9448849982117442</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01413254563803</v>
       </c>
       <c r="J23">
-        <v>0.9542129055596746</v>
+        <v>0.9542129055596751</v>
       </c>
       <c r="K23">
-        <v>0.9702243203725649</v>
+        <v>0.9702243203725651</v>
       </c>
       <c r="L23">
-        <v>0.9512329220147711</v>
+        <v>0.9512329220147717</v>
       </c>
       <c r="M23">
-        <v>0.9612931647267614</v>
+        <v>0.9612931647267617</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9458286126081258</v>
+        <v>0.9458286126081272</v>
       </c>
       <c r="D24">
-        <v>0.973983238212671</v>
+        <v>0.9739832382126719</v>
       </c>
       <c r="E24">
-        <v>0.9587330546197564</v>
+        <v>0.9587330546197576</v>
       </c>
       <c r="F24">
-        <v>0.9680778357093858</v>
+        <v>0.9680778357093871</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024179160822017</v>
       </c>
       <c r="J24">
-        <v>0.9755841252839818</v>
+        <v>0.975584125283983</v>
       </c>
       <c r="K24">
-        <v>0.9884831791428831</v>
+        <v>0.9884831791428839</v>
       </c>
       <c r="L24">
-        <v>0.9735258090074526</v>
+        <v>0.9735258090074538</v>
       </c>
       <c r="M24">
-        <v>0.9826897319961253</v>
+        <v>0.9826897319961267</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9716248229675617</v>
+        <v>0.9716248229675607</v>
       </c>
       <c r="D25">
-        <v>0.9941845411811042</v>
+        <v>0.9941845411811036</v>
       </c>
       <c r="E25">
-        <v>0.9831820437590281</v>
+        <v>0.9831820437590267</v>
       </c>
       <c r="F25">
-        <v>0.9915935822188143</v>
+        <v>0.9915935822188128</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034243667754418</v>
       </c>
       <c r="J25">
-        <v>0.99714636914448</v>
+        <v>0.9971463691444789</v>
       </c>
       <c r="K25">
         <v>1.006873810503199</v>
       </c>
       <c r="L25">
-        <v>0.996047170668276</v>
+        <v>0.9960471706682748</v>
       </c>
       <c r="M25">
-        <v>1.004323813958113</v>
+        <v>1.004323813958112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9899651009761188</v>
+        <v>0.9899651009761186</v>
       </c>
       <c r="D2">
         <v>1.008556996895642</v>
@@ -430,7 +430,7 @@
         <v>1.000602401558429</v>
       </c>
       <c r="F2">
-        <v>1.008364956516858</v>
+        <v>1.008364956516857</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.019898392625968</v>
       </c>
       <c r="L2">
-        <v>1.012053350345553</v>
+        <v>1.012053350345552</v>
       </c>
       <c r="M2">
-        <v>1.01970897145057</v>
+        <v>1.019708971450569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002274595299496</v>
+        <v>1.002274595299495</v>
       </c>
       <c r="D3">
-        <v>1.01820220448568</v>
+        <v>1.018202204485679</v>
       </c>
       <c r="E3">
         <v>1.012311445675932</v>
       </c>
       <c r="F3">
-        <v>1.019644574634199</v>
+        <v>1.019644574634198</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009844604780816</v>
+        <v>1.009844604780814</v>
       </c>
       <c r="D4">
-        <v>1.02413146915119</v>
+        <v>1.024131469151188</v>
       </c>
       <c r="E4">
-        <v>1.019518825454521</v>
+        <v>1.019518825454519</v>
       </c>
       <c r="F4">
-        <v>1.026590157673553</v>
+        <v>1.026590157673551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048912643054386</v>
+        <v>1.048912643054384</v>
       </c>
       <c r="J4">
-        <v>1.028999793498216</v>
+        <v>1.028999793498214</v>
       </c>
       <c r="K4">
-        <v>1.033947117670426</v>
+        <v>1.033947117670425</v>
       </c>
       <c r="L4">
-        <v>1.029387247595846</v>
+        <v>1.029387247595844</v>
       </c>
       <c r="M4">
-        <v>1.03637791498174</v>
+        <v>1.036377914981738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012941222908789</v>
+        <v>1.012941222908792</v>
       </c>
       <c r="D5">
-        <v>1.026556153273509</v>
+        <v>1.026556153273512</v>
       </c>
       <c r="E5">
-        <v>1.022468546370949</v>
+        <v>1.022468546370952</v>
       </c>
       <c r="F5">
-        <v>1.029433267143814</v>
+        <v>1.029433267143817</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050083827696269</v>
+        <v>1.050083827696271</v>
       </c>
       <c r="J5">
-        <v>1.031573112648968</v>
+        <v>1.031573112648971</v>
       </c>
       <c r="K5">
-        <v>1.036127456817391</v>
+        <v>1.036127456817393</v>
       </c>
       <c r="L5">
-        <v>1.032085155650178</v>
+        <v>1.03208515565018</v>
       </c>
       <c r="M5">
-        <v>1.038972946659875</v>
+        <v>1.038972946659877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,10 +573,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013456356796555</v>
+        <v>1.013456356796554</v>
       </c>
       <c r="D6">
-        <v>1.026959457665489</v>
+        <v>1.026959457665488</v>
       </c>
       <c r="E6">
         <v>1.022959324258021</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050278354991173</v>
+        <v>1.050278354991172</v>
       </c>
       <c r="J6">
-        <v>1.032001056445647</v>
+        <v>1.032001056445646</v>
       </c>
       <c r="K6">
-        <v>1.036489928010243</v>
+        <v>1.036489928010242</v>
       </c>
       <c r="L6">
-        <v>1.032533893559254</v>
+        <v>1.032533893559253</v>
       </c>
       <c r="M6">
-        <v>1.039404588101528</v>
+        <v>1.039404588101527</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009886308539383</v>
+        <v>1.009886308539381</v>
       </c>
       <c r="D7">
-        <v>1.024164126931702</v>
+        <v>1.024164126931699</v>
       </c>
       <c r="E7">
-        <v>1.019558545326971</v>
+        <v>1.019558545326969</v>
       </c>
       <c r="F7">
-        <v>1.026628439931115</v>
+        <v>1.026628439931112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048928436448862</v>
+        <v>1.04892843644886</v>
       </c>
       <c r="J7">
-        <v>1.029034458937938</v>
+        <v>1.029034458937935</v>
       </c>
       <c r="K7">
-        <v>1.033976497311409</v>
+        <v>1.033976497311406</v>
       </c>
       <c r="L7">
-        <v>1.029423586317352</v>
+        <v>1.029423586317349</v>
       </c>
       <c r="M7">
-        <v>1.03641286701196</v>
+        <v>1.036412867011957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942126791539276</v>
+        <v>0.9942126791539293</v>
       </c>
       <c r="D8">
-        <v>1.011885564145417</v>
+        <v>1.011885564145419</v>
       </c>
       <c r="E8">
-        <v>1.004641265021146</v>
+        <v>1.004641265021147</v>
       </c>
       <c r="F8">
-        <v>1.012255103682917</v>
+        <v>1.012255103682919</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042956690978531</v>
       </c>
       <c r="J8">
-        <v>1.015990101665976</v>
+        <v>1.015990101665978</v>
       </c>
       <c r="K8">
-        <v>1.022906909230865</v>
+        <v>1.022906909230866</v>
       </c>
       <c r="L8">
-        <v>1.015758732320997</v>
+        <v>1.015758732320998</v>
       </c>
       <c r="M8">
-        <v>1.023271591704907</v>
+        <v>1.023271591704909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9630830289396827</v>
+        <v>0.9630830289396801</v>
       </c>
       <c r="D9">
-        <v>0.9874925387604593</v>
+        <v>0.987492538760457</v>
       </c>
       <c r="E9">
-        <v>0.9750792988674902</v>
+        <v>0.9750792988674882</v>
       </c>
       <c r="F9">
-        <v>0.9837970988563565</v>
+        <v>0.9837970988563541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030922475716115</v>
+        <v>1.030922475716114</v>
       </c>
       <c r="J9">
-        <v>0.9900103292086085</v>
+        <v>0.9900103292086061</v>
       </c>
       <c r="K9">
-        <v>1.000791853561329</v>
+        <v>1.000791853561327</v>
       </c>
       <c r="L9">
-        <v>0.9885900655493851</v>
+        <v>0.9885900655493831</v>
       </c>
       <c r="M9">
-        <v>0.9971586433619781</v>
+        <v>0.997158643361976</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9390861920293055</v>
+        <v>0.9390861920293035</v>
       </c>
       <c r="D10">
-        <v>0.9687086264136862</v>
+        <v>0.968708626413684</v>
       </c>
       <c r="E10">
-        <v>0.9523534842367415</v>
+        <v>0.9523534842367396</v>
       </c>
       <c r="F10">
-        <v>0.9619464530826162</v>
+        <v>0.961946453082614</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021533573212767</v>
+        <v>1.021533573212766</v>
       </c>
       <c r="J10">
-        <v>0.9699439298797552</v>
+        <v>0.9699439298797531</v>
       </c>
       <c r="K10">
-        <v>0.9836668135629579</v>
+        <v>0.983666813562956</v>
       </c>
       <c r="L10">
-        <v>0.9676398129157486</v>
+        <v>0.9676398129157467</v>
       </c>
       <c r="M10">
-        <v>0.9770385336641499</v>
+        <v>0.9770385336641478</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.927638612072381</v>
+        <v>0.9276386120723789</v>
       </c>
       <c r="D11">
-        <v>0.9597604125358775</v>
+        <v>0.9597604125358757</v>
       </c>
       <c r="E11">
-        <v>0.9415325797076789</v>
+        <v>0.9415325797076765</v>
       </c>
       <c r="F11">
-        <v>0.9515512575004332</v>
+        <v>0.9515512575004309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017030756691717</v>
+        <v>1.017030756691716</v>
       </c>
       <c r="J11">
-        <v>0.9603655401405886</v>
+        <v>0.9603655401405865</v>
       </c>
       <c r="K11">
-        <v>0.9754832935651879</v>
+        <v>0.975483293565186</v>
       </c>
       <c r="L11">
-        <v>0.9576482774169264</v>
+        <v>0.9576482774169239</v>
       </c>
       <c r="M11">
-        <v>0.9674485787794734</v>
+        <v>0.9674485787794713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9231928753012844</v>
+        <v>0.9231928753012851</v>
       </c>
       <c r="D12">
-        <v>0.956288127667676</v>
+        <v>0.9562881276676763</v>
       </c>
       <c r="E12">
-        <v>0.9373339017944571</v>
+        <v>0.9373339017944579</v>
       </c>
       <c r="F12">
-        <v>0.9475194238661454</v>
+        <v>0.9475194238661461</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01527882570502</v>
       </c>
       <c r="J12">
-        <v>0.9566452828170907</v>
+        <v>0.9566452828170913</v>
       </c>
       <c r="K12">
-        <v>0.9723035905283094</v>
+        <v>0.9723035905283098</v>
       </c>
       <c r="L12">
-        <v>0.9537689241971986</v>
+        <v>0.9537689241971992</v>
       </c>
       <c r="M12">
-        <v>0.9637262100250865</v>
+        <v>0.9637262100250872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9241559522205772</v>
+        <v>0.9241559522205761</v>
       </c>
       <c r="D13">
-        <v>0.957040182416128</v>
+        <v>0.9570401824161271</v>
       </c>
       <c r="E13">
-        <v>0.9382432807883825</v>
+        <v>0.9382432807883813</v>
       </c>
       <c r="F13">
-        <v>0.9483925858598226</v>
+        <v>0.9483925858598212</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015658483765292</v>
       </c>
       <c r="J13">
-        <v>0.957451210375172</v>
+        <v>0.9574512103751709</v>
       </c>
       <c r="K13">
-        <v>0.9729924680673153</v>
+        <v>0.9729924680673143</v>
       </c>
       <c r="L13">
-        <v>0.9546092544403221</v>
+        <v>0.9546092544403209</v>
       </c>
       <c r="M13">
-        <v>0.9645324829527084</v>
+        <v>0.9645324829527071</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.927275319490068</v>
+        <v>0.9272753194900712</v>
       </c>
       <c r="D14">
-        <v>0.9594766049144303</v>
+        <v>0.9594766049144334</v>
       </c>
       <c r="E14">
-        <v>0.9411893977229212</v>
+        <v>0.9411893977229248</v>
       </c>
       <c r="F14">
-        <v>0.9512216771284886</v>
+        <v>0.9512216771284916</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016887656608692</v>
+        <v>1.016887656608694</v>
       </c>
       <c r="J14">
-        <v>0.9600615372561941</v>
+        <v>0.9600615372561976</v>
       </c>
       <c r="K14">
-        <v>0.9752234856847786</v>
+        <v>0.9752234856847816</v>
       </c>
       <c r="L14">
-        <v>0.9573312460198992</v>
+        <v>0.9573312460199026</v>
       </c>
       <c r="M14">
-        <v>0.9671443537370567</v>
+        <v>0.9671443537370598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.92917036903751</v>
+        <v>0.9291703690375102</v>
       </c>
       <c r="D15">
-        <v>0.9609571546450399</v>
+        <v>0.9609571546450398</v>
       </c>
       <c r="E15">
-        <v>0.9429796963312627</v>
+        <v>0.9429796963312629</v>
       </c>
       <c r="F15">
-        <v>0.9529410882843488</v>
+        <v>0.9529410882843493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017633984457668</v>
+        <v>1.017633984457669</v>
       </c>
       <c r="J15">
-        <v>0.9616472985078865</v>
+        <v>0.9616472985078868</v>
       </c>
       <c r="K15">
-        <v>0.9765786660951219</v>
+        <v>0.976578666095122</v>
       </c>
       <c r="L15">
-        <v>0.9589850229588955</v>
+        <v>0.9589850229588959</v>
       </c>
       <c r="M15">
-        <v>0.9687313712612399</v>
+        <v>0.9687313712612403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.939820945158784</v>
+        <v>0.9398209451587807</v>
       </c>
       <c r="D16">
-        <v>0.969283283546758</v>
+        <v>0.9692832835467553</v>
       </c>
       <c r="E16">
-        <v>0.9530484736633064</v>
+        <v>0.9530484736633029</v>
       </c>
       <c r="F16">
-        <v>0.9626143063144023</v>
+        <v>0.9626143063143997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021822126457989</v>
+        <v>1.021822126457988</v>
       </c>
       <c r="J16">
-        <v>0.9705586263735939</v>
+        <v>0.9705586263735908</v>
       </c>
       <c r="K16">
-        <v>0.9841918209475221</v>
+        <v>0.9841918209475194</v>
       </c>
       <c r="L16">
-        <v>0.9682812043225499</v>
+        <v>0.9682812043225465</v>
       </c>
       <c r="M16">
-        <v>0.9776542770643458</v>
+        <v>0.9776542770643433</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9461975835919032</v>
+        <v>0.9461975835919053</v>
       </c>
       <c r="D17">
-        <v>0.9742719657742893</v>
+        <v>0.9742719657742911</v>
       </c>
       <c r="E17">
-        <v>0.9590823003309231</v>
+        <v>0.9590823003309249</v>
       </c>
       <c r="F17">
-        <v>0.9684135526345563</v>
+        <v>0.9684135526345582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02432378247847</v>
+        <v>1.024323782478471</v>
       </c>
       <c r="J17">
-        <v>0.9758927402999542</v>
+        <v>0.9758927402999562</v>
       </c>
       <c r="K17">
-        <v>0.9887466572488922</v>
+        <v>0.9887466572488939</v>
       </c>
       <c r="L17">
-        <v>0.9738479301417028</v>
+        <v>0.9738479301417048</v>
       </c>
       <c r="M17">
-        <v>0.9829990400101569</v>
+        <v>0.9829990400101588</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.94981783922449</v>
+        <v>0.9498178392244937</v>
       </c>
       <c r="D18">
-        <v>0.9771053010942234</v>
+        <v>0.977105301094227</v>
       </c>
       <c r="E18">
-        <v>0.9625097314127313</v>
+        <v>0.9625097314127351</v>
       </c>
       <c r="F18">
-        <v>0.9717085294639602</v>
+        <v>0.971708529463964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025741868875427</v>
+        <v>1.025741868875429</v>
       </c>
       <c r="J18">
-        <v>0.9789205552098411</v>
+        <v>0.9789205552098449</v>
       </c>
       <c r="K18">
-        <v>0.9913312864107078</v>
+        <v>0.9913312864107113</v>
       </c>
       <c r="L18">
-        <v>0.9770085739612512</v>
+        <v>0.9770085739612552</v>
       </c>
       <c r="M18">
-        <v>0.9860341589672151</v>
+        <v>0.9860341589672189</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510363217832913</v>
+        <v>0.9510363217832909</v>
       </c>
       <c r="D19">
-        <v>0.9780590870216127</v>
+        <v>0.9780590870216122</v>
       </c>
       <c r="E19">
-        <v>0.9636636048420423</v>
+        <v>0.9636636048420419</v>
       </c>
       <c r="F19">
-        <v>0.9728179385198292</v>
+        <v>0.9728179385198288</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.026218778137975</v>
       </c>
       <c r="J19">
-        <v>0.9799395322296705</v>
+        <v>0.9799395322296699</v>
       </c>
       <c r="K19">
-        <v>0.9922009675110146</v>
+        <v>0.9922009675110141</v>
       </c>
       <c r="L19">
-        <v>0.9780723858287468</v>
+        <v>0.9780723858287464</v>
       </c>
       <c r="M19">
         <v>0.9870558012169305</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9455239002631705</v>
+        <v>0.9455239002631701</v>
       </c>
       <c r="D20">
-        <v>0.9737448004034591</v>
+        <v>0.9737448004034586</v>
       </c>
       <c r="E20">
-        <v>0.9584446424724439</v>
+        <v>0.9584446424724435</v>
       </c>
       <c r="F20">
-        <v>0.9678006003299384</v>
+        <v>0.967800600329938</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.024059713364454</v>
       </c>
       <c r="J20">
-        <v>0.9753292542782874</v>
+        <v>0.975329254278287</v>
       </c>
       <c r="K20">
-        <v>0.9882655798152857</v>
+        <v>0.988265579815285</v>
       </c>
       <c r="L20">
-        <v>0.9732597884235507</v>
+        <v>0.9732597884235503</v>
       </c>
       <c r="M20">
-        <v>0.982434295828107</v>
+        <v>0.9824342958281066</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9263624272152851</v>
+        <v>0.9263624272152831</v>
       </c>
       <c r="D21">
-        <v>0.9587634932375533</v>
+        <v>0.9587634932375511</v>
       </c>
       <c r="E21">
-        <v>0.9403271012679901</v>
+        <v>0.9403271012679876</v>
       </c>
       <c r="F21">
-        <v>0.9503935845480371</v>
+        <v>0.950393584548035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016528020261374</v>
+        <v>1.016528020261373</v>
       </c>
       <c r="J21">
-        <v>0.9592976247335632</v>
+        <v>0.9592976247335609</v>
       </c>
       <c r="K21">
-        <v>0.9745706096525649</v>
+        <v>0.9745706096525629</v>
       </c>
       <c r="L21">
-        <v>0.9565346169417789</v>
+        <v>0.9565346169417763</v>
       </c>
       <c r="M21">
-        <v>0.9663799220105568</v>
+        <v>0.9663799220105549</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9131675473405094</v>
+        <v>0.9131675473405093</v>
       </c>
       <c r="D22">
-        <v>0.9484645357849155</v>
+        <v>0.9484645357849154</v>
       </c>
       <c r="E22">
         <v>0.9278734831721297</v>
       </c>
       <c r="F22">
-        <v>0.9384384833701166</v>
+        <v>0.9384384833701165</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0.948255777918661</v>
       </c>
       <c r="K22">
-        <v>0.9651310462375199</v>
+        <v>0.9651310462375198</v>
       </c>
       <c r="L22">
         <v>0.94502327969797</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9202862284400731</v>
+        <v>0.9202862284400724</v>
       </c>
       <c r="D23">
         <v>0.9540188635222466</v>
       </c>
       <c r="E23">
-        <v>0.9345899205735589</v>
+        <v>0.9345899205735583</v>
       </c>
       <c r="F23">
-        <v>0.9448849982117442</v>
+        <v>0.9448849982117439</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01413254563803</v>
       </c>
       <c r="J23">
-        <v>0.9542129055596751</v>
+        <v>0.9542129055596746</v>
       </c>
       <c r="K23">
-        <v>0.9702243203725651</v>
+        <v>0.9702243203725649</v>
       </c>
       <c r="L23">
-        <v>0.9512329220147717</v>
+        <v>0.9512329220147711</v>
       </c>
       <c r="M23">
-        <v>0.9612931647267617</v>
+        <v>0.9612931647267614</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9458286126081272</v>
+        <v>0.9458286126081258</v>
       </c>
       <c r="D24">
-        <v>0.9739832382126719</v>
+        <v>0.973983238212671</v>
       </c>
       <c r="E24">
-        <v>0.9587330546197576</v>
+        <v>0.9587330546197564</v>
       </c>
       <c r="F24">
-        <v>0.9680778357093871</v>
+        <v>0.9680778357093858</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024179160822017</v>
       </c>
       <c r="J24">
-        <v>0.975584125283983</v>
+        <v>0.9755841252839818</v>
       </c>
       <c r="K24">
-        <v>0.9884831791428839</v>
+        <v>0.9884831791428831</v>
       </c>
       <c r="L24">
-        <v>0.9735258090074538</v>
+        <v>0.9735258090074526</v>
       </c>
       <c r="M24">
-        <v>0.9826897319961267</v>
+        <v>0.9826897319961253</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9716248229675607</v>
+        <v>0.9716248229675617</v>
       </c>
       <c r="D25">
-        <v>0.9941845411811036</v>
+        <v>0.9941845411811042</v>
       </c>
       <c r="E25">
-        <v>0.9831820437590267</v>
+        <v>0.9831820437590281</v>
       </c>
       <c r="F25">
-        <v>0.9915935822188128</v>
+        <v>0.9915935822188143</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034243667754418</v>
       </c>
       <c r="J25">
-        <v>0.9971463691444789</v>
+        <v>0.99714636914448</v>
       </c>
       <c r="K25">
         <v>1.006873810503199</v>
       </c>
       <c r="L25">
-        <v>0.9960471706682748</v>
+        <v>0.996047170668276</v>
       </c>
       <c r="M25">
-        <v>1.004323813958112</v>
+        <v>1.004323813958113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9899651009761186</v>
+        <v>0.9933322541609164</v>
       </c>
       <c r="D2">
-        <v>1.008556996895642</v>
+        <v>1.011146038275043</v>
       </c>
       <c r="E2">
-        <v>1.000602401558429</v>
+        <v>1.003903456335252</v>
       </c>
       <c r="F2">
-        <v>1.008364956516857</v>
+        <v>1.01125598830807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041326977213245</v>
+        <v>1.042723790303014</v>
       </c>
       <c r="J2">
-        <v>1.012450153585621</v>
+        <v>1.015714241930991</v>
       </c>
       <c r="K2">
-        <v>1.019898392625968</v>
+        <v>1.022452244724214</v>
       </c>
       <c r="L2">
-        <v>1.012053350345552</v>
+        <v>1.015308676369696</v>
       </c>
       <c r="M2">
-        <v>1.019708971450569</v>
+        <v>1.022560705374733</v>
+      </c>
+      <c r="N2">
+        <v>1.017156672658585</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002274595299495</v>
+        <v>1.005596425719841</v>
       </c>
       <c r="D3">
-        <v>1.018202204485679</v>
+        <v>1.020758620407824</v>
       </c>
       <c r="E3">
-        <v>1.012311445675932</v>
+        <v>1.015572242465622</v>
       </c>
       <c r="F3">
-        <v>1.019644574634198</v>
+        <v>1.022495533686044</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046037047796678</v>
+        <v>1.047417878695226</v>
       </c>
       <c r="J3">
-        <v>1.02270344403155</v>
+        <v>1.025935680535287</v>
       </c>
       <c r="K3">
-        <v>1.028607363876069</v>
+        <v>1.031132605746882</v>
       </c>
       <c r="L3">
-        <v>1.022789185950732</v>
+        <v>1.02600967653365</v>
       </c>
       <c r="M3">
-        <v>1.030032121248329</v>
+        <v>1.032848448805318</v>
+      </c>
+      <c r="N3">
+        <v>1.027392626878115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009844604780814</v>
+        <v>1.013141389495048</v>
       </c>
       <c r="D4">
-        <v>1.024131469151188</v>
+        <v>1.026669954903215</v>
       </c>
       <c r="E4">
-        <v>1.019518825454519</v>
+        <v>1.022757445070918</v>
       </c>
       <c r="F4">
-        <v>1.026590157673551</v>
+        <v>1.029418908453715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048912643054384</v>
+        <v>1.050284803279372</v>
       </c>
       <c r="J4">
-        <v>1.028999793498214</v>
+        <v>1.032214807903781</v>
       </c>
       <c r="K4">
-        <v>1.033947117670425</v>
+        <v>1.036456809755057</v>
       </c>
       <c r="L4">
-        <v>1.029387247595844</v>
+        <v>1.032588752492511</v>
       </c>
       <c r="M4">
-        <v>1.036377914981738</v>
+        <v>1.039174779591309</v>
+      </c>
+      <c r="N4">
+        <v>1.033680671327698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012941222908792</v>
+        <v>1.016228351873516</v>
       </c>
       <c r="D5">
-        <v>1.026556153273512</v>
+        <v>1.029087751604983</v>
       </c>
       <c r="E5">
-        <v>1.022468546370952</v>
+        <v>1.025698632769641</v>
       </c>
       <c r="F5">
-        <v>1.029433267143817</v>
+        <v>1.03225344214651</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050083827696271</v>
+        <v>1.051452685092578</v>
       </c>
       <c r="J5">
-        <v>1.031573112648971</v>
+        <v>1.034781577477593</v>
       </c>
       <c r="K5">
-        <v>1.036127456817393</v>
+        <v>1.03863121740814</v>
       </c>
       <c r="L5">
-        <v>1.03208515565018</v>
+        <v>1.035279404003324</v>
       </c>
       <c r="M5">
-        <v>1.038972946659877</v>
+        <v>1.041762333455857</v>
+      </c>
+      <c r="N5">
+        <v>1.036251086008717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013456356796554</v>
+        <v>1.016741911944534</v>
       </c>
       <c r="D6">
-        <v>1.026959457665488</v>
+        <v>1.029489934926699</v>
       </c>
       <c r="E6">
-        <v>1.022959324258021</v>
+        <v>1.026188020789243</v>
       </c>
       <c r="F6">
-        <v>1.029906336252421</v>
+        <v>1.032725112677115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050278354991172</v>
+        <v>1.051646676456734</v>
       </c>
       <c r="J6">
-        <v>1.032001056445646</v>
+        <v>1.035208459051215</v>
       </c>
       <c r="K6">
-        <v>1.036489928010242</v>
+        <v>1.038992725594269</v>
       </c>
       <c r="L6">
-        <v>1.032533893559253</v>
+        <v>1.035726962866538</v>
       </c>
       <c r="M6">
-        <v>1.039404588101527</v>
+        <v>1.042192757617173</v>
+      </c>
+      <c r="N6">
+        <v>1.036678573803137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009886308539381</v>
+        <v>1.01318296097652</v>
       </c>
       <c r="D7">
-        <v>1.024164126931699</v>
+        <v>1.026702518226771</v>
       </c>
       <c r="E7">
-        <v>1.019558545326969</v>
+        <v>1.02279704797655</v>
       </c>
       <c r="F7">
-        <v>1.026628439931112</v>
+        <v>1.029457073284006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04892843644886</v>
+        <v>1.050300551263092</v>
       </c>
       <c r="J7">
-        <v>1.029034458937935</v>
+        <v>1.032249383253837</v>
       </c>
       <c r="K7">
-        <v>1.033976497311406</v>
+        <v>1.036486107879626</v>
       </c>
       <c r="L7">
-        <v>1.029423586317349</v>
+        <v>1.032624991548949</v>
       </c>
       <c r="M7">
-        <v>1.036412867011957</v>
+        <v>1.039209629074985</v>
+      </c>
+      <c r="N7">
+        <v>1.033715295778716</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942126791539293</v>
+        <v>0.997563526153924</v>
       </c>
       <c r="D8">
-        <v>1.011885564145419</v>
+        <v>1.014462845746247</v>
       </c>
       <c r="E8">
-        <v>1.004641265021147</v>
+        <v>1.007927819707269</v>
       </c>
       <c r="F8">
-        <v>1.012255103682919</v>
+        <v>1.015131733805722</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042956690978531</v>
+        <v>1.044347717727677</v>
       </c>
       <c r="J8">
-        <v>1.015990101665978</v>
+        <v>1.019242642186663</v>
       </c>
       <c r="K8">
-        <v>1.022906909230866</v>
+        <v>1.025450408544739</v>
       </c>
       <c r="L8">
-        <v>1.015758732320998</v>
+        <v>1.019001463892908</v>
       </c>
       <c r="M8">
-        <v>1.023271591704909</v>
+        <v>1.026110564124113</v>
+      </c>
+      <c r="N8">
+        <v>1.020690083647333</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9630830289396801</v>
+        <v>0.9665714535750223</v>
       </c>
       <c r="D9">
-        <v>0.987492538760457</v>
+        <v>0.9901695152085167</v>
       </c>
       <c r="E9">
-        <v>0.9750792988674882</v>
+        <v>0.9784885894385077</v>
       </c>
       <c r="F9">
-        <v>0.9837970988563541</v>
+        <v>0.9867947918194049</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030922475716114</v>
+        <v>1.032363163042959</v>
       </c>
       <c r="J9">
-        <v>0.9900103292086061</v>
+        <v>0.993362512756968</v>
       </c>
       <c r="K9">
-        <v>1.000791853561327</v>
+        <v>1.003424124481425</v>
       </c>
       <c r="L9">
-        <v>0.9885900655493831</v>
+        <v>0.991940590250957</v>
       </c>
       <c r="M9">
-        <v>0.997158643361976</v>
+        <v>1.000105810376195</v>
+      </c>
+      <c r="N9">
+        <v>0.9947732014653555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9390861920293035</v>
+        <v>0.9427139649460925</v>
       </c>
       <c r="D10">
-        <v>0.968708626413684</v>
+        <v>0.9714871627129872</v>
       </c>
       <c r="E10">
-        <v>0.9523534842367396</v>
+        <v>0.9558876756279414</v>
       </c>
       <c r="F10">
-        <v>0.961946453082614</v>
+        <v>0.9650659720001277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021533573212766</v>
+        <v>1.023025711150525</v>
       </c>
       <c r="J10">
-        <v>0.9699439298797531</v>
+        <v>0.9734004219292774</v>
       </c>
       <c r="K10">
-        <v>0.983666813562956</v>
+        <v>0.9863910423451889</v>
       </c>
       <c r="L10">
-        <v>0.9676398129157467</v>
+        <v>0.9711018427040768</v>
       </c>
       <c r="M10">
-        <v>0.9770385336641478</v>
+        <v>0.9800959786562419</v>
+      </c>
+      <c r="N10">
+        <v>0.9747827621790056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9276386120723789</v>
+        <v>0.9313455026792689</v>
       </c>
       <c r="D11">
-        <v>0.9597604125358757</v>
+        <v>0.9625967117217481</v>
       </c>
       <c r="E11">
-        <v>0.9415325797076765</v>
+        <v>0.945137834087282</v>
       </c>
       <c r="F11">
-        <v>0.9515512575004309</v>
+        <v>0.9547396830780009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017030756691716</v>
+        <v>1.018552369360414</v>
       </c>
       <c r="J11">
-        <v>0.9603655401405865</v>
+        <v>0.9638821738199953</v>
       </c>
       <c r="K11">
-        <v>0.975483293565186</v>
+        <v>0.9782602367525005</v>
       </c>
       <c r="L11">
-        <v>0.9576482774169239</v>
+        <v>0.9611742396864414</v>
       </c>
       <c r="M11">
-        <v>0.9674485787794713</v>
+        <v>0.9705687799445963</v>
+      </c>
+      <c r="N11">
+        <v>0.9652509970656504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9231928753012851</v>
+        <v>0.9269330258048964</v>
       </c>
       <c r="D12">
-        <v>0.9562881276676763</v>
+        <v>0.9591487199185056</v>
       </c>
       <c r="E12">
-        <v>0.9373339017944579</v>
+        <v>0.9409690526271259</v>
       </c>
       <c r="F12">
-        <v>0.9475194238661461</v>
+        <v>0.950736769207796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01527882570502</v>
+        <v>1.016812867053522</v>
       </c>
       <c r="J12">
-        <v>0.9566452828170913</v>
+        <v>0.9601873481848821</v>
       </c>
       <c r="K12">
-        <v>0.9723035905283098</v>
+        <v>0.9751027707340132</v>
       </c>
       <c r="L12">
-        <v>0.9537689241971992</v>
+        <v>0.9573218629906017</v>
       </c>
       <c r="M12">
-        <v>0.9637262100250872</v>
+        <v>0.9668728117704042</v>
+      </c>
+      <c r="N12">
+        <v>0.9615509243543329</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9241559522205761</v>
+        <v>0.9278887704837454</v>
       </c>
       <c r="D13">
-        <v>0.9570401824161271</v>
+        <v>0.9598954188174961</v>
       </c>
       <c r="E13">
-        <v>0.9382432807883813</v>
+        <v>0.9418718398543443</v>
       </c>
       <c r="F13">
-        <v>0.9483925858598212</v>
+        <v>0.9516035580208363</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015658483765292</v>
+        <v>1.017189783518883</v>
       </c>
       <c r="J13">
-        <v>0.9574512103751709</v>
+        <v>0.9609876624388443</v>
       </c>
       <c r="K13">
-        <v>0.9729924680673143</v>
+        <v>0.9757867426391237</v>
       </c>
       <c r="L13">
-        <v>0.9546092544403209</v>
+        <v>0.9581562416130859</v>
       </c>
       <c r="M13">
-        <v>0.9645324829527071</v>
+        <v>0.9676732638325227</v>
+      </c>
+      <c r="N13">
+        <v>0.9623523751463331</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9272753194900712</v>
+        <v>0.9309848724314781</v>
       </c>
       <c r="D14">
-        <v>0.9594766049144334</v>
+        <v>0.9623148484994823</v>
       </c>
       <c r="E14">
-        <v>0.9411893977229248</v>
+        <v>0.9447970447615875</v>
       </c>
       <c r="F14">
-        <v>0.9512216771284916</v>
+        <v>0.95441241861287</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016887656608694</v>
+        <v>1.018410263415346</v>
       </c>
       <c r="J14">
-        <v>0.9600615372561976</v>
+        <v>0.9635802036640757</v>
       </c>
       <c r="K14">
-        <v>0.9752234856847816</v>
+        <v>0.978002207359019</v>
       </c>
       <c r="L14">
-        <v>0.9573312460199026</v>
+        <v>0.9608593656594636</v>
       </c>
       <c r="M14">
-        <v>0.9671443537370598</v>
+        <v>0.9702666678236034</v>
+      </c>
+      <c r="N14">
+        <v>0.964948598077473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9291703690375102</v>
+        <v>0.9328661407019641</v>
       </c>
       <c r="D15">
-        <v>0.9609571546450398</v>
+        <v>0.9637853336397298</v>
       </c>
       <c r="E15">
-        <v>0.9429796963312629</v>
+        <v>0.9465749589192927</v>
       </c>
       <c r="F15">
-        <v>0.9529410882843493</v>
+        <v>0.9561198398341375</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017633984457669</v>
+        <v>1.01915144668621</v>
       </c>
       <c r="J15">
-        <v>0.9616472985078868</v>
+        <v>0.9651554485884883</v>
       </c>
       <c r="K15">
-        <v>0.976578666095122</v>
+        <v>0.9793481846176271</v>
       </c>
       <c r="L15">
-        <v>0.9589850229588959</v>
+        <v>0.9625019791531274</v>
       </c>
       <c r="M15">
-        <v>0.9687313712612403</v>
+        <v>0.9718427487599348</v>
+      </c>
+      <c r="N15">
+        <v>0.9665260800303614</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9398209451587807</v>
+        <v>0.9434439418030524</v>
       </c>
       <c r="D16">
-        <v>0.9692832835467553</v>
+        <v>0.9720583342985484</v>
       </c>
       <c r="E16">
-        <v>0.9530484736633029</v>
+        <v>0.9565783778504207</v>
       </c>
       <c r="F16">
-        <v>0.9626143063143997</v>
+        <v>0.9657296598927222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021822126457988</v>
+        <v>1.023312489845631</v>
       </c>
       <c r="J16">
-        <v>0.9705586263735908</v>
+        <v>0.9740115057442029</v>
       </c>
       <c r="K16">
-        <v>0.9841918209475194</v>
+        <v>0.9869128769236175</v>
       </c>
       <c r="L16">
-        <v>0.9682812043225465</v>
+        <v>0.971739386727978</v>
       </c>
       <c r="M16">
-        <v>0.9776542770643433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9807079360176459</v>
+      </c>
+      <c r="N16">
+        <v>0.9753947138030409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9461975835919053</v>
+        <v>0.9497805590535061</v>
       </c>
       <c r="D17">
-        <v>0.9742719657742911</v>
+        <v>0.9770178201395011</v>
       </c>
       <c r="E17">
-        <v>0.9590823003309249</v>
+        <v>0.9625762961246048</v>
       </c>
       <c r="F17">
-        <v>0.9684135526345582</v>
+        <v>0.9714939773659359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024323782478471</v>
+        <v>1.025799302600171</v>
       </c>
       <c r="J17">
-        <v>0.9758927402999562</v>
+        <v>0.979315440780434</v>
       </c>
       <c r="K17">
-        <v>0.9887466572488939</v>
+        <v>0.9914411779477239</v>
       </c>
       <c r="L17">
-        <v>0.9738479301417048</v>
+        <v>0.9772739372909316</v>
       </c>
       <c r="M17">
-        <v>0.9829990400101588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9860209891919699</v>
+      </c>
+      <c r="N17">
+        <v>0.9807061810353931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9498178392244937</v>
+        <v>0.9533791929169535</v>
       </c>
       <c r="D18">
-        <v>0.977105301094227</v>
+        <v>0.9798353903494027</v>
       </c>
       <c r="E18">
-        <v>0.9625097314127351</v>
+        <v>0.9659843394794387</v>
       </c>
       <c r="F18">
-        <v>0.971708529463964</v>
+        <v>0.974770062700235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025741868875429</v>
+        <v>1.027209391319235</v>
       </c>
       <c r="J18">
-        <v>0.9789205552098449</v>
+        <v>0.982327025570682</v>
       </c>
       <c r="K18">
-        <v>0.9913312864107113</v>
+        <v>0.9940115122366777</v>
       </c>
       <c r="L18">
-        <v>0.9770085739612552</v>
+        <v>0.980417248628121</v>
       </c>
       <c r="M18">
-        <v>0.9860341589672189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9890389885883333</v>
+      </c>
+      <c r="N18">
+        <v>0.983722042621477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510363217832909</v>
+        <v>0.9545905705430348</v>
       </c>
       <c r="D19">
-        <v>0.9780590870216122</v>
+        <v>0.9807839973870033</v>
       </c>
       <c r="E19">
-        <v>0.9636636048420419</v>
+        <v>0.9671318441211526</v>
       </c>
       <c r="F19">
-        <v>0.9728179385198288</v>
+        <v>0.9758732606228695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026218778137975</v>
+        <v>1.027683676225206</v>
       </c>
       <c r="J19">
-        <v>0.9799395322296699</v>
+        <v>0.9833406817176251</v>
       </c>
       <c r="K19">
-        <v>0.9922009675110141</v>
+        <v>0.9948765029688345</v>
       </c>
       <c r="L19">
-        <v>0.9780723858287464</v>
+        <v>0.981475373441846</v>
       </c>
       <c r="M19">
-        <v>0.9870558012169305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9900550074140715</v>
+      </c>
+      <c r="N19">
+        <v>0.9847371382764171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9455239002631701</v>
+        <v>0.9491109854349729</v>
       </c>
       <c r="D20">
-        <v>0.9737448004034586</v>
+        <v>0.9764936520213433</v>
       </c>
       <c r="E20">
-        <v>0.9584446424724435</v>
+        <v>0.9619423243521622</v>
       </c>
       <c r="F20">
-        <v>0.967800600329938</v>
+        <v>0.9708846141178104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024059713364454</v>
+        <v>1.025536755434961</v>
       </c>
       <c r="J20">
-        <v>0.975329254278287</v>
+        <v>0.9787550458103625</v>
       </c>
       <c r="K20">
-        <v>0.988265579815285</v>
+        <v>0.9909628210047386</v>
       </c>
       <c r="L20">
-        <v>0.9732597884235503</v>
+        <v>0.9766890941875556</v>
       </c>
       <c r="M20">
-        <v>0.9824342958281066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9854594999826864</v>
+      </c>
+      <c r="N20">
+        <v>0.980144990240186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9263624272152831</v>
+        <v>0.9300787132704625</v>
       </c>
       <c r="D21">
-        <v>0.9587634932375511</v>
+        <v>0.9616066544039628</v>
       </c>
       <c r="E21">
-        <v>0.9403271012679876</v>
+        <v>0.9439407997589351</v>
       </c>
       <c r="F21">
-        <v>0.950393584548035</v>
+        <v>0.9535901822460776</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016528020261373</v>
+        <v>1.018053141856981</v>
       </c>
       <c r="J21">
-        <v>0.9592976247335609</v>
+        <v>0.9628214343376862</v>
       </c>
       <c r="K21">
-        <v>0.9745706096525629</v>
+        <v>0.977353830369736</v>
       </c>
       <c r="L21">
-        <v>0.9565346169417763</v>
+        <v>0.960068194219533</v>
       </c>
       <c r="M21">
-        <v>0.9663799220105549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9695075800143312</v>
+      </c>
+      <c r="N21">
+        <v>0.9641887512116077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9131675473405093</v>
+        <v>0.9169884448814025</v>
       </c>
       <c r="D22">
-        <v>0.9484645357849154</v>
+        <v>0.9513841190595023</v>
       </c>
       <c r="E22">
-        <v>0.9278734831721297</v>
+        <v>0.9315812594700096</v>
       </c>
       <c r="F22">
-        <v>0.9384384833701165</v>
+        <v>0.9417259346417236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011322615298604</v>
+        <v>1.012886902077186</v>
       </c>
       <c r="J22">
-        <v>0.948255777918661</v>
+        <v>0.9518598900762889</v>
       </c>
       <c r="K22">
-        <v>0.9651310462375198</v>
+        <v>0.9679843626625297</v>
       </c>
       <c r="L22">
-        <v>0.94502327969797</v>
+        <v>0.9486419147260722</v>
       </c>
       <c r="M22">
-        <v>0.9553367642423676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9585474925716589</v>
+      </c>
+      <c r="N22">
+        <v>0.9532116403000527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9202862284400724</v>
+        <v>0.9240489470022765</v>
       </c>
       <c r="D23">
-        <v>0.9540188635222466</v>
+        <v>0.9568959417402904</v>
       </c>
       <c r="E23">
-        <v>0.9345899205735583</v>
+        <v>0.9382453636875716</v>
       </c>
       <c r="F23">
-        <v>0.9448849982117439</v>
+        <v>0.9481219519223083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01413254563803</v>
+        <v>1.015675030849772</v>
       </c>
       <c r="J23">
-        <v>0.9542129055596746</v>
+        <v>0.9577722711827272</v>
       </c>
       <c r="K23">
-        <v>0.9702243203725649</v>
+        <v>0.9730386111020232</v>
       </c>
       <c r="L23">
-        <v>0.9512329220147711</v>
+        <v>0.9548041947808572</v>
       </c>
       <c r="M23">
-        <v>0.9612931647267614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.964457685135537</v>
+      </c>
+      <c r="N23">
+        <v>0.9591324176658218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9458286126081258</v>
+        <v>0.949413835530082</v>
       </c>
       <c r="D24">
-        <v>0.973983238212671</v>
+        <v>0.9767307316458298</v>
       </c>
       <c r="E24">
-        <v>0.9587330546197564</v>
+        <v>0.9622290661696924</v>
       </c>
       <c r="F24">
-        <v>0.9680778357093858</v>
+        <v>0.9711602232395423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024179160822017</v>
+        <v>1.025655513176877</v>
       </c>
       <c r="J24">
-        <v>0.9755841252839818</v>
+        <v>0.9790085159189137</v>
       </c>
       <c r="K24">
-        <v>0.9884831791428831</v>
+        <v>0.9911791874544403</v>
       </c>
       <c r="L24">
-        <v>0.9735258090074526</v>
+        <v>0.9769536198960413</v>
       </c>
       <c r="M24">
-        <v>0.9826897319961253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9857134611734035</v>
+      </c>
+      <c r="N24">
+        <v>0.9803988203053647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9716248229675617</v>
+        <v>0.9750711134981597</v>
       </c>
       <c r="D25">
-        <v>0.9941845411811042</v>
+        <v>0.9968308941536352</v>
       </c>
       <c r="E25">
-        <v>0.9831820437590281</v>
+        <v>0.9865536643951196</v>
       </c>
       <c r="F25">
-        <v>0.9915935822188143</v>
+        <v>0.9945542967940945</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034243667754418</v>
+        <v>1.035668979083055</v>
       </c>
       <c r="J25">
-        <v>0.99714636914448</v>
+        <v>1.000467578117534</v>
       </c>
       <c r="K25">
-        <v>1.006873810503199</v>
+        <v>1.009478606427017</v>
       </c>
       <c r="L25">
-        <v>0.996047170668276</v>
+        <v>0.9993643665528247</v>
       </c>
       <c r="M25">
-        <v>1.004323813958113</v>
+        <v>1.007237742643053</v>
+      </c>
+      <c r="N25">
+        <v>1.001888356833696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933322541609164</v>
+        <v>1.007158422199875</v>
       </c>
       <c r="D2">
-        <v>1.011146038275043</v>
+        <v>1.025381159752382</v>
       </c>
       <c r="E2">
-        <v>1.003903456335252</v>
+        <v>1.01528641006186</v>
       </c>
       <c r="F2">
-        <v>1.01125598830807</v>
+        <v>1.025985044477251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042723790303014</v>
+        <v>1.044141524443388</v>
       </c>
       <c r="J2">
-        <v>1.015714241930991</v>
+        <v>1.029127114010766</v>
       </c>
       <c r="K2">
-        <v>1.022452244724214</v>
+        <v>1.036497866389319</v>
       </c>
       <c r="L2">
-        <v>1.015308676369696</v>
+        <v>1.026536810822453</v>
       </c>
       <c r="M2">
-        <v>1.022560705374733</v>
+        <v>1.037093857793614</v>
       </c>
       <c r="N2">
-        <v>1.017156672658585</v>
+        <v>1.030588592555211</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005596425719841</v>
+        <v>1.015553525610357</v>
       </c>
       <c r="D3">
-        <v>1.020758620407824</v>
+        <v>1.03206460165572</v>
       </c>
       <c r="E3">
-        <v>1.015572242465622</v>
+        <v>1.023163539622606</v>
       </c>
       <c r="F3">
-        <v>1.022495533686044</v>
+        <v>1.03360054565848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047417878695226</v>
+        <v>1.046827181901266</v>
       </c>
       <c r="J3">
-        <v>1.025935680535287</v>
+        <v>1.035628982668671</v>
       </c>
       <c r="K3">
-        <v>1.031132605746882</v>
+        <v>1.042303011506537</v>
       </c>
       <c r="L3">
-        <v>1.02600967653365</v>
+        <v>1.033508374919188</v>
       </c>
       <c r="M3">
-        <v>1.032848448805318</v>
+        <v>1.043820820654259</v>
       </c>
       <c r="N3">
-        <v>1.027392626878115</v>
+        <v>1.037099694612366</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013141389495048</v>
+        <v>1.020806765210607</v>
       </c>
       <c r="D4">
-        <v>1.026669954903215</v>
+        <v>1.036249246822113</v>
       </c>
       <c r="E4">
-        <v>1.022757445070918</v>
+        <v>1.028098585178274</v>
       </c>
       <c r="F4">
-        <v>1.029418908453715</v>
+        <v>1.038372756362526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050284803279372</v>
+        <v>1.0484944152878</v>
       </c>
       <c r="J4">
-        <v>1.032214807903781</v>
+        <v>1.039692802118165</v>
       </c>
       <c r="K4">
-        <v>1.036456809755057</v>
+        <v>1.045929007621384</v>
       </c>
       <c r="L4">
-        <v>1.032588752492511</v>
+        <v>1.037869312327982</v>
       </c>
       <c r="M4">
-        <v>1.039174779591309</v>
+        <v>1.048029105653279</v>
       </c>
       <c r="N4">
-        <v>1.033680671327698</v>
+        <v>1.041169285151604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016228351873516</v>
+        <v>1.022975058822984</v>
       </c>
       <c r="D5">
-        <v>1.029087751604983</v>
+        <v>1.037976940317412</v>
       </c>
       <c r="E5">
-        <v>1.025698632769641</v>
+        <v>1.030136884200167</v>
       </c>
       <c r="F5">
-        <v>1.03225344214651</v>
+        <v>1.040344020897618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051452685092578</v>
+        <v>1.049179302449078</v>
       </c>
       <c r="J5">
-        <v>1.034781577477593</v>
+        <v>1.041368949264905</v>
       </c>
       <c r="K5">
-        <v>1.03863121740814</v>
+        <v>1.047423977784606</v>
       </c>
       <c r="L5">
-        <v>1.035279404003324</v>
+        <v>1.039668862862136</v>
       </c>
       <c r="M5">
-        <v>1.041762333455857</v>
+        <v>1.049765720969253</v>
       </c>
       <c r="N5">
-        <v>1.036251086008717</v>
+        <v>1.042847812619549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016741911944534</v>
+        <v>1.023336842401369</v>
       </c>
       <c r="D6">
-        <v>1.029489934926699</v>
+        <v>1.038265232861832</v>
       </c>
       <c r="E6">
-        <v>1.026188020789243</v>
+        <v>1.030477054608809</v>
       </c>
       <c r="F6">
-        <v>1.032725112677115</v>
+        <v>1.040673015890759</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051646676456734</v>
+        <v>1.04929338268276</v>
       </c>
       <c r="J6">
-        <v>1.035208459051215</v>
+        <v>1.041648544161764</v>
       </c>
       <c r="K6">
-        <v>1.038992725594269</v>
+        <v>1.047673315134809</v>
       </c>
       <c r="L6">
-        <v>1.035726962866538</v>
+        <v>1.039969092880318</v>
       </c>
       <c r="M6">
-        <v>1.042192757617173</v>
+        <v>1.050055453717002</v>
       </c>
       <c r="N6">
-        <v>1.036678573803137</v>
+        <v>1.043127804573232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01318296097652</v>
+        <v>1.020835892544253</v>
       </c>
       <c r="D7">
-        <v>1.026702518226771</v>
+        <v>1.036272453759824</v>
       </c>
       <c r="E7">
-        <v>1.02279704797655</v>
+        <v>1.028125961046503</v>
       </c>
       <c r="F7">
-        <v>1.029457073284006</v>
+        <v>1.038399231082616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050300551263092</v>
+        <v>1.048503628624581</v>
       </c>
       <c r="J7">
-        <v>1.032249383253837</v>
+        <v>1.039715323184864</v>
       </c>
       <c r="K7">
-        <v>1.036486107879626</v>
+        <v>1.045949096746689</v>
       </c>
       <c r="L7">
-        <v>1.032624991548949</v>
+        <v>1.03789348807455</v>
       </c>
       <c r="M7">
-        <v>1.039209629074985</v>
+        <v>1.048052435716358</v>
       </c>
       <c r="N7">
-        <v>1.033715295778716</v>
+        <v>1.041191838200801</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997563526153924</v>
+        <v>1.010034333648321</v>
       </c>
       <c r="D8">
-        <v>1.014462845746247</v>
+        <v>1.02767010002469</v>
       </c>
       <c r="E8">
-        <v>1.007927819707269</v>
+        <v>1.017983572536048</v>
       </c>
       <c r="F8">
-        <v>1.015131733805722</v>
+        <v>1.028592372462052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044347717727677</v>
+        <v>1.045064320611403</v>
       </c>
       <c r="J8">
-        <v>1.019242642186663</v>
+        <v>1.031355411977403</v>
       </c>
       <c r="K8">
-        <v>1.025450408544739</v>
+        <v>1.038487865686783</v>
       </c>
       <c r="L8">
-        <v>1.019001463892908</v>
+        <v>1.02892533263706</v>
       </c>
       <c r="M8">
-        <v>1.026110564124113</v>
+        <v>1.039398484339566</v>
       </c>
       <c r="N8">
-        <v>1.020690083647333</v>
+        <v>1.03282005496053</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665714535750223</v>
+        <v>0.9894944644985646</v>
       </c>
       <c r="D9">
-        <v>0.9901695152085167</v>
+        <v>1.011339269394732</v>
       </c>
       <c r="E9">
-        <v>0.9784885894385077</v>
+        <v>0.9987500333847495</v>
       </c>
       <c r="F9">
-        <v>0.9867947918194049</v>
+        <v>1.010005915039479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032363163042959</v>
+        <v>1.038419050809363</v>
       </c>
       <c r="J9">
-        <v>0.993362512756968</v>
+        <v>1.015423733645769</v>
       </c>
       <c r="K9">
-        <v>1.003424124481425</v>
+        <v>1.024251015287888</v>
       </c>
       <c r="L9">
-        <v>0.991940590250957</v>
+        <v>1.01186342303121</v>
       </c>
       <c r="M9">
-        <v>1.000105810376195</v>
+        <v>1.02293871271139</v>
       </c>
       <c r="N9">
-        <v>0.9947732014653555</v>
+        <v>1.016865751818276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9427139649460925</v>
+        <v>0.9745698547751411</v>
       </c>
       <c r="D10">
-        <v>0.9714871627129872</v>
+        <v>0.9995026397423208</v>
       </c>
       <c r="E10">
-        <v>0.9558876756279414</v>
+        <v>0.9848179521639752</v>
       </c>
       <c r="F10">
-        <v>0.9650659720001277</v>
+        <v>0.9965532336929346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023025711150525</v>
+        <v>1.033524446663638</v>
       </c>
       <c r="J10">
-        <v>0.9734004219292774</v>
+        <v>1.003830064276275</v>
       </c>
       <c r="K10">
-        <v>0.9863910423451889</v>
+        <v>1.013880879992417</v>
       </c>
       <c r="L10">
-        <v>0.9711018427040768</v>
+        <v>0.9994668424817499</v>
       </c>
       <c r="M10">
-        <v>0.9800959786562419</v>
+        <v>1.010985000691278</v>
       </c>
       <c r="N10">
-        <v>0.9747827621790056</v>
+        <v>1.005255618108465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9313455026792689</v>
+        <v>0.9677558244252289</v>
       </c>
       <c r="D11">
-        <v>0.9625967117217481</v>
+        <v>0.9941084619732827</v>
       </c>
       <c r="E11">
-        <v>0.945137834087282</v>
+        <v>0.9784692938455929</v>
       </c>
       <c r="F11">
-        <v>0.9547396830780009</v>
+        <v>0.9904264558076283</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018552369360414</v>
+        <v>1.031275598351431</v>
       </c>
       <c r="J11">
-        <v>0.9638821738199953</v>
+        <v>0.9985343635567039</v>
       </c>
       <c r="K11">
-        <v>0.9782602367525005</v>
+        <v>1.009142345953961</v>
       </c>
       <c r="L11">
-        <v>0.9611742396864414</v>
+        <v>0.9938089999724629</v>
       </c>
       <c r="M11">
-        <v>0.9705687799445963</v>
+        <v>1.005531202021725</v>
       </c>
       <c r="N11">
-        <v>0.9652509970656504</v>
+        <v>0.9999523968864469</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9269330258048964</v>
+        <v>0.965165905551463</v>
       </c>
       <c r="D12">
-        <v>0.9591487199185056</v>
+        <v>0.9920600040659708</v>
       </c>
       <c r="E12">
-        <v>0.9409690526271259</v>
+        <v>0.9760582835879463</v>
       </c>
       <c r="F12">
-        <v>0.950736769207796</v>
+        <v>0.9881003116301273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016812867053522</v>
+        <v>1.030418869064708</v>
       </c>
       <c r="J12">
-        <v>0.9601873481848821</v>
+        <v>0.9965213410480739</v>
       </c>
       <c r="K12">
-        <v>0.9751027707340132</v>
+        <v>1.007340919372512</v>
       </c>
       <c r="L12">
-        <v>0.9573218629906017</v>
+        <v>0.9916590070037722</v>
       </c>
       <c r="M12">
-        <v>0.9668728117704042</v>
+        <v>1.003459097895849</v>
       </c>
       <c r="N12">
-        <v>0.9615509243543329</v>
+        <v>0.9979365156549574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9278887704837454</v>
+        <v>0.9657242248321073</v>
       </c>
       <c r="D13">
-        <v>0.9598954188174961</v>
+        <v>0.9925015123418109</v>
       </c>
       <c r="E13">
-        <v>0.9418718398543443</v>
+        <v>0.9765779400313136</v>
       </c>
       <c r="F13">
-        <v>0.9516035580208363</v>
+        <v>0.9886016477135252</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017189783518883</v>
+        <v>1.030603643976627</v>
       </c>
       <c r="J13">
-        <v>0.9609876624388443</v>
+        <v>0.9969553024819426</v>
       </c>
       <c r="K13">
-        <v>0.9757867426391237</v>
+        <v>1.007729273379034</v>
       </c>
       <c r="L13">
-        <v>0.9581562416130859</v>
+        <v>0.9921224651486611</v>
       </c>
       <c r="M13">
-        <v>0.9676732638325227</v>
+        <v>1.003905749134291</v>
       </c>
       <c r="N13">
-        <v>0.9623523751463331</v>
+        <v>0.9983710933638384</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9309848724314781</v>
+        <v>0.9675429807576462</v>
       </c>
       <c r="D14">
-        <v>0.9623148484994823</v>
+        <v>0.9939400782659351</v>
       </c>
       <c r="E14">
-        <v>0.9447970447615875</v>
+        <v>0.978271110931919</v>
       </c>
       <c r="F14">
-        <v>0.95441241861287</v>
+        <v>0.9902352360368234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018410263415346</v>
+        <v>1.031205229973314</v>
       </c>
       <c r="J14">
-        <v>0.9635802036640757</v>
+        <v>0.9983689331403779</v>
       </c>
       <c r="K14">
-        <v>0.978002207359019</v>
+        <v>1.008994308114097</v>
       </c>
       <c r="L14">
-        <v>0.9608593656594636</v>
+        <v>0.9936322993952981</v>
       </c>
       <c r="M14">
-        <v>0.9702666678236034</v>
+        <v>1.00536089534193</v>
       </c>
       <c r="N14">
-        <v>0.964948598077473</v>
+        <v>0.9997867315399545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9328661407019641</v>
+        <v>0.9686555753352445</v>
       </c>
       <c r="D15">
-        <v>0.9637853336397298</v>
+        <v>0.9948203425959061</v>
       </c>
       <c r="E15">
-        <v>0.9465749589192927</v>
+        <v>0.9793071530098399</v>
       </c>
       <c r="F15">
-        <v>0.9561198398341375</v>
+        <v>0.9912349018899093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01915144668621</v>
+        <v>1.031572986475598</v>
       </c>
       <c r="J15">
-        <v>0.9651554485884883</v>
+        <v>0.9992336780880455</v>
       </c>
       <c r="K15">
-        <v>0.9793481846176271</v>
+        <v>1.00976813025462</v>
       </c>
       <c r="L15">
-        <v>0.9625019791531274</v>
+        <v>0.9945559841082783</v>
       </c>
       <c r="M15">
-        <v>0.9718427487599348</v>
+        <v>1.006251171263417</v>
       </c>
       <c r="N15">
-        <v>0.9665260800303614</v>
+        <v>1.000652704524635</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9434439418030524</v>
+        <v>0.9750141764450666</v>
       </c>
       <c r="D16">
-        <v>0.9720583342985484</v>
+        <v>0.9998546069071532</v>
       </c>
       <c r="E16">
-        <v>0.9565783778504207</v>
+        <v>0.985232195695496</v>
       </c>
       <c r="F16">
-        <v>0.9657296598927222</v>
+        <v>0.9969530775489662</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023312489845631</v>
+        <v>1.033670807653841</v>
       </c>
       <c r="J16">
-        <v>0.9740115057442029</v>
+        <v>1.004175343391185</v>
       </c>
       <c r="K16">
-        <v>0.9869128769236175</v>
+        <v>1.014189801501818</v>
       </c>
       <c r="L16">
-        <v>0.971739386727978</v>
+        <v>0.9998358278616991</v>
       </c>
       <c r="M16">
-        <v>0.9807079360176459</v>
+        <v>1.011340723680883</v>
       </c>
       <c r="N16">
-        <v>0.9753947138030409</v>
+        <v>1.005601387559322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9497805590535061</v>
+        <v>0.9789046455919522</v>
       </c>
       <c r="D17">
-        <v>0.9770178201395011</v>
+        <v>1.002937575337389</v>
       </c>
       <c r="E17">
-        <v>0.9625762961246048</v>
+        <v>0.9888606935556489</v>
       </c>
       <c r="F17">
-        <v>0.9714939773659359</v>
+        <v>1.000455837998482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025799302600171</v>
+        <v>1.034950767942739</v>
       </c>
       <c r="J17">
-        <v>0.979315440780434</v>
+        <v>1.007198340387738</v>
       </c>
       <c r="K17">
-        <v>0.9914411779477239</v>
+        <v>1.01689429351973</v>
       </c>
       <c r="L17">
-        <v>0.9772739372909316</v>
+        <v>1.003066895456833</v>
       </c>
       <c r="M17">
-        <v>0.9860209891919699</v>
+        <v>1.014455879441419</v>
       </c>
       <c r="N17">
-        <v>0.9807061810353931</v>
+        <v>1.008628677558353</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533791929169535</v>
+        <v>0.9811404255711682</v>
       </c>
       <c r="D18">
-        <v>0.9798353903494027</v>
+        <v>1.004710212836818</v>
       </c>
       <c r="E18">
-        <v>0.9659843394794387</v>
+        <v>0.9909470518128974</v>
       </c>
       <c r="F18">
-        <v>0.974770062700235</v>
+        <v>1.00247021225879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027209391319235</v>
+        <v>1.035685004110692</v>
       </c>
       <c r="J18">
-        <v>0.982327025570682</v>
+        <v>1.008935358829532</v>
       </c>
       <c r="K18">
-        <v>0.9940115122366777</v>
+        <v>1.018448134185438</v>
       </c>
       <c r="L18">
-        <v>0.980417248628121</v>
+        <v>1.004923902330341</v>
       </c>
       <c r="M18">
-        <v>0.9890389885883333</v>
+        <v>1.016246442416531</v>
       </c>
       <c r="N18">
-        <v>0.983722042621477</v>
+        <v>1.010368162765574</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9545905705430348</v>
+        <v>0.9818972612974058</v>
       </c>
       <c r="D19">
-        <v>0.9807839973870033</v>
+        <v>1.005310416734159</v>
       </c>
       <c r="E19">
-        <v>0.9671318441211526</v>
+        <v>0.9916534928668422</v>
       </c>
       <c r="F19">
-        <v>0.9758732606228695</v>
+        <v>1.003152330388729</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027683676225206</v>
+        <v>1.035933320684097</v>
       </c>
       <c r="J19">
-        <v>0.9833406817176251</v>
+        <v>1.009523312819334</v>
       </c>
       <c r="K19">
-        <v>0.9948765029688345</v>
+        <v>1.018974055774217</v>
       </c>
       <c r="L19">
-        <v>0.981475373441846</v>
+        <v>1.005552543741914</v>
       </c>
       <c r="M19">
-        <v>0.9900550074140715</v>
+        <v>1.01685261887038</v>
       </c>
       <c r="N19">
-        <v>0.9847371382764171</v>
+        <v>1.01095695171748</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9491109854349729</v>
+        <v>0.978490737243897</v>
       </c>
       <c r="D20">
-        <v>0.9764936520213433</v>
+        <v>1.002609480346071</v>
       </c>
       <c r="E20">
-        <v>0.9619423243521622</v>
+        <v>0.9884745377912899</v>
       </c>
       <c r="F20">
-        <v>0.9708846141178104</v>
+        <v>1.000083030344794</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025536755434961</v>
+        <v>1.034814730193163</v>
       </c>
       <c r="J20">
-        <v>0.9787550458103625</v>
+        <v>1.006876746706202</v>
       </c>
       <c r="K20">
-        <v>0.9909628210047386</v>
+        <v>1.016606599857351</v>
       </c>
       <c r="L20">
-        <v>0.9766890941875556</v>
+        <v>1.002723121939462</v>
       </c>
       <c r="M20">
-        <v>0.9854594999826864</v>
+        <v>1.014124419921221</v>
       </c>
       <c r="N20">
-        <v>0.980144990240186</v>
+        <v>1.008306627176902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9300787132704625</v>
+        <v>0.9670090816491324</v>
       </c>
       <c r="D21">
-        <v>0.9616066544039628</v>
+        <v>0.9935177328436712</v>
       </c>
       <c r="E21">
-        <v>0.9439407997589351</v>
+        <v>0.9777740202576422</v>
       </c>
       <c r="F21">
-        <v>0.9535901822460776</v>
+        <v>0.9897556206246441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018053141856981</v>
+        <v>1.031028686119624</v>
       </c>
       <c r="J21">
-        <v>0.9628214343376862</v>
+        <v>0.9979539632983802</v>
       </c>
       <c r="K21">
-        <v>0.977353830369736</v>
+        <v>1.008622963317029</v>
       </c>
       <c r="L21">
-        <v>0.960068194219533</v>
+        <v>0.9931890702377586</v>
       </c>
       <c r="M21">
-        <v>0.9695075800143312</v>
+        <v>1.004933710281091</v>
       </c>
       <c r="N21">
-        <v>0.9641887512116077</v>
+        <v>0.9993711723931833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9169884448814025</v>
+        <v>0.9594456462966711</v>
       </c>
       <c r="D22">
-        <v>0.9513841190595023</v>
+        <v>0.9875393304700992</v>
       </c>
       <c r="E22">
-        <v>0.9315812594700096</v>
+        <v>0.9707371580209421</v>
       </c>
       <c r="F22">
-        <v>0.9417259346417236</v>
+        <v>0.9829677116157426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012886902077186</v>
+        <v>1.028523183794813</v>
       </c>
       <c r="J22">
-        <v>0.9518598900762889</v>
+        <v>0.9920750930050586</v>
       </c>
       <c r="K22">
-        <v>0.9679843626625297</v>
+        <v>1.003361744210554</v>
       </c>
       <c r="L22">
-        <v>0.9486419147260722</v>
+        <v>0.9869114941460722</v>
       </c>
       <c r="M22">
-        <v>0.9585474925716589</v>
+        <v>0.998884304724755</v>
       </c>
       <c r="N22">
-        <v>0.9532116403000527</v>
+        <v>0.9934839534297295</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9240489470022765</v>
+        <v>0.9634901145807907</v>
       </c>
       <c r="D23">
-        <v>0.9568959417402904</v>
+        <v>0.99073510845743</v>
       </c>
       <c r="E23">
-        <v>0.9382453636875716</v>
+        <v>0.9744988523224586</v>
       </c>
       <c r="F23">
-        <v>0.9481219519223083</v>
+        <v>0.9865959537538908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015675030849772</v>
+        <v>1.029863992297909</v>
       </c>
       <c r="J23">
-        <v>0.9577722711827272</v>
+        <v>0.9952187943479273</v>
       </c>
       <c r="K23">
-        <v>0.9730386111020232</v>
+        <v>1.006175240929424</v>
       </c>
       <c r="L23">
-        <v>0.9548041947808572</v>
+        <v>0.9902680257323871</v>
       </c>
       <c r="M23">
-        <v>0.964457685135537</v>
+        <v>1.00211861634764</v>
       </c>
       <c r="N23">
-        <v>0.9591324176658218</v>
+        <v>0.9966321191890929</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.949413835530082</v>
+        <v>0.9786778675793482</v>
       </c>
       <c r="D24">
-        <v>0.9767307316458298</v>
+        <v>1.002757811153022</v>
       </c>
       <c r="E24">
-        <v>0.9622290661696924</v>
+        <v>0.9886491175298943</v>
       </c>
       <c r="F24">
-        <v>0.9711602232395423</v>
+        <v>1.000251574476943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025655513176877</v>
+        <v>1.034876237795601</v>
       </c>
       <c r="J24">
-        <v>0.9790085159189137</v>
+        <v>1.007022141815153</v>
       </c>
       <c r="K24">
-        <v>0.9911791874544403</v>
+        <v>1.016736669008488</v>
       </c>
       <c r="L24">
-        <v>0.9769536198960413</v>
+        <v>1.002878543392006</v>
       </c>
       <c r="M24">
-        <v>0.9857134611734035</v>
+        <v>1.014274273625337</v>
       </c>
       <c r="N24">
-        <v>0.9803988203053647</v>
+        <v>1.008452228763585</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9750711134981597</v>
+        <v>0.9950037103031053</v>
       </c>
       <c r="D25">
-        <v>0.9968308941536352</v>
+        <v>1.015715404403208</v>
       </c>
       <c r="E25">
-        <v>0.9865536643951196</v>
+        <v>1.003902122794545</v>
       </c>
       <c r="F25">
-        <v>0.9945542967940945</v>
+        <v>1.014983118521187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035668979083055</v>
+        <v>1.040213071097398</v>
       </c>
       <c r="J25">
-        <v>1.000467578117534</v>
+        <v>1.0197003974324</v>
       </c>
       <c r="K25">
-        <v>1.009478606427017</v>
+        <v>1.02807456079318</v>
       </c>
       <c r="L25">
-        <v>0.9993643665528247</v>
+        <v>1.016440163843473</v>
       </c>
       <c r="M25">
-        <v>1.007237742643053</v>
+        <v>1.027353209658412</v>
       </c>
       <c r="N25">
-        <v>1.001888356833696</v>
+        <v>1.021148488958024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007158422199875</v>
+        <v>0.9987794511482068</v>
       </c>
       <c r="D2">
-        <v>1.025381159752382</v>
+        <v>1.015293571094353</v>
       </c>
       <c r="E2">
-        <v>1.01528641006186</v>
+        <v>1.006963248201192</v>
       </c>
       <c r="F2">
-        <v>1.025985044477251</v>
+        <v>0.9755697656132708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044141524443388</v>
+        <v>1.039493724546424</v>
       </c>
       <c r="J2">
-        <v>1.029127114010766</v>
+        <v>1.020996730009627</v>
       </c>
       <c r="K2">
-        <v>1.036497866389319</v>
+        <v>1.026543875831363</v>
       </c>
       <c r="L2">
-        <v>1.026536810822453</v>
+        <v>1.018326418883279</v>
       </c>
       <c r="M2">
-        <v>1.037093857793614</v>
+        <v>0.9873802814598261</v>
       </c>
       <c r="N2">
-        <v>1.030588592555211</v>
+        <v>1.010422117385882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015553525610357</v>
+        <v>1.004481211169536</v>
       </c>
       <c r="D3">
-        <v>1.03206460165572</v>
+        <v>1.019426108211337</v>
       </c>
       <c r="E3">
-        <v>1.023163539622606</v>
+        <v>1.012151563325141</v>
       </c>
       <c r="F3">
-        <v>1.03360054565848</v>
+        <v>0.9840122685523686</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046827181901266</v>
+        <v>1.041334619283585</v>
       </c>
       <c r="J3">
-        <v>1.035628982668671</v>
+        <v>1.02485045485837</v>
       </c>
       <c r="K3">
-        <v>1.042303011506537</v>
+        <v>1.029816318537104</v>
       </c>
       <c r="L3">
-        <v>1.033508374919188</v>
+        <v>1.022631288199368</v>
       </c>
       <c r="M3">
-        <v>1.043820820654259</v>
+        <v>0.994853886867222</v>
       </c>
       <c r="N3">
-        <v>1.037099694612366</v>
+        <v>1.011755443174891</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020806765210607</v>
+        <v>1.008072234750457</v>
       </c>
       <c r="D4">
-        <v>1.036249246822113</v>
+        <v>1.022031661069926</v>
       </c>
       <c r="E4">
-        <v>1.028098585178274</v>
+        <v>1.015424188371888</v>
       </c>
       <c r="F4">
-        <v>1.038372756362526</v>
+        <v>0.9893171314041551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0484944152878</v>
+        <v>1.042483286854832</v>
       </c>
       <c r="J4">
-        <v>1.039692802118165</v>
+        <v>1.027271681887742</v>
       </c>
       <c r="K4">
-        <v>1.045929007621384</v>
+        <v>1.031871260771832</v>
       </c>
       <c r="L4">
-        <v>1.037869312327982</v>
+        <v>1.0253399540923</v>
       </c>
       <c r="M4">
-        <v>1.048029105653279</v>
+        <v>0.9995462224736981</v>
       </c>
       <c r="N4">
-        <v>1.041169285151604</v>
+        <v>1.012592589320981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022975058822984</v>
+        <v>1.009559488470819</v>
       </c>
       <c r="D5">
-        <v>1.037976940317412</v>
+        <v>1.023111385033556</v>
       </c>
       <c r="E5">
-        <v>1.030136884200167</v>
+        <v>1.016780729100523</v>
       </c>
       <c r="F5">
-        <v>1.040344020897618</v>
+        <v>0.9915116925655116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049179302449078</v>
+        <v>1.042956405252755</v>
       </c>
       <c r="J5">
-        <v>1.041368949264905</v>
+        <v>1.028273025091546</v>
       </c>
       <c r="K5">
-        <v>1.047423977784606</v>
+        <v>1.032720839784349</v>
       </c>
       <c r="L5">
-        <v>1.039668862862136</v>
+        <v>1.026461127016905</v>
       </c>
       <c r="M5">
-        <v>1.049765720969253</v>
+        <v>1.00148645262217</v>
       </c>
       <c r="N5">
-        <v>1.042847812619549</v>
+        <v>1.012938659686903</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023336842401369</v>
+        <v>1.009807922297499</v>
       </c>
       <c r="D6">
-        <v>1.038265232861832</v>
+        <v>1.023291778258716</v>
       </c>
       <c r="E6">
-        <v>1.030477054608809</v>
+        <v>1.017007395165654</v>
       </c>
       <c r="F6">
-        <v>1.040673015890759</v>
+        <v>0.9918781423779836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04929338268276</v>
+        <v>1.043035281295863</v>
       </c>
       <c r="J6">
-        <v>1.041648544161764</v>
+        <v>1.028440206919985</v>
       </c>
       <c r="K6">
-        <v>1.047673315134809</v>
+        <v>1.032862666313463</v>
       </c>
       <c r="L6">
-        <v>1.039969092880318</v>
+        <v>1.026648371343919</v>
       </c>
       <c r="M6">
-        <v>1.050055453717002</v>
+        <v>1.001810377805751</v>
       </c>
       <c r="N6">
-        <v>1.043127804573232</v>
+        <v>1.012996429748629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020835892544253</v>
+        <v>1.008092194123907</v>
       </c>
       <c r="D7">
-        <v>1.036272453759824</v>
+        <v>1.022046148947931</v>
       </c>
       <c r="E7">
-        <v>1.028125961046503</v>
+        <v>1.015442389022446</v>
       </c>
       <c r="F7">
-        <v>1.038399231082616</v>
+        <v>0.9893465923354758</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048503628624581</v>
+        <v>1.042489646617766</v>
       </c>
       <c r="J7">
-        <v>1.039715323184864</v>
+        <v>1.027285125877485</v>
       </c>
       <c r="K7">
-        <v>1.045949096746689</v>
+        <v>1.031882668320537</v>
       </c>
       <c r="L7">
-        <v>1.03789348807455</v>
+        <v>1.025355003138919</v>
       </c>
       <c r="M7">
-        <v>1.048052435716358</v>
+        <v>0.9995722728895043</v>
       </c>
       <c r="N7">
-        <v>1.041191838200801</v>
+        <v>1.012597236244544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010034333648321</v>
+        <v>1.000727477833649</v>
       </c>
       <c r="D8">
-        <v>1.02767010002469</v>
+        <v>1.016704824649927</v>
       </c>
       <c r="E8">
-        <v>1.017983572536048</v>
+        <v>1.008734782429674</v>
       </c>
       <c r="F8">
-        <v>1.028592372462052</v>
+        <v>0.9784570642899589</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045064320611403</v>
+        <v>1.040124915081754</v>
       </c>
       <c r="J8">
-        <v>1.031355411977403</v>
+        <v>1.022314598532017</v>
       </c>
       <c r="K8">
-        <v>1.038487865686783</v>
+        <v>1.027663174622458</v>
       </c>
       <c r="L8">
-        <v>1.02892533263706</v>
+        <v>1.019797721319226</v>
       </c>
       <c r="M8">
-        <v>1.039398484339566</v>
+        <v>0.9899369780879856</v>
       </c>
       <c r="N8">
-        <v>1.03282005496053</v>
+        <v>1.010878188223358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9894944644985646</v>
+        <v>0.9869399563138241</v>
       </c>
       <c r="D9">
-        <v>1.011339269394732</v>
+        <v>1.006731736166586</v>
       </c>
       <c r="E9">
-        <v>0.9987500333847495</v>
+        <v>0.996219538054385</v>
       </c>
       <c r="F9">
-        <v>1.010005915039479</v>
+        <v>0.957947145529389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038419050809363</v>
+        <v>1.035612772624358</v>
       </c>
       <c r="J9">
-        <v>1.015423733645769</v>
+        <v>1.012962480088891</v>
       </c>
       <c r="K9">
-        <v>1.024251015287888</v>
+        <v>1.019716531712537</v>
       </c>
       <c r="L9">
-        <v>1.01186342303121</v>
+        <v>1.00937424984968</v>
       </c>
       <c r="M9">
-        <v>1.02293871271139</v>
+        <v>0.9717614551557562</v>
       </c>
       <c r="N9">
-        <v>1.016865751818276</v>
+        <v>1.007639874128743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9745698547751411</v>
+        <v>0.9771160435856012</v>
       </c>
       <c r="D10">
-        <v>0.9995026397423208</v>
+        <v>0.999649014626263</v>
       </c>
       <c r="E10">
-        <v>0.9848179521639752</v>
+        <v>0.9873338103210633</v>
       </c>
       <c r="F10">
-        <v>0.9965532336929346</v>
+        <v>0.9432096862040634</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033524446663638</v>
+        <v>1.03234208885519</v>
       </c>
       <c r="J10">
-        <v>1.003830064276275</v>
+        <v>1.006267962792219</v>
       </c>
       <c r="K10">
-        <v>1.013880879992417</v>
+        <v>1.014024609115415</v>
       </c>
       <c r="L10">
-        <v>0.9994668424817499</v>
+        <v>1.001935585606554</v>
       </c>
       <c r="M10">
-        <v>1.010985000691278</v>
+        <v>0.9586860348742758</v>
       </c>
       <c r="N10">
-        <v>1.005255618108465</v>
+        <v>1.00532007598113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677558244252289</v>
+        <v>0.9726895926732569</v>
       </c>
       <c r="D11">
-        <v>0.9941084619732827</v>
+        <v>0.996464530214571</v>
       </c>
       <c r="E11">
-        <v>0.9784692938455929</v>
+        <v>0.9833383399910904</v>
       </c>
       <c r="F11">
-        <v>0.9904264558076283</v>
+        <v>0.9365292496658274</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031275598351431</v>
+        <v>1.030855670809364</v>
       </c>
       <c r="J11">
-        <v>0.9985343635567039</v>
+        <v>1.003244367350326</v>
       </c>
       <c r="K11">
-        <v>1.009142345953961</v>
+        <v>1.011453429732674</v>
       </c>
       <c r="L11">
-        <v>0.9938089999724629</v>
+        <v>0.9985814630289357</v>
       </c>
       <c r="M11">
-        <v>1.005531202021725</v>
+        <v>0.9527563360828387</v>
       </c>
       <c r="N11">
-        <v>0.9999523968864469</v>
+        <v>1.004272150355882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.965165905551463</v>
+        <v>0.9710172702854807</v>
       </c>
       <c r="D12">
-        <v>0.9920600040659708</v>
+        <v>0.9952625734394978</v>
       </c>
       <c r="E12">
-        <v>0.9760582835879463</v>
+        <v>0.9818301503353677</v>
       </c>
       <c r="F12">
-        <v>0.9881003116301273</v>
+        <v>0.9339982797085284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030418869064708</v>
+        <v>1.030292232935308</v>
       </c>
       <c r="J12">
-        <v>0.9965213410480739</v>
+        <v>1.002100977176943</v>
       </c>
       <c r="K12">
-        <v>1.007340919372512</v>
+        <v>1.010481101377496</v>
       </c>
       <c r="L12">
-        <v>0.9916590070037722</v>
+        <v>0.9973139361221971</v>
       </c>
       <c r="M12">
-        <v>1.003459097895849</v>
+        <v>0.9505094923559203</v>
       </c>
       <c r="N12">
-        <v>0.9979365156549574</v>
+        <v>1.003875864339015</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657242248321073</v>
+        <v>0.971377300926377</v>
       </c>
       <c r="D13">
-        <v>0.9925015123418109</v>
+        <v>0.9955212862458876</v>
       </c>
       <c r="E13">
-        <v>0.9765779400313136</v>
+        <v>0.9821547850517574</v>
       </c>
       <c r="F13">
-        <v>0.9886016477135252</v>
+        <v>0.9345435055357715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030603643976627</v>
+        <v>1.03041361776082</v>
       </c>
       <c r="J13">
-        <v>0.9969553024819426</v>
+        <v>1.002347183313538</v>
       </c>
       <c r="K13">
-        <v>1.007729273379034</v>
+        <v>1.010690473102123</v>
       </c>
       <c r="L13">
-        <v>0.9921224651486611</v>
+        <v>0.9975868337520735</v>
       </c>
       <c r="M13">
-        <v>1.003905749134291</v>
+        <v>0.9509935230508464</v>
       </c>
       <c r="N13">
-        <v>0.9983710933638384</v>
+        <v>1.003961196545463</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675429807576462</v>
+        <v>0.972551945767556</v>
       </c>
       <c r="D14">
-        <v>0.9939400782659351</v>
+        <v>0.9963655745383174</v>
       </c>
       <c r="E14">
-        <v>0.978271110931919</v>
+        <v>0.9832141757299815</v>
       </c>
       <c r="F14">
-        <v>0.9902352360368234</v>
+        <v>0.9363210789988609</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031205229973314</v>
+        <v>1.030809332496739</v>
       </c>
       <c r="J14">
-        <v>0.9983689331403779</v>
+        <v>1.003150277893547</v>
       </c>
       <c r="K14">
-        <v>1.008994308114097</v>
+        <v>1.011373417140337</v>
       </c>
       <c r="L14">
-        <v>0.9936322993952981</v>
+        <v>0.998477140939148</v>
       </c>
       <c r="M14">
-        <v>1.00536089534193</v>
+        <v>0.9525715400897834</v>
       </c>
       <c r="N14">
-        <v>0.9997867315399545</v>
+        <v>1.004239540036482</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9686555753352445</v>
+        <v>0.9732718836962911</v>
       </c>
       <c r="D15">
-        <v>0.9948203425959061</v>
+        <v>0.9968831922268261</v>
       </c>
       <c r="E15">
-        <v>0.9793071530098399</v>
+        <v>0.983863648641901</v>
       </c>
       <c r="F15">
-        <v>0.9912349018899093</v>
+        <v>0.9374095840367789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031572986475598</v>
+        <v>1.031051621262113</v>
       </c>
       <c r="J15">
-        <v>0.9992336780880455</v>
+        <v>1.003642352798564</v>
       </c>
       <c r="K15">
-        <v>1.00976813025462</v>
+        <v>1.011791871333766</v>
       </c>
       <c r="L15">
-        <v>0.9945559841082783</v>
+        <v>0.9990227659393892</v>
       </c>
       <c r="M15">
-        <v>1.006251171263417</v>
+        <v>0.9535378095506883</v>
       </c>
       <c r="N15">
-        <v>1.000652704524635</v>
+        <v>1.004410087364837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9750141764450666</v>
+        <v>0.9774059931076039</v>
       </c>
       <c r="D16">
-        <v>0.9998546069071532</v>
+        <v>0.9998577623359634</v>
       </c>
       <c r="E16">
-        <v>0.985232195695496</v>
+        <v>0.9875957056407927</v>
       </c>
       <c r="F16">
-        <v>0.9969530775489662</v>
+        <v>0.9436463636769763</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033670807653841</v>
+        <v>1.032439195014351</v>
       </c>
       <c r="J16">
-        <v>1.004175343391185</v>
+        <v>1.006465871846238</v>
       </c>
       <c r="K16">
-        <v>1.014189801501818</v>
+        <v>1.014192900104671</v>
       </c>
       <c r="L16">
-        <v>0.9998358278616991</v>
+        <v>1.002155246009548</v>
       </c>
       <c r="M16">
-        <v>1.011340723680883</v>
+        <v>0.9590735921786078</v>
       </c>
       <c r="N16">
-        <v>1.005601387559322</v>
+        <v>1.005388665728907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9789046455919522</v>
+        <v>0.9799515160966902</v>
       </c>
       <c r="D17">
-        <v>1.002937575337389</v>
+        <v>1.001691186462812</v>
       </c>
       <c r="E17">
-        <v>0.9888606935556489</v>
+        <v>0.9898958765984459</v>
       </c>
       <c r="F17">
-        <v>1.000455837998482</v>
+        <v>0.9474753987856327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034950767942739</v>
+        <v>1.033290275860367</v>
       </c>
       <c r="J17">
-        <v>1.007198340387738</v>
+        <v>1.008202542733932</v>
       </c>
       <c r="K17">
-        <v>1.01689429351973</v>
+        <v>1.015669627890006</v>
       </c>
       <c r="L17">
-        <v>1.003066895456833</v>
+        <v>1.004083417876437</v>
       </c>
       <c r="M17">
-        <v>1.014455879441419</v>
+        <v>0.9624716245425322</v>
       </c>
       <c r="N17">
-        <v>1.008628677558353</v>
+        <v>1.005990529003191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9811404255711682</v>
+        <v>0.9814197823259468</v>
       </c>
       <c r="D18">
-        <v>1.004710212836818</v>
+        <v>1.002749348052528</v>
       </c>
       <c r="E18">
-        <v>0.9909470518128974</v>
+        <v>0.9912233959105052</v>
       </c>
       <c r="F18">
-        <v>1.00247021225879</v>
+        <v>0.9496803040177838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035685004110692</v>
+        <v>1.033779981300665</v>
       </c>
       <c r="J18">
-        <v>1.008935358829532</v>
+        <v>1.009203582987423</v>
       </c>
       <c r="K18">
-        <v>1.018448134185438</v>
+        <v>1.016520792326097</v>
       </c>
       <c r="L18">
-        <v>1.004923902330341</v>
+        <v>1.0051953644356</v>
       </c>
       <c r="M18">
-        <v>1.016246442416531</v>
+        <v>0.9644280852830498</v>
       </c>
       <c r="N18">
-        <v>1.010368162765574</v>
+        <v>1.006337432392652</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9818972612974058</v>
+        <v>0.9819176882027857</v>
       </c>
       <c r="D19">
-        <v>1.005310416734159</v>
+        <v>1.003108287287503</v>
       </c>
       <c r="E19">
-        <v>0.9916534928668422</v>
+        <v>0.9916737020920694</v>
       </c>
       <c r="F19">
-        <v>1.003152330388729</v>
+        <v>0.9504274150883288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035933320684097</v>
+        <v>1.033945841027066</v>
       </c>
       <c r="J19">
-        <v>1.009523312819334</v>
+        <v>1.009542931945242</v>
       </c>
       <c r="K19">
-        <v>1.018974055774217</v>
+        <v>1.016809325846535</v>
       </c>
       <c r="L19">
-        <v>1.005552543741914</v>
+        <v>1.005572398402746</v>
       </c>
       <c r="M19">
-        <v>1.01685261887038</v>
+        <v>0.9650909670880687</v>
       </c>
       <c r="N19">
-        <v>1.01095695171748</v>
+        <v>1.006455027617482</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.978490737243897</v>
+        <v>0.9796801267482074</v>
       </c>
       <c r="D20">
-        <v>1.002609480346071</v>
+        <v>1.001495650161634</v>
       </c>
       <c r="E20">
-        <v>0.9884745377912899</v>
+        <v>0.9896505645464621</v>
       </c>
       <c r="F20">
-        <v>1.000083030344794</v>
+        <v>0.9470675595348199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034814730193163</v>
+        <v>1.033199662841247</v>
       </c>
       <c r="J20">
-        <v>1.006876746706202</v>
+        <v>1.008017458932208</v>
       </c>
       <c r="K20">
-        <v>1.016606599857351</v>
+        <v>1.015512251248651</v>
       </c>
       <c r="L20">
-        <v>1.002723121939462</v>
+        <v>1.003877870653087</v>
       </c>
       <c r="M20">
-        <v>1.014124419921221</v>
+        <v>0.9621097183924496</v>
       </c>
       <c r="N20">
-        <v>1.008306627176902</v>
+        <v>1.005926387876711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9670090816491324</v>
+        <v>0.9722068380388421</v>
       </c>
       <c r="D21">
-        <v>0.9935177328436712</v>
+        <v>0.9961174921859104</v>
       </c>
       <c r="E21">
-        <v>0.9777740202576422</v>
+        <v>0.982902892897898</v>
       </c>
       <c r="F21">
-        <v>0.9897556206246441</v>
+        <v>0.9357990364640455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031028686119624</v>
+        <v>1.03069312341338</v>
       </c>
       <c r="J21">
-        <v>0.9979539632983802</v>
+        <v>1.002914360035513</v>
       </c>
       <c r="K21">
-        <v>1.008622963317029</v>
+        <v>1.011172795093712</v>
       </c>
       <c r="L21">
-        <v>0.9931890702377586</v>
+        <v>0.9982155798000216</v>
       </c>
       <c r="M21">
-        <v>1.004933710281091</v>
+        <v>0.9521081112103529</v>
       </c>
       <c r="N21">
-        <v>0.9993711723931833</v>
+        <v>1.004157773593207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9594456462966711</v>
+        <v>0.9673439696674077</v>
       </c>
       <c r="D22">
-        <v>0.9875393304700992</v>
+        <v>0.9926247001664138</v>
       </c>
       <c r="E22">
-        <v>0.9707371580209421</v>
+        <v>0.9785198598007889</v>
       </c>
       <c r="F22">
-        <v>0.9829677116157426</v>
+        <v>0.9284245414434911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028523183794813</v>
+        <v>1.029051237240466</v>
       </c>
       <c r="J22">
-        <v>0.9920750930050586</v>
+        <v>0.9995875265387844</v>
       </c>
       <c r="K22">
-        <v>1.003361744210554</v>
+        <v>1.00834369286228</v>
       </c>
       <c r="L22">
-        <v>0.9869114941460722</v>
+        <v>0.9945291996765111</v>
       </c>
       <c r="M22">
-        <v>0.998884304724755</v>
+        <v>0.9455610290649292</v>
       </c>
       <c r="N22">
-        <v>0.9934839534297295</v>
+        <v>1.003004742503385</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9634901145807907</v>
+        <v>0.9699382336108083</v>
       </c>
       <c r="D23">
-        <v>0.99073510845743</v>
+        <v>0.9944873713038288</v>
       </c>
       <c r="E23">
-        <v>0.9744988523224586</v>
+        <v>0.9808573947343474</v>
       </c>
       <c r="F23">
-        <v>0.9865959537538908</v>
+        <v>0.9323630698841234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029863992297909</v>
+        <v>1.029928164212103</v>
       </c>
       <c r="J23">
-        <v>0.9952187943479273</v>
+        <v>1.00136292419407</v>
       </c>
       <c r="K23">
-        <v>1.006175240929424</v>
+        <v>1.009853467063731</v>
       </c>
       <c r="L23">
-        <v>0.9902680257323871</v>
+        <v>0.9964959966628746</v>
       </c>
       <c r="M23">
-        <v>1.00211861634764</v>
+        <v>0.9490577798283844</v>
       </c>
       <c r="N23">
-        <v>0.9966321191890929</v>
+        <v>1.003620064357016</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9786778675793482</v>
+        <v>0.9798028067221459</v>
       </c>
       <c r="D24">
-        <v>1.002757811153022</v>
+        <v>1.001584039240525</v>
       </c>
       <c r="E24">
-        <v>0.9886491175298943</v>
+        <v>0.9897614540355593</v>
       </c>
       <c r="F24">
-        <v>1.000251574476943</v>
+        <v>0.9472519322868973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034876237795601</v>
+        <v>1.03324062766044</v>
       </c>
       <c r="J24">
-        <v>1.007022141815153</v>
+        <v>1.008101127090446</v>
       </c>
       <c r="K24">
-        <v>1.016736669008488</v>
+        <v>1.015583394362203</v>
       </c>
       <c r="L24">
-        <v>1.002878543392006</v>
+        <v>1.003970787792716</v>
       </c>
       <c r="M24">
-        <v>1.014274273625337</v>
+        <v>0.9622733268749848</v>
       </c>
       <c r="N24">
-        <v>1.008452228763585</v>
+        <v>1.005955383287762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950037103031053</v>
+        <v>0.9906088140035155</v>
       </c>
       <c r="D25">
-        <v>1.015715404403208</v>
+        <v>1.009381991097079</v>
       </c>
       <c r="E25">
-        <v>1.003902122794545</v>
+        <v>0.9995446635567681</v>
       </c>
       <c r="F25">
-        <v>1.014983118521187</v>
+        <v>0.9634228471166139</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040213071097398</v>
+        <v>1.036823120343477</v>
       </c>
       <c r="J25">
-        <v>1.0197003974324</v>
+        <v>1.015456415718762</v>
       </c>
       <c r="K25">
-        <v>1.02807456079318</v>
+        <v>1.021836388862284</v>
       </c>
       <c r="L25">
-        <v>1.016440163843473</v>
+        <v>1.012150052151756</v>
       </c>
       <c r="M25">
-        <v>1.027353209658412</v>
+        <v>0.9766168188118657</v>
       </c>
       <c r="N25">
-        <v>1.021148488958024</v>
+        <v>1.008503799541176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9987794511482068</v>
+        <v>1.033697341275478</v>
       </c>
       <c r="D2">
-        <v>1.015293571094353</v>
+        <v>1.035959640304085</v>
       </c>
       <c r="E2">
-        <v>1.006963248201192</v>
+        <v>1.037340588814893</v>
       </c>
       <c r="F2">
-        <v>0.9755697656132708</v>
+        <v>1.032337102294503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039493724546424</v>
+        <v>1.035876791816523</v>
       </c>
       <c r="J2">
-        <v>1.020996730009627</v>
+        <v>1.038820645446166</v>
       </c>
       <c r="K2">
-        <v>1.026543875831363</v>
+        <v>1.038754751167188</v>
       </c>
       <c r="L2">
-        <v>1.018326418883279</v>
+        <v>1.040131751611263</v>
       </c>
       <c r="M2">
-        <v>0.9873802814598261</v>
+        <v>1.035142624361614</v>
       </c>
       <c r="N2">
-        <v>1.010422117385882</v>
+        <v>1.016827439257092</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004481211169536</v>
+        <v>1.034837870960334</v>
       </c>
       <c r="D3">
-        <v>1.019426108211337</v>
+        <v>1.036800500449208</v>
       </c>
       <c r="E3">
-        <v>1.012151563325141</v>
+        <v>1.038429599452509</v>
       </c>
       <c r="F3">
-        <v>0.9840122685523686</v>
+        <v>1.034109656327795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041334619283585</v>
+        <v>1.036180491228094</v>
       </c>
       <c r="J3">
-        <v>1.02485045485837</v>
+        <v>1.039603029484229</v>
       </c>
       <c r="K3">
-        <v>1.029816318537104</v>
+        <v>1.039405030712471</v>
       </c>
       <c r="L3">
-        <v>1.022631288199368</v>
+        <v>1.041029810551273</v>
       </c>
       <c r="M3">
-        <v>0.994853886867222</v>
+        <v>1.036721352937739</v>
       </c>
       <c r="N3">
-        <v>1.011755443174891</v>
+        <v>1.017093817305043</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008072234750457</v>
+        <v>1.035575160368156</v>
       </c>
       <c r="D4">
-        <v>1.022031661069926</v>
+        <v>1.037343983904056</v>
       </c>
       <c r="E4">
-        <v>1.015424188371888</v>
+        <v>1.039133911551767</v>
       </c>
       <c r="F4">
-        <v>0.9893171314041551</v>
+        <v>1.035255747469733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042483286854832</v>
+        <v>1.036375484373667</v>
       </c>
       <c r="J4">
-        <v>1.027271681887742</v>
+        <v>1.040108053687531</v>
       </c>
       <c r="K4">
-        <v>1.031871260771832</v>
+        <v>1.03982455454903</v>
       </c>
       <c r="L4">
-        <v>1.0253399540923</v>
+        <v>1.041609976657832</v>
       </c>
       <c r="M4">
-        <v>0.9995462224736981</v>
+        <v>1.037741595764192</v>
       </c>
       <c r="N4">
-        <v>1.012592589320981</v>
+        <v>1.017265599945949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009559488470819</v>
+        <v>1.035884949868084</v>
       </c>
       <c r="D5">
-        <v>1.023111385033556</v>
+        <v>1.037572319865443</v>
       </c>
       <c r="E5">
-        <v>1.016780729100523</v>
+        <v>1.039429922722727</v>
       </c>
       <c r="F5">
-        <v>0.9915116925655116</v>
+        <v>1.035737365516398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042956405252755</v>
+        <v>1.036457096293951</v>
       </c>
       <c r="J5">
-        <v>1.028273025091546</v>
+        <v>1.040320073332185</v>
       </c>
       <c r="K5">
-        <v>1.032720839784349</v>
+        <v>1.040000624514394</v>
       </c>
       <c r="L5">
-        <v>1.026461127016905</v>
+        <v>1.041853656076519</v>
       </c>
       <c r="M5">
-        <v>1.00148645262217</v>
+        <v>1.03817020304926</v>
       </c>
       <c r="N5">
-        <v>1.012938659686903</v>
+        <v>1.017337678666173</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009807922297499</v>
+        <v>1.03593695518136</v>
       </c>
       <c r="D6">
-        <v>1.023291778258716</v>
+        <v>1.037610650045421</v>
       </c>
       <c r="E6">
-        <v>1.017007395165654</v>
+        <v>1.039479619580258</v>
       </c>
       <c r="F6">
-        <v>0.9918781423779836</v>
+        <v>1.035818219933011</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043035281295863</v>
+        <v>1.036470778021135</v>
       </c>
       <c r="J6">
-        <v>1.028440206919985</v>
+        <v>1.040355655269368</v>
       </c>
       <c r="K6">
-        <v>1.032862666313463</v>
+        <v>1.040030170013881</v>
       </c>
       <c r="L6">
-        <v>1.026648371343919</v>
+        <v>1.04189455794346</v>
       </c>
       <c r="M6">
-        <v>1.001810377805751</v>
+        <v>1.038242150587083</v>
       </c>
       <c r="N6">
-        <v>1.012996429748629</v>
+        <v>1.017349772883505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008092194123907</v>
+        <v>1.035579300443078</v>
       </c>
       <c r="D7">
-        <v>1.022046148947931</v>
+        <v>1.037347035506369</v>
       </c>
       <c r="E7">
-        <v>1.015442389022446</v>
+        <v>1.039137867185445</v>
       </c>
       <c r="F7">
-        <v>0.9893465923354758</v>
+        <v>1.035262183642427</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042489646617766</v>
+        <v>1.036376576302204</v>
       </c>
       <c r="J7">
-        <v>1.027285125877485</v>
+        <v>1.040110887851281</v>
       </c>
       <c r="K7">
-        <v>1.031882668320537</v>
+        <v>1.03982690837302</v>
       </c>
       <c r="L7">
-        <v>1.025355003138919</v>
+        <v>1.041613233585404</v>
       </c>
       <c r="M7">
-        <v>0.9995722728895043</v>
+        <v>1.037747324015048</v>
       </c>
       <c r="N7">
-        <v>1.012597236244544</v>
+        <v>1.017266563609633</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000727477833649</v>
+        <v>1.034082937294239</v>
       </c>
       <c r="D8">
-        <v>1.016704824649927</v>
+        <v>1.036243939919204</v>
       </c>
       <c r="E8">
-        <v>1.008734782429674</v>
+        <v>1.037708699041882</v>
       </c>
       <c r="F8">
-        <v>0.9784570642899589</v>
+        <v>1.032936331109785</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040124915081754</v>
+        <v>1.035979743838795</v>
       </c>
       <c r="J8">
-        <v>1.022314598532017</v>
+        <v>1.039085311848311</v>
       </c>
       <c r="K8">
-        <v>1.027663174622458</v>
+        <v>1.038974776029039</v>
       </c>
       <c r="L8">
-        <v>1.019797721319226</v>
+        <v>1.040435450377758</v>
       </c>
       <c r="M8">
-        <v>0.9899369780879856</v>
+        <v>1.035676437374622</v>
       </c>
       <c r="N8">
-        <v>1.010878188223358</v>
+        <v>1.016917583771953</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9869399563138241</v>
+        <v>1.031440589040341</v>
       </c>
       <c r="D9">
-        <v>1.006731736166586</v>
+        <v>1.034295415358004</v>
       </c>
       <c r="E9">
-        <v>0.996219538054385</v>
+        <v>1.035187533109893</v>
       </c>
       <c r="F9">
-        <v>0.957947145529389</v>
+        <v>1.028830790322248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035612772624358</v>
+        <v>1.03526878897738</v>
       </c>
       <c r="J9">
-        <v>1.012962480088891</v>
+        <v>1.037268597441004</v>
       </c>
       <c r="K9">
-        <v>1.019716531712537</v>
+        <v>1.037463563754977</v>
       </c>
       <c r="L9">
-        <v>1.00937424984968</v>
+        <v>1.03835276353889</v>
       </c>
       <c r="M9">
-        <v>0.9717614551557562</v>
+        <v>1.032016933725559</v>
       </c>
       <c r="N9">
-        <v>1.007639874128743</v>
+        <v>1.016298154984115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9771160435856012</v>
+        <v>1.029675096370383</v>
       </c>
       <c r="D10">
-        <v>0.999649014626263</v>
+        <v>1.032993128676413</v>
       </c>
       <c r="E10">
-        <v>0.9873338103210633</v>
+        <v>1.033504732571351</v>
       </c>
       <c r="F10">
-        <v>0.9432096862040634</v>
+        <v>1.026088393757275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03234208885519</v>
+        <v>1.03478690696604</v>
       </c>
       <c r="J10">
-        <v>1.006267962792219</v>
+        <v>1.036050921637712</v>
       </c>
       <c r="K10">
-        <v>1.014024609115415</v>
+        <v>1.036449504960099</v>
       </c>
       <c r="L10">
-        <v>1.001935585606554</v>
+        <v>1.036959270196253</v>
       </c>
       <c r="M10">
-        <v>0.9586860348742758</v>
+        <v>1.029569783176021</v>
       </c>
       <c r="N10">
-        <v>1.00532007598113</v>
+        <v>1.015882151716184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726895926732569</v>
+        <v>1.028909645024494</v>
       </c>
       <c r="D11">
-        <v>0.996464530214571</v>
+        <v>1.032428427436566</v>
       </c>
       <c r="E11">
-        <v>0.9833383399910904</v>
+        <v>1.032775547660807</v>
       </c>
       <c r="F11">
-        <v>0.9365292496658274</v>
+        <v>1.024899498116727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030855670809364</v>
+        <v>1.034576357304364</v>
       </c>
       <c r="J11">
-        <v>1.003244367350326</v>
+        <v>1.035522074719935</v>
       </c>
       <c r="K11">
-        <v>1.011453429732674</v>
+        <v>1.036008822102219</v>
       </c>
       <c r="L11">
-        <v>0.9985814630289357</v>
+        <v>1.036354646102886</v>
       </c>
       <c r="M11">
-        <v>0.9527563360828387</v>
+        <v>1.028508246856749</v>
       </c>
       <c r="N11">
-        <v>1.004272150355882</v>
+        <v>1.015701285452943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9710172702854807</v>
+        <v>1.028625171151468</v>
       </c>
       <c r="D12">
-        <v>0.9952625734394978</v>
+        <v>1.032218549770686</v>
       </c>
       <c r="E12">
-        <v>0.9818301503353677</v>
+        <v>1.032504614605495</v>
       </c>
       <c r="F12">
-        <v>0.9339982797085284</v>
+        <v>1.024457664425698</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030292232935308</v>
+        <v>1.034497864433361</v>
       </c>
       <c r="J12">
-        <v>1.002100977176943</v>
+        <v>1.035325396555764</v>
       </c>
       <c r="K12">
-        <v>1.010481101377496</v>
+        <v>1.035844892149048</v>
       </c>
       <c r="L12">
-        <v>0.9973139361221971</v>
+        <v>1.03612987382729</v>
       </c>
       <c r="M12">
-        <v>0.9505094923559203</v>
+        <v>1.028113648674378</v>
       </c>
       <c r="N12">
-        <v>1.003875864339015</v>
+        <v>1.01563399259304</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.971377300926377</v>
+        <v>1.028686198663313</v>
       </c>
       <c r="D13">
-        <v>0.9955212862458876</v>
+        <v>1.032263574815988</v>
       </c>
       <c r="E13">
-        <v>0.9821547850517574</v>
+        <v>1.032562734393766</v>
       </c>
       <c r="F13">
-        <v>0.9345435055357715</v>
+        <v>1.024552449617227</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03041361776082</v>
+        <v>1.034514714352224</v>
       </c>
       <c r="J13">
-        <v>1.002347183313538</v>
+        <v>1.035367595633246</v>
       </c>
       <c r="K13">
-        <v>1.010690473102123</v>
+        <v>1.035880066606327</v>
       </c>
       <c r="L13">
-        <v>0.9975868337520735</v>
+        <v>1.036178096794982</v>
       </c>
       <c r="M13">
-        <v>0.9509935230508464</v>
+        <v>1.028198304899221</v>
       </c>
       <c r="N13">
-        <v>1.003961196545463</v>
+        <v>1.01564843217908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.972551945767556</v>
+        <v>1.028886133430676</v>
       </c>
       <c r="D14">
-        <v>0.9963655745383174</v>
+        <v>1.032411081392975</v>
       </c>
       <c r="E14">
-        <v>0.9832141757299815</v>
+        <v>1.032753153926203</v>
       </c>
       <c r="F14">
-        <v>0.9363210789988609</v>
+        <v>1.024862980661574</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030809332496739</v>
+        <v>1.034569874887026</v>
       </c>
       <c r="J14">
-        <v>1.003150277893547</v>
+        <v>1.03550582217097</v>
       </c>
       <c r="K14">
-        <v>1.011373417140337</v>
+        <v>1.035995276523558</v>
       </c>
       <c r="L14">
-        <v>0.998477140939148</v>
+        <v>1.03633607020738</v>
       </c>
       <c r="M14">
-        <v>0.9525715400897834</v>
+        <v>1.028475635352606</v>
       </c>
       <c r="N14">
-        <v>1.004239540036482</v>
+        <v>1.015695725274657</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9732718836962911</v>
+        <v>1.029009299697391</v>
       </c>
       <c r="D15">
-        <v>0.9968831922268261</v>
+        <v>1.032501948775716</v>
       </c>
       <c r="E15">
-        <v>0.983863648641901</v>
+        <v>1.032870466819526</v>
       </c>
       <c r="F15">
-        <v>0.9374095840367789</v>
+        <v>1.025054278935046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031051621262113</v>
+        <v>1.034603823266136</v>
       </c>
       <c r="J15">
-        <v>1.003642352798564</v>
+        <v>1.035590956103749</v>
       </c>
       <c r="K15">
-        <v>1.011791871333766</v>
+        <v>1.036066229197323</v>
       </c>
       <c r="L15">
-        <v>0.9990227659393892</v>
+        <v>1.036433377848098</v>
       </c>
       <c r="M15">
-        <v>0.9535378095506883</v>
+        <v>1.028646468222967</v>
       </c>
       <c r="N15">
-        <v>1.004410087364837</v>
+        <v>1.015724849369323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9774059931076039</v>
+        <v>1.029725875861851</v>
       </c>
       <c r="D16">
-        <v>0.9998577623359634</v>
+        <v>1.03303058896703</v>
       </c>
       <c r="E16">
-        <v>0.9875957056407927</v>
+        <v>1.033553114935307</v>
       </c>
       <c r="F16">
-        <v>0.9436463636769763</v>
+        <v>1.026167265942798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032439195014351</v>
+        <v>1.034800840501232</v>
       </c>
       <c r="J16">
-        <v>1.006465871846238</v>
+        <v>1.036085985835978</v>
       </c>
       <c r="K16">
-        <v>1.014192900104671</v>
+        <v>1.036478717984672</v>
       </c>
       <c r="L16">
-        <v>1.002155246009548</v>
+        <v>1.036999370902275</v>
       </c>
       <c r="M16">
-        <v>0.9590735921786078</v>
+        <v>1.029640192855148</v>
       </c>
       <c r="N16">
-        <v>1.005388665728907</v>
+        <v>1.015894139680799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9799515160966902</v>
+        <v>1.030175099797833</v>
       </c>
       <c r="D17">
-        <v>1.001691186462812</v>
+        <v>1.033361974792362</v>
       </c>
       <c r="E17">
-        <v>0.9898958765984459</v>
+        <v>1.033981180411138</v>
       </c>
       <c r="F17">
-        <v>0.9474753987856327</v>
+        <v>1.026865024993354</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033290275860367</v>
+        <v>1.034923916960961</v>
       </c>
       <c r="J17">
-        <v>1.008202542733932</v>
+        <v>1.036396078586595</v>
       </c>
       <c r="K17">
-        <v>1.015669627890006</v>
+        <v>1.036737034531195</v>
       </c>
       <c r="L17">
-        <v>1.004083417876437</v>
+        <v>1.037354071484195</v>
       </c>
       <c r="M17">
-        <v>0.9624716245425322</v>
+        <v>1.03026301307928</v>
       </c>
       <c r="N17">
-        <v>1.005990529003191</v>
+        <v>1.016000133927908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9814197823259468</v>
+        <v>1.030437030085237</v>
       </c>
       <c r="D18">
-        <v>1.002749348052528</v>
+        <v>1.033555189238146</v>
       </c>
       <c r="E18">
-        <v>0.9912233959105052</v>
+        <v>1.034230813681112</v>
       </c>
       <c r="F18">
-        <v>0.9496803040177838</v>
+        <v>1.027271879837248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033779981300665</v>
+        <v>1.034995522948101</v>
       </c>
       <c r="J18">
-        <v>1.009203582987423</v>
+        <v>1.036576797671738</v>
       </c>
       <c r="K18">
-        <v>1.016520792326097</v>
+        <v>1.036887553054157</v>
       </c>
       <c r="L18">
-        <v>1.0051953644356</v>
+        <v>1.037560843628651</v>
       </c>
       <c r="M18">
-        <v>0.9644280852830498</v>
+        <v>1.030626110570095</v>
       </c>
       <c r="N18">
-        <v>1.006337432392652</v>
+        <v>1.016061887802518</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9819176882027857</v>
+        <v>1.030526325638482</v>
       </c>
       <c r="D19">
-        <v>1.003108287287503</v>
+        <v>1.033621057316902</v>
       </c>
       <c r="E19">
-        <v>0.9916737020920694</v>
+        <v>1.034315923771008</v>
       </c>
       <c r="F19">
-        <v>0.9504274150883288</v>
+        <v>1.027410584071765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033945841027066</v>
+        <v>1.035019907830952</v>
       </c>
       <c r="J19">
-        <v>1.009542931945242</v>
+        <v>1.036638392378315</v>
       </c>
       <c r="K19">
-        <v>1.016809325846535</v>
+        <v>1.036938850065067</v>
       </c>
       <c r="L19">
-        <v>1.005572398402746</v>
+        <v>1.037631327537112</v>
       </c>
       <c r="M19">
-        <v>0.9650909670880687</v>
+        <v>1.030749886699376</v>
       </c>
       <c r="N19">
-        <v>1.006455027617482</v>
+        <v>1.016082932296508</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9796801267482074</v>
+        <v>1.030126912116845</v>
       </c>
       <c r="D20">
-        <v>1.001495650161634</v>
+        <v>1.033326428239661</v>
       </c>
       <c r="E20">
-        <v>0.9896505645464621</v>
+        <v>1.033935258239641</v>
       </c>
       <c r="F20">
-        <v>0.9470675595348199</v>
+        <v>1.026790176225348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033199662841247</v>
+        <v>1.034910730900043</v>
       </c>
       <c r="J20">
-        <v>1.008017458932208</v>
+        <v>1.036362824391346</v>
       </c>
       <c r="K20">
-        <v>1.015512251248651</v>
+        <v>1.036709335466759</v>
       </c>
       <c r="L20">
-        <v>1.003877870653087</v>
+        <v>1.037316027768187</v>
       </c>
       <c r="M20">
-        <v>0.9621097183924496</v>
+        <v>1.030196209369458</v>
       </c>
       <c r="N20">
-        <v>1.005926387876711</v>
+        <v>1.015988769075055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9722068380388421</v>
+        <v>1.028827261827747</v>
       </c>
       <c r="D21">
-        <v>0.9961174921859104</v>
+        <v>1.032367647779137</v>
       </c>
       <c r="E21">
-        <v>0.982902892897898</v>
+        <v>1.032697082388926</v>
       </c>
       <c r="F21">
-        <v>0.9357990364640455</v>
+        <v>1.024771543311103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03069312341338</v>
+        <v>1.03455363937088</v>
       </c>
       <c r="J21">
-        <v>1.002914360035513</v>
+        <v>1.035465124571894</v>
       </c>
       <c r="K21">
-        <v>1.011172795093712</v>
+        <v>1.03596135673589</v>
       </c>
       <c r="L21">
-        <v>0.9982155798000216</v>
+        <v>1.036289556186453</v>
       </c>
       <c r="M21">
-        <v>0.9521081112103529</v>
+        <v>1.028393976709361</v>
       </c>
       <c r="N21">
-        <v>1.004157773593207</v>
+        <v>1.015681801709372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9673439696674077</v>
+        <v>1.028009243672713</v>
       </c>
       <c r="D22">
-        <v>0.9926247001664138</v>
+        <v>1.031764114843136</v>
       </c>
       <c r="E22">
-        <v>0.9785198598007889</v>
+        <v>1.031918120129035</v>
       </c>
       <c r="F22">
-        <v>0.9284245414434911</v>
+        <v>1.023501041589965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029051237240466</v>
+        <v>1.034327470211495</v>
       </c>
       <c r="J22">
-        <v>0.9995875265387844</v>
+        <v>1.03489931009939</v>
       </c>
       <c r="K22">
-        <v>1.00834369286228</v>
+        <v>1.035489679078344</v>
       </c>
       <c r="L22">
-        <v>0.9945291996765111</v>
+        <v>1.035643083828226</v>
       </c>
       <c r="M22">
-        <v>0.9455610290649292</v>
+        <v>1.027259121900553</v>
       </c>
       <c r="N22">
-        <v>1.003004742503385</v>
+        <v>1.015488156092582</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9699382336108083</v>
+        <v>1.028442974900137</v>
       </c>
       <c r="D23">
-        <v>0.9944873713038288</v>
+        <v>1.032084126979107</v>
       </c>
       <c r="E23">
-        <v>0.9808573947343474</v>
+        <v>1.032331108510677</v>
       </c>
       <c r="F23">
-        <v>0.9323630698841234</v>
+        <v>1.024174686384034</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029928164212103</v>
+        <v>1.034447523700911</v>
       </c>
       <c r="J23">
-        <v>1.00136292419407</v>
+        <v>1.035199392192832</v>
       </c>
       <c r="K23">
-        <v>1.009853467063731</v>
+        <v>1.035739857123704</v>
       </c>
       <c r="L23">
-        <v>0.9964959966628746</v>
+        <v>1.035985895226966</v>
       </c>
       <c r="M23">
-        <v>0.9490577798283844</v>
+        <v>1.027860896356801</v>
       </c>
       <c r="N23">
-        <v>1.003620064357016</v>
+        <v>1.015590872516418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9798028067221459</v>
+        <v>1.030148686347297</v>
       </c>
       <c r="D24">
-        <v>1.001584039240525</v>
+        <v>1.033342490435568</v>
       </c>
       <c r="E24">
-        <v>0.9897614540355593</v>
+        <v>1.03395600864689</v>
       </c>
       <c r="F24">
-        <v>0.9472519322868973</v>
+        <v>1.026823997581606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03324062766044</v>
+        <v>1.034916689677023</v>
       </c>
       <c r="J24">
-        <v>1.008101127090446</v>
+        <v>1.036377851002683</v>
       </c>
       <c r="K24">
-        <v>1.015583394362203</v>
+        <v>1.03672185195482</v>
       </c>
       <c r="L24">
-        <v>1.003970787792716</v>
+        <v>1.037333218452544</v>
       </c>
       <c r="M24">
-        <v>0.9622733268749848</v>
+        <v>1.030226395654959</v>
       </c>
       <c r="N24">
-        <v>1.005955383287762</v>
+        <v>1.015993904581532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906088140035155</v>
+        <v>1.032124377919633</v>
       </c>
       <c r="D25">
-        <v>1.009381991097079</v>
+        <v>1.03479972536272</v>
       </c>
       <c r="E25">
-        <v>0.9995446635567681</v>
+        <v>1.03583966061755</v>
       </c>
       <c r="F25">
-        <v>0.9634228471166139</v>
+        <v>1.029893073103564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036823120343477</v>
+        <v>1.03545397831206</v>
       </c>
       <c r="J25">
-        <v>1.015456415718762</v>
+        <v>1.037739403292432</v>
       </c>
       <c r="K25">
-        <v>1.021836388862284</v>
+        <v>1.037855401546925</v>
       </c>
       <c r="L25">
-        <v>1.012150052151756</v>
+        <v>1.038892065264326</v>
       </c>
       <c r="M25">
-        <v>0.9766168188118657</v>
+        <v>1.032964282632046</v>
       </c>
       <c r="N25">
-        <v>1.008503799541176</v>
+        <v>1.016458827113751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033697341275478</v>
+        <v>0.9987794511482078</v>
       </c>
       <c r="D2">
-        <v>1.035959640304085</v>
+        <v>1.015293571094354</v>
       </c>
       <c r="E2">
-        <v>1.037340588814893</v>
+        <v>1.006963248201193</v>
       </c>
       <c r="F2">
-        <v>1.032337102294503</v>
+        <v>0.9755697656132716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035876791816523</v>
+        <v>1.039493724546424</v>
       </c>
       <c r="J2">
-        <v>1.038820645446166</v>
+        <v>1.020996730009628</v>
       </c>
       <c r="K2">
-        <v>1.038754751167188</v>
+        <v>1.026543875831363</v>
       </c>
       <c r="L2">
-        <v>1.040131751611263</v>
+        <v>1.018326418883279</v>
       </c>
       <c r="M2">
-        <v>1.035142624361614</v>
+        <v>0.9873802814598268</v>
       </c>
       <c r="N2">
-        <v>1.016827439257092</v>
+        <v>1.010422117385883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034837870960334</v>
+        <v>1.004481211169536</v>
       </c>
       <c r="D3">
-        <v>1.036800500449208</v>
+        <v>1.019426108211337</v>
       </c>
       <c r="E3">
-        <v>1.038429599452509</v>
+        <v>1.012151563325141</v>
       </c>
       <c r="F3">
-        <v>1.034109656327795</v>
+        <v>0.9840122685523686</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036180491228094</v>
+        <v>1.041334619283585</v>
       </c>
       <c r="J3">
-        <v>1.039603029484229</v>
+        <v>1.024850454858369</v>
       </c>
       <c r="K3">
-        <v>1.039405030712471</v>
+        <v>1.029816318537103</v>
       </c>
       <c r="L3">
-        <v>1.041029810551273</v>
+        <v>1.022631288199367</v>
       </c>
       <c r="M3">
-        <v>1.036721352937739</v>
+        <v>0.9948538868672218</v>
       </c>
       <c r="N3">
-        <v>1.017093817305043</v>
+        <v>1.01175544317489</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035575160368156</v>
+        <v>1.008072234750457</v>
       </c>
       <c r="D4">
-        <v>1.037343983904056</v>
+        <v>1.022031661069925</v>
       </c>
       <c r="E4">
-        <v>1.039133911551767</v>
+        <v>1.015424188371888</v>
       </c>
       <c r="F4">
-        <v>1.035255747469733</v>
+        <v>0.9893171314041549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036375484373667</v>
+        <v>1.042483286854832</v>
       </c>
       <c r="J4">
-        <v>1.040108053687531</v>
+        <v>1.027271681887742</v>
       </c>
       <c r="K4">
-        <v>1.03982455454903</v>
+        <v>1.031871260771832</v>
       </c>
       <c r="L4">
-        <v>1.041609976657832</v>
+        <v>1.0253399540923</v>
       </c>
       <c r="M4">
-        <v>1.037741595764192</v>
+        <v>0.9995462224736978</v>
       </c>
       <c r="N4">
-        <v>1.017265599945949</v>
+        <v>1.012592589320981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035884949868084</v>
+        <v>1.009559488470818</v>
       </c>
       <c r="D5">
-        <v>1.037572319865443</v>
+        <v>1.023111385033555</v>
       </c>
       <c r="E5">
-        <v>1.039429922722727</v>
+        <v>1.016780729100522</v>
       </c>
       <c r="F5">
-        <v>1.035737365516398</v>
+        <v>0.9915116925655101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036457096293951</v>
+        <v>1.042956405252754</v>
       </c>
       <c r="J5">
-        <v>1.040320073332185</v>
+        <v>1.028273025091546</v>
       </c>
       <c r="K5">
-        <v>1.040000624514394</v>
+        <v>1.032720839784349</v>
       </c>
       <c r="L5">
-        <v>1.041853656076519</v>
+        <v>1.026461127016904</v>
       </c>
       <c r="M5">
-        <v>1.03817020304926</v>
+        <v>1.001486452622169</v>
       </c>
       <c r="N5">
-        <v>1.017337678666173</v>
+        <v>1.012938659686903</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03593695518136</v>
+        <v>1.0098079222975</v>
       </c>
       <c r="D6">
-        <v>1.037610650045421</v>
+        <v>1.023291778258717</v>
       </c>
       <c r="E6">
-        <v>1.039479619580258</v>
+        <v>1.017007395165656</v>
       </c>
       <c r="F6">
-        <v>1.035818219933011</v>
+        <v>0.9918781423779849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036470778021135</v>
+        <v>1.043035281295864</v>
       </c>
       <c r="J6">
-        <v>1.040355655269368</v>
+        <v>1.028440206919986</v>
       </c>
       <c r="K6">
-        <v>1.040030170013881</v>
+        <v>1.032862666313464</v>
       </c>
       <c r="L6">
-        <v>1.04189455794346</v>
+        <v>1.026648371343921</v>
       </c>
       <c r="M6">
-        <v>1.038242150587083</v>
+        <v>1.001810377805752</v>
       </c>
       <c r="N6">
-        <v>1.017349772883505</v>
+        <v>1.01299642974863</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035579300443078</v>
+        <v>1.008092194123908</v>
       </c>
       <c r="D7">
-        <v>1.037347035506369</v>
+        <v>1.022046148947932</v>
       </c>
       <c r="E7">
-        <v>1.039137867185445</v>
+        <v>1.015442389022447</v>
       </c>
       <c r="F7">
-        <v>1.035262183642427</v>
+        <v>0.9893465923354776</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036376576302204</v>
+        <v>1.042489646617767</v>
       </c>
       <c r="J7">
-        <v>1.040110887851281</v>
+        <v>1.027285125877486</v>
       </c>
       <c r="K7">
-        <v>1.03982690837302</v>
+        <v>1.031882668320539</v>
       </c>
       <c r="L7">
-        <v>1.041613233585404</v>
+        <v>1.025355003138921</v>
       </c>
       <c r="M7">
-        <v>1.037747324015048</v>
+        <v>0.9995722728895058</v>
       </c>
       <c r="N7">
-        <v>1.017266563609633</v>
+        <v>1.012597236244545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034082937294239</v>
+        <v>1.00072747783365</v>
       </c>
       <c r="D8">
-        <v>1.036243939919204</v>
+        <v>1.016704824649928</v>
       </c>
       <c r="E8">
-        <v>1.037708699041882</v>
+        <v>1.008734782429675</v>
       </c>
       <c r="F8">
-        <v>1.032936331109785</v>
+        <v>0.9784570642899604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035979743838795</v>
+        <v>1.040124915081755</v>
       </c>
       <c r="J8">
-        <v>1.039085311848311</v>
+        <v>1.022314598532019</v>
       </c>
       <c r="K8">
-        <v>1.038974776029039</v>
+        <v>1.027663174622459</v>
       </c>
       <c r="L8">
-        <v>1.040435450377758</v>
+        <v>1.019797721319227</v>
       </c>
       <c r="M8">
-        <v>1.035676437374622</v>
+        <v>0.9899369780879869</v>
       </c>
       <c r="N8">
-        <v>1.016917583771953</v>
+        <v>1.010878188223359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031440589040341</v>
+        <v>0.9869399563138243</v>
       </c>
       <c r="D9">
-        <v>1.034295415358004</v>
+        <v>1.006731736166585</v>
       </c>
       <c r="E9">
-        <v>1.035187533109893</v>
+        <v>0.996219538054385</v>
       </c>
       <c r="F9">
-        <v>1.028830790322248</v>
+        <v>0.9579471455293889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03526878897738</v>
+        <v>1.035612772624358</v>
       </c>
       <c r="J9">
-        <v>1.037268597441004</v>
+        <v>1.012962480088891</v>
       </c>
       <c r="K9">
-        <v>1.037463563754977</v>
+        <v>1.019716531712537</v>
       </c>
       <c r="L9">
-        <v>1.03835276353889</v>
+        <v>1.00937424984968</v>
       </c>
       <c r="M9">
-        <v>1.032016933725559</v>
+        <v>0.9717614551557561</v>
       </c>
       <c r="N9">
-        <v>1.016298154984115</v>
+        <v>1.007639874128743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029675096370383</v>
+        <v>0.9771160435855996</v>
       </c>
       <c r="D10">
-        <v>1.032993128676413</v>
+        <v>0.9996490146262618</v>
       </c>
       <c r="E10">
-        <v>1.033504732571351</v>
+        <v>0.9873338103210615</v>
       </c>
       <c r="F10">
-        <v>1.026088393757275</v>
+        <v>0.9432096862040619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03478690696604</v>
+        <v>1.032342088855189</v>
       </c>
       <c r="J10">
-        <v>1.036050921637712</v>
+        <v>1.006267962792217</v>
       </c>
       <c r="K10">
-        <v>1.036449504960099</v>
+        <v>1.014024609115414</v>
       </c>
       <c r="L10">
-        <v>1.036959270196253</v>
+        <v>1.001935585606553</v>
       </c>
       <c r="M10">
-        <v>1.029569783176021</v>
+        <v>0.9586860348742742</v>
       </c>
       <c r="N10">
-        <v>1.015882151716184</v>
+        <v>1.00532007598113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028909645024494</v>
+        <v>0.9726895926732561</v>
       </c>
       <c r="D11">
-        <v>1.032428427436566</v>
+        <v>0.9964645302145703</v>
       </c>
       <c r="E11">
-        <v>1.032775547660807</v>
+        <v>0.9833383399910895</v>
       </c>
       <c r="F11">
-        <v>1.024899498116727</v>
+        <v>0.9365292496658263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034576357304364</v>
+        <v>1.030855670809364</v>
       </c>
       <c r="J11">
-        <v>1.035522074719935</v>
+        <v>1.003244367350325</v>
       </c>
       <c r="K11">
-        <v>1.036008822102219</v>
+        <v>1.011453429732673</v>
       </c>
       <c r="L11">
-        <v>1.036354646102886</v>
+        <v>0.9985814630289349</v>
       </c>
       <c r="M11">
-        <v>1.028508246856749</v>
+        <v>0.9527563360828375</v>
       </c>
       <c r="N11">
-        <v>1.015701285452943</v>
+        <v>1.004272150355882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028625171151468</v>
+        <v>0.9710172702854797</v>
       </c>
       <c r="D12">
-        <v>1.032218549770686</v>
+        <v>0.9952625734394966</v>
       </c>
       <c r="E12">
-        <v>1.032504614605495</v>
+        <v>0.9818301503353665</v>
       </c>
       <c r="F12">
-        <v>1.024457664425698</v>
+        <v>0.9339982797085271</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034497864433361</v>
+        <v>1.030292232935307</v>
       </c>
       <c r="J12">
-        <v>1.035325396555764</v>
+        <v>1.002100977176942</v>
       </c>
       <c r="K12">
-        <v>1.035844892149048</v>
+        <v>1.010481101377495</v>
       </c>
       <c r="L12">
-        <v>1.03612987382729</v>
+        <v>0.997313936122196</v>
       </c>
       <c r="M12">
-        <v>1.028113648674378</v>
+        <v>0.950509492355919</v>
       </c>
       <c r="N12">
-        <v>1.01563399259304</v>
+        <v>1.003875864339014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028686198663313</v>
+        <v>0.9713773009263774</v>
       </c>
       <c r="D13">
-        <v>1.032263574815988</v>
+        <v>0.9955212862458883</v>
       </c>
       <c r="E13">
-        <v>1.032562734393766</v>
+        <v>0.982154785051758</v>
       </c>
       <c r="F13">
-        <v>1.024552449617227</v>
+        <v>0.934543505535772</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034514714352224</v>
+        <v>1.03041361776082</v>
       </c>
       <c r="J13">
-        <v>1.035367595633246</v>
+        <v>1.002347183313538</v>
       </c>
       <c r="K13">
-        <v>1.035880066606327</v>
+        <v>1.010690473102123</v>
       </c>
       <c r="L13">
-        <v>1.036178096794982</v>
+        <v>0.9975868337520741</v>
       </c>
       <c r="M13">
-        <v>1.028198304899221</v>
+        <v>0.9509935230508468</v>
       </c>
       <c r="N13">
-        <v>1.01564843217908</v>
+        <v>1.003961196545464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028886133430676</v>
+        <v>0.9725519457675557</v>
       </c>
       <c r="D14">
-        <v>1.032411081392975</v>
+        <v>0.996365574538317</v>
       </c>
       <c r="E14">
-        <v>1.032753153926203</v>
+        <v>0.983214175729981</v>
       </c>
       <c r="F14">
-        <v>1.024862980661574</v>
+        <v>0.9363210789988609</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034569874887026</v>
+        <v>1.030809332496738</v>
       </c>
       <c r="J14">
-        <v>1.03550582217097</v>
+        <v>1.003150277893547</v>
       </c>
       <c r="K14">
-        <v>1.035995276523558</v>
+        <v>1.011373417140337</v>
       </c>
       <c r="L14">
-        <v>1.03633607020738</v>
+        <v>0.9984771409391476</v>
       </c>
       <c r="M14">
-        <v>1.028475635352606</v>
+        <v>0.9525715400897833</v>
       </c>
       <c r="N14">
-        <v>1.015695725274657</v>
+        <v>1.004239540036482</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029009299697391</v>
+        <v>0.9732718836962906</v>
       </c>
       <c r="D15">
-        <v>1.032501948775716</v>
+        <v>0.9968831922268254</v>
       </c>
       <c r="E15">
-        <v>1.032870466819526</v>
+        <v>0.9838636486419005</v>
       </c>
       <c r="F15">
-        <v>1.025054278935046</v>
+        <v>0.9374095840367787</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034603823266136</v>
+        <v>1.031051621262113</v>
       </c>
       <c r="J15">
-        <v>1.035590956103749</v>
+        <v>1.003642352798563</v>
       </c>
       <c r="K15">
-        <v>1.036066229197323</v>
+        <v>1.011791871333765</v>
       </c>
       <c r="L15">
-        <v>1.036433377848098</v>
+        <v>0.9990227659393888</v>
       </c>
       <c r="M15">
-        <v>1.028646468222967</v>
+        <v>0.953537809550688</v>
       </c>
       <c r="N15">
-        <v>1.015724849369323</v>
+        <v>1.004410087364837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029725875861851</v>
+        <v>0.9774059931076037</v>
       </c>
       <c r="D16">
-        <v>1.03303058896703</v>
+        <v>0.9998577623359631</v>
       </c>
       <c r="E16">
-        <v>1.033553114935307</v>
+        <v>0.9875957056407927</v>
       </c>
       <c r="F16">
-        <v>1.026167265942798</v>
+        <v>0.9436463636769762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034800840501232</v>
+        <v>1.032439195014351</v>
       </c>
       <c r="J16">
-        <v>1.036085985835978</v>
+        <v>1.006465871846238</v>
       </c>
       <c r="K16">
-        <v>1.036478717984672</v>
+        <v>1.014192900104671</v>
       </c>
       <c r="L16">
-        <v>1.036999370902275</v>
+        <v>1.002155246009548</v>
       </c>
       <c r="M16">
-        <v>1.029640192855148</v>
+        <v>0.9590735921786075</v>
       </c>
       <c r="N16">
-        <v>1.015894139680799</v>
+        <v>1.005388665728907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030175099797833</v>
+        <v>0.9799515160966894</v>
       </c>
       <c r="D17">
-        <v>1.033361974792362</v>
+        <v>1.001691186462812</v>
       </c>
       <c r="E17">
-        <v>1.033981180411138</v>
+        <v>0.9898958765984455</v>
       </c>
       <c r="F17">
-        <v>1.026865024993354</v>
+        <v>0.947475398785632</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034923916960961</v>
+        <v>1.033290275860366</v>
       </c>
       <c r="J17">
-        <v>1.036396078586595</v>
+        <v>1.008202542733931</v>
       </c>
       <c r="K17">
-        <v>1.036737034531195</v>
+        <v>1.015669627890006</v>
       </c>
       <c r="L17">
-        <v>1.037354071484195</v>
+        <v>1.004083417876436</v>
       </c>
       <c r="M17">
-        <v>1.03026301307928</v>
+        <v>0.9624716245425317</v>
       </c>
       <c r="N17">
-        <v>1.016000133927908</v>
+        <v>1.005990529003191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030437030085237</v>
+        <v>0.9814197823259476</v>
       </c>
       <c r="D18">
-        <v>1.033555189238146</v>
+        <v>1.002749348052529</v>
       </c>
       <c r="E18">
-        <v>1.034230813681112</v>
+        <v>0.9912233959105066</v>
       </c>
       <c r="F18">
-        <v>1.027271879837248</v>
+        <v>0.9496803040177845</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034995522948101</v>
+        <v>1.033779981300665</v>
       </c>
       <c r="J18">
-        <v>1.036576797671738</v>
+        <v>1.009203582987424</v>
       </c>
       <c r="K18">
-        <v>1.036887553054157</v>
+        <v>1.016520792326098</v>
       </c>
       <c r="L18">
-        <v>1.037560843628651</v>
+        <v>1.005195364435601</v>
       </c>
       <c r="M18">
-        <v>1.030626110570095</v>
+        <v>0.9644280852830505</v>
       </c>
       <c r="N18">
-        <v>1.016061887802518</v>
+        <v>1.006337432392653</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030526325638482</v>
+        <v>0.9819176882027862</v>
       </c>
       <c r="D19">
-        <v>1.033621057316902</v>
+        <v>1.003108287287503</v>
       </c>
       <c r="E19">
-        <v>1.034315923771008</v>
+        <v>0.99167370209207</v>
       </c>
       <c r="F19">
-        <v>1.027410584071765</v>
+        <v>0.95042741508833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035019907830952</v>
+        <v>1.033945841027066</v>
       </c>
       <c r="J19">
-        <v>1.036638392378315</v>
+        <v>1.009542931945242</v>
       </c>
       <c r="K19">
-        <v>1.036938850065067</v>
+        <v>1.016809325846535</v>
       </c>
       <c r="L19">
-        <v>1.037631327537112</v>
+        <v>1.005572398402747</v>
       </c>
       <c r="M19">
-        <v>1.030749886699376</v>
+        <v>0.9650909670880697</v>
       </c>
       <c r="N19">
-        <v>1.016082932296508</v>
+        <v>1.006455027617482</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030126912116845</v>
+        <v>0.9796801267482081</v>
       </c>
       <c r="D20">
-        <v>1.033326428239661</v>
+        <v>1.001495650161634</v>
       </c>
       <c r="E20">
-        <v>1.033935258239641</v>
+        <v>0.9896505645464626</v>
       </c>
       <c r="F20">
-        <v>1.026790176225348</v>
+        <v>0.9470675595348207</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034910730900043</v>
+        <v>1.033199662841247</v>
       </c>
       <c r="J20">
-        <v>1.036362824391346</v>
+        <v>1.008017458932208</v>
       </c>
       <c r="K20">
-        <v>1.036709335466759</v>
+        <v>1.015512251248652</v>
       </c>
       <c r="L20">
-        <v>1.037316027768187</v>
+        <v>1.003877870653087</v>
       </c>
       <c r="M20">
-        <v>1.030196209369458</v>
+        <v>0.9621097183924503</v>
       </c>
       <c r="N20">
-        <v>1.015988769075055</v>
+        <v>1.005926387876712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028827261827747</v>
+        <v>0.9722068380388399</v>
       </c>
       <c r="D21">
-        <v>1.032367647779137</v>
+        <v>0.9961174921859078</v>
       </c>
       <c r="E21">
-        <v>1.032697082388926</v>
+        <v>0.9829028928978958</v>
       </c>
       <c r="F21">
-        <v>1.024771543311103</v>
+        <v>0.9357990364640428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03455363937088</v>
+        <v>1.030693123413378</v>
       </c>
       <c r="J21">
-        <v>1.035465124571894</v>
+        <v>1.002914360035511</v>
       </c>
       <c r="K21">
-        <v>1.03596135673589</v>
+        <v>1.01117279509371</v>
       </c>
       <c r="L21">
-        <v>1.036289556186453</v>
+        <v>0.9982155798000194</v>
       </c>
       <c r="M21">
-        <v>1.028393976709361</v>
+        <v>0.9521081112103503</v>
       </c>
       <c r="N21">
-        <v>1.015681801709372</v>
+        <v>1.004157773593206</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028009243672713</v>
+        <v>0.967343969667406</v>
       </c>
       <c r="D22">
-        <v>1.031764114843136</v>
+        <v>0.9926247001664125</v>
       </c>
       <c r="E22">
-        <v>1.031918120129035</v>
+        <v>0.9785198598007868</v>
       </c>
       <c r="F22">
-        <v>1.023501041589965</v>
+        <v>0.928424541443489</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034327470211495</v>
+        <v>1.029051237240465</v>
       </c>
       <c r="J22">
-        <v>1.03489931009939</v>
+        <v>0.9995875265387826</v>
       </c>
       <c r="K22">
-        <v>1.035489679078344</v>
+        <v>1.008343692862279</v>
       </c>
       <c r="L22">
-        <v>1.035643083828226</v>
+        <v>0.9945291996765091</v>
       </c>
       <c r="M22">
-        <v>1.027259121900553</v>
+        <v>0.945561029064927</v>
       </c>
       <c r="N22">
-        <v>1.015488156092582</v>
+        <v>1.003004742503384</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028442974900137</v>
+        <v>0.969938233610809</v>
       </c>
       <c r="D23">
-        <v>1.032084126979107</v>
+        <v>0.9944873713038294</v>
       </c>
       <c r="E23">
-        <v>1.032331108510677</v>
+        <v>0.9808573947343477</v>
       </c>
       <c r="F23">
-        <v>1.024174686384034</v>
+        <v>0.9323630698841247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034447523700911</v>
+        <v>1.029928164212104</v>
       </c>
       <c r="J23">
-        <v>1.035199392192832</v>
+        <v>1.001362924194071</v>
       </c>
       <c r="K23">
-        <v>1.035739857123704</v>
+        <v>1.009853467063731</v>
       </c>
       <c r="L23">
-        <v>1.035985895226966</v>
+        <v>0.9964959966628751</v>
       </c>
       <c r="M23">
-        <v>1.027860896356801</v>
+        <v>0.9490577798283851</v>
       </c>
       <c r="N23">
-        <v>1.015590872516418</v>
+        <v>1.003620064357017</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030148686347297</v>
+        <v>0.9798028067221451</v>
       </c>
       <c r="D24">
-        <v>1.033342490435568</v>
+        <v>1.001584039240524</v>
       </c>
       <c r="E24">
-        <v>1.03395600864689</v>
+        <v>0.9897614540355583</v>
       </c>
       <c r="F24">
-        <v>1.026823997581606</v>
+        <v>0.9472519322868961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034916689677023</v>
+        <v>1.03324062766044</v>
       </c>
       <c r="J24">
-        <v>1.036377851002683</v>
+        <v>1.008101127090445</v>
       </c>
       <c r="K24">
-        <v>1.03672185195482</v>
+        <v>1.015583394362202</v>
       </c>
       <c r="L24">
-        <v>1.037333218452544</v>
+        <v>1.003970787792715</v>
       </c>
       <c r="M24">
-        <v>1.030226395654959</v>
+        <v>0.9622733268749835</v>
       </c>
       <c r="N24">
-        <v>1.015993904581532</v>
+        <v>1.005955383287762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032124377919633</v>
+        <v>0.9906088140035155</v>
       </c>
       <c r="D25">
-        <v>1.03479972536272</v>
+        <v>1.009381991097079</v>
       </c>
       <c r="E25">
-        <v>1.03583966061755</v>
+        <v>0.9995446635567683</v>
       </c>
       <c r="F25">
-        <v>1.029893073103564</v>
+        <v>0.9634228471166135</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03545397831206</v>
+        <v>1.036823120343477</v>
       </c>
       <c r="J25">
-        <v>1.037739403292432</v>
+        <v>1.015456415718762</v>
       </c>
       <c r="K25">
-        <v>1.037855401546925</v>
+        <v>1.021836388862284</v>
       </c>
       <c r="L25">
-        <v>1.038892065264326</v>
+        <v>1.012150052151756</v>
       </c>
       <c r="M25">
-        <v>1.032964282632046</v>
+        <v>0.9766168188118654</v>
       </c>
       <c r="N25">
-        <v>1.016458827113751</v>
+        <v>1.008503799541176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9987794511482078</v>
+        <v>1.010707041325245</v>
       </c>
       <c r="D2">
-        <v>1.015293571094354</v>
+        <v>1.030671897617399</v>
       </c>
       <c r="E2">
-        <v>1.006963248201193</v>
+        <v>1.018812058186372</v>
       </c>
       <c r="F2">
-        <v>0.9755697656132716</v>
+        <v>1.034305711144977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039493724546424</v>
+        <v>1.047159112061737</v>
       </c>
       <c r="J2">
-        <v>1.020996730009628</v>
+        <v>1.032572155675347</v>
       </c>
       <c r="K2">
-        <v>1.026543875831363</v>
+        <v>1.041719842982619</v>
       </c>
       <c r="L2">
-        <v>1.018326418883279</v>
+        <v>1.030015387630847</v>
       </c>
       <c r="M2">
-        <v>0.9873802814598268</v>
+        <v>1.045306938883619</v>
       </c>
       <c r="N2">
-        <v>1.010422117385883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014676378887909</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04442978304476</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040569824882675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004481211169536</v>
+        <v>1.014069862296229</v>
       </c>
       <c r="D3">
-        <v>1.019426108211337</v>
+        <v>1.032893064249999</v>
       </c>
       <c r="E3">
-        <v>1.012151563325141</v>
+        <v>1.021687769072939</v>
       </c>
       <c r="F3">
-        <v>0.9840122685523686</v>
+        <v>1.036719129851408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041334619283585</v>
+        <v>1.047878592058045</v>
       </c>
       <c r="J3">
-        <v>1.024850454858369</v>
+        <v>1.034184181348145</v>
       </c>
       <c r="K3">
-        <v>1.029816318537103</v>
+        <v>1.043121684165005</v>
       </c>
       <c r="L3">
-        <v>1.022631288199367</v>
+        <v>1.032050471987112</v>
       </c>
       <c r="M3">
-        <v>0.9948538868672218</v>
+        <v>1.046902788332904</v>
       </c>
       <c r="N3">
-        <v>1.01175544317489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015225144411188</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045692782959223</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041558384403187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008072234750457</v>
+        <v>1.016211476768974</v>
       </c>
       <c r="D4">
-        <v>1.022031661069925</v>
+        <v>1.034311990705961</v>
       </c>
       <c r="E4">
-        <v>1.015424188371888</v>
+        <v>1.023524538974728</v>
       </c>
       <c r="F4">
-        <v>0.9893171314041549</v>
+        <v>1.038263078424994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042483286854832</v>
+        <v>1.048329684317856</v>
       </c>
       <c r="J4">
-        <v>1.027271681887742</v>
+        <v>1.03520938961291</v>
       </c>
       <c r="K4">
-        <v>1.031871260771832</v>
+        <v>1.044013212708801</v>
       </c>
       <c r="L4">
-        <v>1.0253399540923</v>
+        <v>1.033347097907455</v>
       </c>
       <c r="M4">
-        <v>0.9995462224736978</v>
+        <v>1.047920634023843</v>
       </c>
       <c r="N4">
-        <v>1.012592589320981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01557407916229</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046498333388835</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042189660532763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009559488470818</v>
+        <v>1.017106600403227</v>
       </c>
       <c r="D5">
-        <v>1.023111385033555</v>
+        <v>1.034907993628669</v>
       </c>
       <c r="E5">
-        <v>1.016780729100522</v>
+        <v>1.024293897963213</v>
       </c>
       <c r="F5">
-        <v>0.9915116925655101</v>
+        <v>1.038910732471735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042956405252754</v>
+        <v>1.048517878347941</v>
       </c>
       <c r="J5">
-        <v>1.028273025091546</v>
+        <v>1.035638924121583</v>
       </c>
       <c r="K5">
-        <v>1.032720839784349</v>
+        <v>1.044388092881698</v>
       </c>
       <c r="L5">
-        <v>1.026461127016904</v>
+        <v>1.033890220677056</v>
       </c>
       <c r="M5">
-        <v>1.001486452622169</v>
+        <v>1.048347757670704</v>
       </c>
       <c r="N5">
-        <v>1.012938659686903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015720507216755</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046836370257368</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042461877298519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0098079222975</v>
+        <v>1.017259837446066</v>
       </c>
       <c r="D6">
-        <v>1.023291778258717</v>
+        <v>1.035012412412069</v>
       </c>
       <c r="E6">
-        <v>1.017007395165656</v>
+        <v>1.024426142779165</v>
       </c>
       <c r="F6">
-        <v>0.9918781423779849</v>
+        <v>1.039022540981211</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043035281295864</v>
+        <v>1.048551680765289</v>
       </c>
       <c r="J6">
-        <v>1.028440206919986</v>
+        <v>1.035714126555025</v>
       </c>
       <c r="K6">
-        <v>1.032862666313464</v>
+        <v>1.044455371525715</v>
       </c>
       <c r="L6">
-        <v>1.026648371343921</v>
+        <v>1.033984492178601</v>
       </c>
       <c r="M6">
-        <v>1.001810377805752</v>
+        <v>1.048422541746053</v>
       </c>
       <c r="N6">
-        <v>1.01299642974863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015746448673215</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046895556322161</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042518164020679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008092194123908</v>
+        <v>1.016232637669576</v>
       </c>
       <c r="D7">
-        <v>1.022046148947932</v>
+        <v>1.034332310622845</v>
       </c>
       <c r="E7">
-        <v>1.015442389022447</v>
+        <v>1.023543967180027</v>
       </c>
       <c r="F7">
-        <v>0.9893465923354776</v>
+        <v>1.038280625621501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042489646617767</v>
+        <v>1.048338674027406</v>
       </c>
       <c r="J7">
-        <v>1.027285125877486</v>
+        <v>1.035224089948282</v>
       </c>
       <c r="K7">
-        <v>1.031882668320539</v>
+        <v>1.04403043852907</v>
       </c>
       <c r="L7">
-        <v>1.025355003138921</v>
+        <v>1.033363395802001</v>
       </c>
       <c r="M7">
-        <v>0.9995722728895058</v>
+        <v>1.047935134252026</v>
       </c>
       <c r="N7">
-        <v>1.012597236244545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015579923714104</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046509809252675</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042221886303908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00072747783365</v>
+        <v>1.011862277968756</v>
       </c>
       <c r="D8">
-        <v>1.016704824649928</v>
+        <v>1.031441732888909</v>
       </c>
       <c r="E8">
-        <v>1.008734782429675</v>
+        <v>1.019800416502165</v>
       </c>
       <c r="F8">
-        <v>0.9784570642899604</v>
+        <v>1.035136116933155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040124915081755</v>
+        <v>1.047413354036181</v>
       </c>
       <c r="J8">
-        <v>1.022314598532019</v>
+        <v>1.033131888656358</v>
       </c>
       <c r="K8">
-        <v>1.027663174622459</v>
+        <v>1.04221200456869</v>
       </c>
       <c r="L8">
-        <v>1.019797721319227</v>
+        <v>1.030718695230163</v>
       </c>
       <c r="M8">
-        <v>0.9899369780879869</v>
+        <v>1.045860285375527</v>
       </c>
       <c r="N8">
-        <v>1.010878188223359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014868026459365</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04486771719058</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040940661595159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869399563138243</v>
+        <v>1.003873051416683</v>
       </c>
       <c r="D9">
-        <v>1.006731736166585</v>
+        <v>1.026183723903113</v>
       </c>
       <c r="E9">
-        <v>0.996219538054385</v>
+        <v>1.012998506936498</v>
       </c>
       <c r="F9">
-        <v>0.9579471455293889</v>
+        <v>1.029440715730207</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035612772624358</v>
+        <v>1.045659688629865</v>
       </c>
       <c r="J9">
-        <v>1.012962480088891</v>
+        <v>1.029289779684962</v>
       </c>
       <c r="K9">
-        <v>1.019716531712537</v>
+        <v>1.038865806746048</v>
       </c>
       <c r="L9">
-        <v>1.00937424984968</v>
+        <v>1.025884154827292</v>
       </c>
       <c r="M9">
-        <v>0.9717614551557561</v>
+        <v>1.042073537010998</v>
       </c>
       <c r="N9">
-        <v>1.007639874128743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013558846050958</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041870771616265</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03857152645812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9771160435855996</v>
+        <v>0.9983989733898027</v>
       </c>
       <c r="D10">
-        <v>0.9996490146262618</v>
+        <v>1.022633106281595</v>
       </c>
       <c r="E10">
-        <v>0.9873338103210615</v>
+        <v>1.008376098448304</v>
       </c>
       <c r="F10">
-        <v>0.9432096862040619</v>
+        <v>1.025659663723852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032342088855189</v>
+        <v>1.044443775606146</v>
       </c>
       <c r="J10">
-        <v>1.006267962792217</v>
+        <v>1.026676257202421</v>
       </c>
       <c r="K10">
-        <v>1.014024609115414</v>
+        <v>1.03660539366571</v>
       </c>
       <c r="L10">
-        <v>1.001935585606553</v>
+        <v>1.022595748977285</v>
       </c>
       <c r="M10">
-        <v>0.9586860348742742</v>
+        <v>1.039580581290134</v>
       </c>
       <c r="N10">
-        <v>1.00532007598113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012672353037255</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039949112106062</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036990055416489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9726895926732561</v>
+        <v>0.9963739053373305</v>
       </c>
       <c r="D11">
-        <v>0.9964645302145703</v>
+        <v>1.021523126903221</v>
       </c>
       <c r="E11">
-        <v>0.9833383399910895</v>
+        <v>1.006730697845428</v>
       </c>
       <c r="F11">
-        <v>0.9365292496658263</v>
+        <v>1.024913645577411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030855670809364</v>
+        <v>1.044146602381642</v>
       </c>
       <c r="J11">
-        <v>1.003244367350325</v>
+        <v>1.025898316022431</v>
       </c>
       <c r="K11">
-        <v>1.011453429732673</v>
+        <v>1.036050251199045</v>
       </c>
       <c r="L11">
-        <v>0.9985814630289349</v>
+        <v>1.021526789602985</v>
       </c>
       <c r="M11">
-        <v>0.9527563360828375</v>
+        <v>1.039380539377004</v>
       </c>
       <c r="N11">
-        <v>1.004272150355882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012443215511935</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040226131463656</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036630320634832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710172702854797</v>
+        <v>0.9957537491390172</v>
       </c>
       <c r="D12">
-        <v>0.9952625734394966</v>
+        <v>1.021263018669349</v>
       </c>
       <c r="E12">
-        <v>0.9818301503353665</v>
+        <v>1.006252129625653</v>
       </c>
       <c r="F12">
-        <v>0.9339982797085271</v>
+        <v>1.024958640417538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030292232935307</v>
+        <v>1.044120477855488</v>
       </c>
       <c r="J12">
-        <v>1.002100977176942</v>
+        <v>1.025738911503159</v>
       </c>
       <c r="K12">
-        <v>1.010481101377495</v>
+        <v>1.035993884147318</v>
       </c>
       <c r="L12">
-        <v>0.997313936122196</v>
+        <v>1.021260521004476</v>
       </c>
       <c r="M12">
-        <v>0.950509492355919</v>
+        <v>1.039622800360595</v>
       </c>
       <c r="N12">
-        <v>1.003875864339014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012416922148733</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040743482311611</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036590467475144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9713773009263774</v>
+        <v>0.9961851952544003</v>
       </c>
       <c r="D13">
-        <v>0.9955212862458883</v>
+        <v>1.021655617669369</v>
       </c>
       <c r="E13">
-        <v>0.982154785051758</v>
+        <v>1.006649544288286</v>
       </c>
       <c r="F13">
-        <v>0.934543505535772</v>
+        <v>1.02563847315903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03041361776082</v>
+        <v>1.044313501505263</v>
       </c>
       <c r="J13">
-        <v>1.002347183313538</v>
+        <v>1.026058671409352</v>
       </c>
       <c r="K13">
-        <v>1.010690473102123</v>
+        <v>1.036336684856257</v>
       </c>
       <c r="L13">
-        <v>0.9975868337520741</v>
+        <v>1.021606838975748</v>
       </c>
       <c r="M13">
-        <v>0.9509935230508468</v>
+        <v>1.040247987710795</v>
       </c>
       <c r="N13">
-        <v>1.003961196545464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012550769423821</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041513939833032</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036830350957165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9725519457675557</v>
+        <v>0.9969642717981227</v>
       </c>
       <c r="D14">
-        <v>0.996365574538317</v>
+        <v>1.022226890728642</v>
       </c>
       <c r="E14">
-        <v>0.983214175729981</v>
+        <v>1.007325211442745</v>
       </c>
       <c r="F14">
-        <v>0.9363210789988609</v>
+        <v>1.026401411640346</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030809332496738</v>
+        <v>1.044547927987739</v>
       </c>
       <c r="J14">
-        <v>1.003150277893547</v>
+        <v>1.026499723630353</v>
       </c>
       <c r="K14">
-        <v>1.011373417140337</v>
+        <v>1.036757906286516</v>
       </c>
       <c r="L14">
-        <v>0.9984771409391476</v>
+        <v>1.022127084070307</v>
       </c>
       <c r="M14">
-        <v>0.9525715400897833</v>
+        <v>1.040858378493464</v>
       </c>
       <c r="N14">
-        <v>1.004239540036482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012717175434682</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042169449365687</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037129588098779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9732718836962906</v>
+        <v>0.9973875376767938</v>
       </c>
       <c r="D15">
-        <v>0.9968831922268254</v>
+        <v>1.02251630542543</v>
       </c>
       <c r="E15">
-        <v>0.9838636486419005</v>
+        <v>1.007685767083897</v>
       </c>
       <c r="F15">
-        <v>0.9374095840367787</v>
+        <v>1.026741619076804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031051621262113</v>
+        <v>1.044657049611102</v>
       </c>
       <c r="J15">
-        <v>1.003642352798563</v>
+        <v>1.026717654013396</v>
       </c>
       <c r="K15">
-        <v>1.011791871333765</v>
+        <v>1.036956091689644</v>
       </c>
       <c r="L15">
-        <v>0.9990227659393888</v>
+        <v>1.022393051719607</v>
       </c>
       <c r="M15">
-        <v>0.953537809550688</v>
+        <v>1.041107025815027</v>
       </c>
       <c r="N15">
-        <v>1.004410087364837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012794963731967</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042403452133447</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037275567097673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9774059931076037</v>
+        <v>0.9996185300379508</v>
       </c>
       <c r="D16">
-        <v>0.9998577623359631</v>
+        <v>1.023947203651158</v>
       </c>
       <c r="E16">
-        <v>0.9875957056407927</v>
+        <v>1.009559143715403</v>
       </c>
       <c r="F16">
-        <v>0.9436463636769762</v>
+        <v>1.028243553061049</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032439195014351</v>
+        <v>1.045148359613933</v>
       </c>
       <c r="J16">
-        <v>1.006465871846238</v>
+        <v>1.0277704574002</v>
       </c>
       <c r="K16">
-        <v>1.014192900104671</v>
+        <v>1.03786168963117</v>
       </c>
       <c r="L16">
-        <v>1.002155246009548</v>
+        <v>1.023721746293786</v>
       </c>
       <c r="M16">
-        <v>0.9590735921786075</v>
+        <v>1.042085685467256</v>
       </c>
       <c r="N16">
-        <v>1.005388665728907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013147445039208</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043138333950536</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037919013809606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9799515160966894</v>
+        <v>1.000924673351188</v>
       </c>
       <c r="D17">
-        <v>1.001691186462812</v>
+        <v>1.02474776220283</v>
       </c>
       <c r="E17">
-        <v>0.9898958765984455</v>
+        <v>1.010645956605059</v>
       </c>
       <c r="F17">
-        <v>0.947475398785632</v>
+        <v>1.028992474569228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033290275860366</v>
+        <v>1.045400844788693</v>
       </c>
       <c r="J17">
-        <v>1.008202542733931</v>
+        <v>1.028347364043109</v>
       </c>
       <c r="K17">
-        <v>1.015669627890006</v>
+        <v>1.038335354781847</v>
       </c>
       <c r="L17">
-        <v>1.004083417876436</v>
+        <v>1.024469863413982</v>
       </c>
       <c r="M17">
-        <v>0.9624716245425317</v>
+        <v>1.042510564939258</v>
       </c>
       <c r="N17">
-        <v>1.005990529003191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013330672044769</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043345368752218</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038256493650249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9814197823259476</v>
+        <v>1.001546040662427</v>
       </c>
       <c r="D18">
-        <v>1.002749348052529</v>
+        <v>1.025056412195768</v>
       </c>
       <c r="E18">
-        <v>0.9912233959105066</v>
+        <v>1.011142165180281</v>
       </c>
       <c r="F18">
-        <v>0.9496803040177845</v>
+        <v>1.029112016222421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033779981300665</v>
+        <v>1.045460061982239</v>
       </c>
       <c r="J18">
-        <v>1.009203582987424</v>
+        <v>1.02855076741215</v>
       </c>
       <c r="K18">
-        <v>1.016520792326098</v>
+        <v>1.03845621520157</v>
       </c>
       <c r="L18">
-        <v>1.005195364435601</v>
+        <v>1.024771302579588</v>
       </c>
       <c r="M18">
-        <v>0.9644280852830505</v>
+        <v>1.042446471820042</v>
       </c>
       <c r="N18">
-        <v>1.006337432392653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013378178096478</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043057488498564</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038330340696205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9819176882027862</v>
+        <v>1.001556314613096</v>
       </c>
       <c r="D19">
-        <v>1.003108287287503</v>
+        <v>1.024932171451327</v>
       </c>
       <c r="E19">
-        <v>0.99167370209207</v>
+        <v>1.011111945401524</v>
       </c>
       <c r="F19">
-        <v>0.95042741508833</v>
+        <v>1.028662863059993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033945841027066</v>
+        <v>1.045353521743815</v>
       </c>
       <c r="J19">
-        <v>1.009542931945242</v>
+        <v>1.028426370704742</v>
       </c>
       <c r="K19">
-        <v>1.016809325846535</v>
+        <v>1.038271673907504</v>
       </c>
       <c r="L19">
-        <v>1.005572398402747</v>
+        <v>1.024678059949317</v>
       </c>
       <c r="M19">
-        <v>0.9650909670880697</v>
+        <v>1.041942530837735</v>
       </c>
       <c r="N19">
-        <v>1.006455027617482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013309675768498</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04233422147823</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038206243297409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9796801267482081</v>
+        <v>0.999840423766982</v>
       </c>
       <c r="D20">
-        <v>1.001495650161634</v>
+        <v>1.023582775745468</v>
       </c>
       <c r="E20">
-        <v>0.9896505645464626</v>
+        <v>1.009594751321915</v>
       </c>
       <c r="F20">
-        <v>0.9470675595348207</v>
+        <v>1.026662314373688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033199662841247</v>
+        <v>1.044778626499729</v>
       </c>
       <c r="J20">
-        <v>1.008017458932208</v>
+        <v>1.027377498196497</v>
       </c>
       <c r="K20">
-        <v>1.015512251248652</v>
+        <v>1.037223249359416</v>
       </c>
       <c r="L20">
-        <v>1.003877870653087</v>
+        <v>1.023470960928364</v>
       </c>
       <c r="M20">
-        <v>0.9621097183924503</v>
+        <v>1.040251999086077</v>
       </c>
       <c r="N20">
-        <v>1.005926387876712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012912874102623</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040469937107848</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037468881810665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9722068380388399</v>
+        <v>0.9956633929832428</v>
       </c>
       <c r="D21">
-        <v>0.9961174921859078</v>
+        <v>1.0208425410498</v>
       </c>
       <c r="E21">
-        <v>0.9829028928978958</v>
+        <v>1.006067354444336</v>
       </c>
       <c r="F21">
-        <v>0.9357990364640428</v>
+        <v>1.023665154113738</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030693123413378</v>
+        <v>1.043806634480789</v>
       </c>
       <c r="J21">
-        <v>1.002914360035511</v>
+        <v>1.02534355158611</v>
       </c>
       <c r="K21">
-        <v>1.01117279509371</v>
+        <v>1.035439519019189</v>
       </c>
       <c r="L21">
-        <v>0.9982155798000194</v>
+        <v>1.02093468349898</v>
       </c>
       <c r="M21">
-        <v>0.9521081112103503</v>
+        <v>1.038211637499284</v>
       </c>
       <c r="N21">
-        <v>1.004157773593206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012216419544173</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038814336411766</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036210940789349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.967343969667406</v>
+        <v>0.9930048702087988</v>
       </c>
       <c r="D22">
-        <v>0.9926247001664125</v>
+        <v>1.019110581004008</v>
       </c>
       <c r="E22">
-        <v>0.9785198598007868</v>
+        <v>1.003831412548613</v>
       </c>
       <c r="F22">
-        <v>0.928424541443489</v>
+        <v>1.021805138855496</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029051237240465</v>
+        <v>1.04318631514706</v>
       </c>
       <c r="J22">
-        <v>0.9995875265387826</v>
+        <v>1.024055186714692</v>
       </c>
       <c r="K22">
-        <v>1.008343692862279</v>
+        <v>1.034312727747245</v>
       </c>
       <c r="L22">
-        <v>0.9945291996765091</v>
+        <v>1.019327348606844</v>
       </c>
       <c r="M22">
-        <v>0.945561029064927</v>
+        <v>1.036956664095439</v>
       </c>
       <c r="N22">
-        <v>1.003004742503384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011776149385552</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037821106086861</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035400771157279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.969938233610809</v>
+        <v>0.9944099187730557</v>
       </c>
       <c r="D23">
-        <v>0.9944873713038294</v>
+        <v>1.020019785310719</v>
       </c>
       <c r="E23">
-        <v>0.9808573947343477</v>
+        <v>1.005011160026049</v>
       </c>
       <c r="F23">
-        <v>0.9323630698841247</v>
+        <v>1.022785240371306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029928164212104</v>
+        <v>1.043510804411085</v>
       </c>
       <c r="J23">
-        <v>1.001362924194071</v>
+        <v>1.024732000542143</v>
       </c>
       <c r="K23">
-        <v>1.009853467063731</v>
+        <v>1.034900934452388</v>
       </c>
       <c r="L23">
-        <v>0.9964959966628751</v>
+        <v>1.020173467745994</v>
       </c>
       <c r="M23">
-        <v>0.9490577798283851</v>
+        <v>1.037615755677719</v>
       </c>
       <c r="N23">
-        <v>1.003620064357017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012006518499706</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038342734641111</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035807039422182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9798028067221451</v>
+        <v>0.9998577894346991</v>
       </c>
       <c r="D24">
-        <v>1.001584039240524</v>
+        <v>1.02356654272092</v>
       </c>
       <c r="E24">
-        <v>0.9897614540355583</v>
+        <v>1.009601990747588</v>
       </c>
       <c r="F24">
-        <v>0.9472519322868961</v>
+        <v>1.026607534079357</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03324062766044</v>
+        <v>1.044761128230186</v>
       </c>
       <c r="J24">
-        <v>1.008101127090445</v>
+        <v>1.027361314736207</v>
       </c>
       <c r="K24">
-        <v>1.015583394362202</v>
+        <v>1.037192068056264</v>
       </c>
       <c r="L24">
-        <v>1.003970787792715</v>
+        <v>1.023462557130012</v>
       </c>
       <c r="M24">
-        <v>0.9622733268749835</v>
+        <v>1.040182965986809</v>
       </c>
       <c r="N24">
-        <v>1.005955383287762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012902938881686</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040374512700063</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037419488713279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9906088140035155</v>
+        <v>1.005987165299274</v>
       </c>
       <c r="D25">
-        <v>1.009381991097079</v>
+        <v>1.027580341439258</v>
       </c>
       <c r="E25">
-        <v>0.9995446635567683</v>
+        <v>1.014795244630837</v>
       </c>
       <c r="F25">
-        <v>0.9634228471166135</v>
+        <v>1.030944501264215</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036823120343477</v>
+        <v>1.046137040936596</v>
       </c>
       <c r="J25">
-        <v>1.015456415718762</v>
+        <v>1.03031470387582</v>
       </c>
       <c r="K25">
-        <v>1.021836388862284</v>
+        <v>1.039765080110334</v>
       </c>
       <c r="L25">
-        <v>1.012150052151756</v>
+        <v>1.027168144402728</v>
       </c>
       <c r="M25">
-        <v>0.9766168188118654</v>
+        <v>1.043080711163283</v>
       </c>
       <c r="N25">
-        <v>1.008503799541176</v>
+        <v>1.013909582277138</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042667880478486</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039235877442755</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010707041325245</v>
+        <v>1.010214664454323</v>
       </c>
       <c r="D2">
-        <v>1.030671897617399</v>
+        <v>1.029660617411299</v>
       </c>
       <c r="E2">
-        <v>1.018812058186372</v>
+        <v>1.018322845351506</v>
       </c>
       <c r="F2">
-        <v>1.034305711144977</v>
+        <v>1.033618036763292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047159112061737</v>
+        <v>1.046739665614607</v>
       </c>
       <c r="J2">
-        <v>1.032572155675347</v>
+        <v>1.032094090732027</v>
       </c>
       <c r="K2">
-        <v>1.041719842982619</v>
+        <v>1.040721637556449</v>
       </c>
       <c r="L2">
-        <v>1.030015387630847</v>
+        <v>1.029532681880499</v>
       </c>
       <c r="M2">
-        <v>1.045306938883619</v>
+        <v>1.044628073992165</v>
       </c>
       <c r="N2">
-        <v>1.014676378887909</v>
+        <v>1.015651804596594</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04442978304476</v>
+        <v>1.043892509710585</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040569824882675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039872762364511</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02284537806792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014069862296229</v>
+        <v>1.013466372642614</v>
       </c>
       <c r="D3">
-        <v>1.032893064249999</v>
+        <v>1.031738354824496</v>
       </c>
       <c r="E3">
-        <v>1.021687769072939</v>
+        <v>1.021087506654891</v>
       </c>
       <c r="F3">
-        <v>1.036719129851408</v>
+        <v>1.035927373919429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047878592058045</v>
+        <v>1.047386704929433</v>
       </c>
       <c r="J3">
-        <v>1.034184181348145</v>
+        <v>1.033596543217975</v>
       </c>
       <c r="K3">
-        <v>1.043121684165005</v>
+        <v>1.041980625276485</v>
       </c>
       <c r="L3">
-        <v>1.032050471987112</v>
+        <v>1.031457495491964</v>
       </c>
       <c r="M3">
-        <v>1.046902788332904</v>
+        <v>1.046120302878144</v>
       </c>
       <c r="N3">
-        <v>1.015225144411188</v>
+        <v>1.016057701677755</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045692782959223</v>
+        <v>1.045073502344217</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041558384403187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040760037856337</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023086851059037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016211476768974</v>
+        <v>1.015537951388955</v>
       </c>
       <c r="D4">
-        <v>1.034311990705961</v>
+        <v>1.03306638233317</v>
       </c>
       <c r="E4">
-        <v>1.023524538974728</v>
+        <v>1.02285416992704</v>
       </c>
       <c r="F4">
-        <v>1.038263078424994</v>
+        <v>1.03740547305571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048329684317856</v>
+        <v>1.047791878118075</v>
       </c>
       <c r="J4">
-        <v>1.03520938961291</v>
+        <v>1.034552376264281</v>
       </c>
       <c r="K4">
-        <v>1.044013212708801</v>
+        <v>1.042781455669105</v>
       </c>
       <c r="L4">
-        <v>1.033347097907455</v>
+        <v>1.032684373337098</v>
       </c>
       <c r="M4">
-        <v>1.047920634023843</v>
+        <v>1.047072471954656</v>
       </c>
       <c r="N4">
-        <v>1.01557407916229</v>
+        <v>1.016315923161716</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046498333388835</v>
+        <v>1.045827075198217</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042189660532763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041327265845392</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023238193194386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017106600403227</v>
+        <v>1.016403964711078</v>
       </c>
       <c r="D5">
-        <v>1.034907993628669</v>
+        <v>1.033624544361274</v>
       </c>
       <c r="E5">
-        <v>1.024293897963213</v>
+        <v>1.023594365543754</v>
       </c>
       <c r="F5">
-        <v>1.038910732471735</v>
+        <v>1.038025731071546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048517878347941</v>
+        <v>1.047960938439296</v>
       </c>
       <c r="J5">
-        <v>1.035638924121583</v>
+        <v>1.034953006939276</v>
       </c>
       <c r="K5">
-        <v>1.044388092881698</v>
+        <v>1.043118541635809</v>
       </c>
       <c r="L5">
-        <v>1.033890220677056</v>
+        <v>1.033198452193227</v>
       </c>
       <c r="M5">
-        <v>1.048347757670704</v>
+        <v>1.047472244850017</v>
       </c>
       <c r="N5">
-        <v>1.015720507216755</v>
+        <v>1.016424350301204</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046836370257368</v>
+        <v>1.046143466257027</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042461877298519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041573469512797</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023301804901303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017259837446066</v>
+        <v>1.016552221932103</v>
       </c>
       <c r="D6">
-        <v>1.035012412412069</v>
+        <v>1.033722549007437</v>
       </c>
       <c r="E6">
-        <v>1.024426142779165</v>
+        <v>1.023721620780716</v>
       </c>
       <c r="F6">
-        <v>1.039022540981211</v>
+        <v>1.038132886501963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048551680765289</v>
+        <v>1.047991477755149</v>
       </c>
       <c r="J6">
-        <v>1.035714126555025</v>
+        <v>1.035023262716104</v>
       </c>
       <c r="K6">
-        <v>1.044455371525715</v>
+        <v>1.043179412584348</v>
       </c>
       <c r="L6">
-        <v>1.033984492178601</v>
+        <v>1.033287753567751</v>
       </c>
       <c r="M6">
-        <v>1.048422541746053</v>
+        <v>1.047542382572891</v>
       </c>
       <c r="N6">
-        <v>1.015746448673215</v>
+        <v>1.016443603920719</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046895556322161</v>
+        <v>1.046198975129814</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042518164020679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041626093242568</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023313815234972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016232637669576</v>
+        <v>1.015565218843205</v>
       </c>
       <c r="D7">
-        <v>1.034332310622845</v>
+        <v>1.033090728013657</v>
       </c>
       <c r="E7">
-        <v>1.023543967180027</v>
+        <v>1.022879673440444</v>
       </c>
       <c r="F7">
-        <v>1.038280625621501</v>
+        <v>1.037426498228195</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048338674027406</v>
+        <v>1.047803667342345</v>
       </c>
       <c r="J7">
-        <v>1.035224089948282</v>
+        <v>1.03457302643338</v>
       </c>
       <c r="K7">
-        <v>1.04403043852907</v>
+        <v>1.042802657153294</v>
       </c>
       <c r="L7">
-        <v>1.033363395802001</v>
+        <v>1.032706674319995</v>
       </c>
       <c r="M7">
-        <v>1.047935134252026</v>
+        <v>1.047090408303215</v>
       </c>
       <c r="N7">
-        <v>1.015579923714104</v>
+        <v>1.016347957105552</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046509809252675</v>
+        <v>1.045841270511466</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042221886303908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041364299081064</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023244273236751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011862277968756</v>
+        <v>1.011352513107413</v>
       </c>
       <c r="D8">
-        <v>1.031441732888909</v>
+        <v>1.030395986173822</v>
       </c>
       <c r="E8">
-        <v>1.019800416502165</v>
+        <v>1.019293737352134</v>
       </c>
       <c r="F8">
-        <v>1.035136116933155</v>
+        <v>1.034425168847531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047413354036181</v>
+        <v>1.046978966505255</v>
       </c>
       <c r="J8">
-        <v>1.033131888656358</v>
+        <v>1.032636451185436</v>
       </c>
       <c r="K8">
-        <v>1.04221200456869</v>
+        <v>1.041179382885334</v>
       </c>
       <c r="L8">
-        <v>1.030718695230163</v>
+        <v>1.030218554005472</v>
       </c>
       <c r="M8">
-        <v>1.045860285375527</v>
+        <v>1.045158177527564</v>
       </c>
       <c r="N8">
-        <v>1.014868026459365</v>
+        <v>1.015877596338838</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04486771719058</v>
+        <v>1.044312049033421</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040940661595159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04022152873802</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022937265709097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003873051416683</v>
+        <v>1.003634932199682</v>
       </c>
       <c r="D9">
-        <v>1.026183723903113</v>
+        <v>1.025483517173226</v>
       </c>
       <c r="E9">
-        <v>1.012998506936498</v>
+        <v>1.012762474490551</v>
       </c>
       <c r="F9">
-        <v>1.029440715730207</v>
+        <v>1.028981524186333</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045659688629865</v>
+        <v>1.045400187814089</v>
       </c>
       <c r="J9">
-        <v>1.029289779684962</v>
+        <v>1.029059981392434</v>
       </c>
       <c r="K9">
-        <v>1.038865806746048</v>
+        <v>1.038176242642381</v>
       </c>
       <c r="L9">
-        <v>1.025884154827292</v>
+        <v>1.025651828240164</v>
       </c>
       <c r="M9">
-        <v>1.042073537010998</v>
+        <v>1.04162126662871</v>
       </c>
       <c r="N9">
-        <v>1.013558846050958</v>
+        <v>1.014920163741244</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041870771616265</v>
+        <v>1.041512830523077</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03857152645812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038094675621493</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022347291650663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9983989733898027</v>
+        <v>0.9983787596888933</v>
       </c>
       <c r="D10">
-        <v>1.022633106281595</v>
+        <v>1.022190224454649</v>
       </c>
       <c r="E10">
-        <v>1.008376098448304</v>
+        <v>1.008356102790644</v>
       </c>
       <c r="F10">
-        <v>1.025659663723852</v>
+        <v>1.025391174643674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044443775606146</v>
+        <v>1.04431769471544</v>
       </c>
       <c r="J10">
-        <v>1.026676257202421</v>
+        <v>1.026656849161839</v>
       </c>
       <c r="K10">
-        <v>1.03660539366571</v>
+        <v>1.036170061834272</v>
       </c>
       <c r="L10">
-        <v>1.022595748977285</v>
+        <v>1.022576106620181</v>
       </c>
       <c r="M10">
-        <v>1.039580581290134</v>
+        <v>1.039316633462955</v>
       </c>
       <c r="N10">
-        <v>1.012672353037255</v>
+        <v>1.014390377950443</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039949112106062</v>
+        <v>1.039740227887465</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036990055416489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036694637670984</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021950192949833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963739053373305</v>
+        <v>0.9964560655827582</v>
       </c>
       <c r="D11">
-        <v>1.021523126903221</v>
+        <v>1.021179762039203</v>
       </c>
       <c r="E11">
-        <v>1.006730697845428</v>
+        <v>1.006811896840018</v>
       </c>
       <c r="F11">
-        <v>1.024913645577411</v>
+        <v>1.024722490410052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044146602381642</v>
+        <v>1.044074559338651</v>
       </c>
       <c r="J11">
-        <v>1.025898316022431</v>
+        <v>1.025977023188168</v>
       </c>
       <c r="K11">
-        <v>1.036050251199045</v>
+        <v>1.035713014961291</v>
       </c>
       <c r="L11">
-        <v>1.021526789602985</v>
+        <v>1.02160648404404</v>
       </c>
       <c r="M11">
-        <v>1.039380539377004</v>
+        <v>1.039192766212694</v>
       </c>
       <c r="N11">
-        <v>1.012443215511935</v>
+        <v>1.014459960236772</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040226131463656</v>
+        <v>1.040077605162975</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036630320634832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036407470860394</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021906542691656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9957537491390172</v>
+        <v>0.9958617265782935</v>
       </c>
       <c r="D12">
-        <v>1.021263018669349</v>
+        <v>1.020941079324586</v>
       </c>
       <c r="E12">
-        <v>1.006252129625653</v>
+        <v>1.006358807008845</v>
       </c>
       <c r="F12">
-        <v>1.024958640417538</v>
+        <v>1.024784935091876</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044120477855488</v>
+        <v>1.044059496321236</v>
       </c>
       <c r="J12">
-        <v>1.025738911503159</v>
+        <v>1.025842264078684</v>
       </c>
       <c r="K12">
-        <v>1.035993884147318</v>
+        <v>1.035677785516375</v>
       </c>
       <c r="L12">
-        <v>1.021260521004476</v>
+        <v>1.021365187941474</v>
       </c>
       <c r="M12">
-        <v>1.039622800360595</v>
+        <v>1.039452216393988</v>
       </c>
       <c r="N12">
-        <v>1.012416922148733</v>
+        <v>1.014544469071293</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040743482311611</v>
+        <v>1.040608597952574</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036590467475144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036382563114157</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021932982107351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9961851952544003</v>
+        <v>0.9962514867566856</v>
       </c>
       <c r="D13">
-        <v>1.021655617669369</v>
+        <v>1.021289051906895</v>
       </c>
       <c r="E13">
-        <v>1.006649544288286</v>
+        <v>1.006715043460583</v>
       </c>
       <c r="F13">
-        <v>1.02563847315903</v>
+        <v>1.025431157307506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044313501505263</v>
+        <v>1.044226490978335</v>
       </c>
       <c r="J13">
-        <v>1.026058671409352</v>
+        <v>1.026122137252159</v>
       </c>
       <c r="K13">
-        <v>1.036336684856257</v>
+        <v>1.035976740971949</v>
       </c>
       <c r="L13">
-        <v>1.021606838975748</v>
+        <v>1.021671109091763</v>
       </c>
       <c r="M13">
-        <v>1.040247987710795</v>
+        <v>1.040044378513089</v>
       </c>
       <c r="N13">
-        <v>1.012550769423821</v>
+        <v>1.014614595774681</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041513939833032</v>
+        <v>1.041352982039959</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036830350957165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036591200228137</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02201982679291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969642717981227</v>
+        <v>0.9969714940614451</v>
       </c>
       <c r="D14">
-        <v>1.022226890728642</v>
+        <v>1.02179982946634</v>
       </c>
       <c r="E14">
-        <v>1.007325211442745</v>
+        <v>1.007332349226965</v>
       </c>
       <c r="F14">
-        <v>1.026401411640346</v>
+        <v>1.026147991454067</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044547927987739</v>
+        <v>1.044426403134932</v>
       </c>
       <c r="J14">
-        <v>1.026499723630353</v>
+        <v>1.026506642397657</v>
       </c>
       <c r="K14">
-        <v>1.036757906286516</v>
+        <v>1.03633846463869</v>
       </c>
       <c r="L14">
-        <v>1.022127084070307</v>
+        <v>1.02213408961478</v>
       </c>
       <c r="M14">
-        <v>1.040858378493464</v>
+        <v>1.040609431264034</v>
       </c>
       <c r="N14">
-        <v>1.012717175434682</v>
+        <v>1.014658567857694</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042169449365687</v>
+        <v>1.041972677301324</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037129588098779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036848504004576</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022108367222146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973875376767938</v>
+        <v>0.9973660832025689</v>
       </c>
       <c r="D15">
-        <v>1.02251630542543</v>
+        <v>1.02206025739213</v>
       </c>
       <c r="E15">
-        <v>1.007685767083897</v>
+        <v>1.007664560274761</v>
       </c>
       <c r="F15">
-        <v>1.026741619076804</v>
+        <v>1.026466016364403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044657049611102</v>
+        <v>1.044519234745607</v>
       </c>
       <c r="J15">
-        <v>1.026717654013396</v>
+        <v>1.026697093320065</v>
       </c>
       <c r="K15">
-        <v>1.036956091689644</v>
+        <v>1.036508119314633</v>
       </c>
       <c r="L15">
-        <v>1.022393051719607</v>
+        <v>1.022372234762331</v>
       </c>
       <c r="M15">
-        <v>1.041107025815027</v>
+        <v>1.040836250437429</v>
       </c>
       <c r="N15">
-        <v>1.012794963731967</v>
+        <v>1.014670865161892</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042403452133447</v>
+        <v>1.042189432359046</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037275567097673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036974879124112</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022145794300515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9996185300379508</v>
+        <v>0.9994673455552588</v>
       </c>
       <c r="D16">
-        <v>1.023947203651158</v>
+        <v>1.023358832020778</v>
       </c>
       <c r="E16">
-        <v>1.009559143715403</v>
+        <v>1.009409573794974</v>
       </c>
       <c r="F16">
-        <v>1.028243553061049</v>
+        <v>1.02786678553616</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045148359613933</v>
+        <v>1.044938078208592</v>
       </c>
       <c r="J16">
-        <v>1.0277704574002</v>
+        <v>1.027625259778646</v>
       </c>
       <c r="K16">
-        <v>1.03786168963117</v>
+        <v>1.037283287642931</v>
       </c>
       <c r="L16">
-        <v>1.023721746293786</v>
+        <v>1.023574803792041</v>
       </c>
       <c r="M16">
-        <v>1.042085685467256</v>
+        <v>1.041715231785023</v>
       </c>
       <c r="N16">
-        <v>1.013147445039208</v>
+        <v>1.014711215070025</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043138333950536</v>
+        <v>1.042845520554754</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037919013809606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037526406633539</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022294766340482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000924673351188</v>
+        <v>1.000712539329333</v>
       </c>
       <c r="D17">
-        <v>1.02474776220283</v>
+        <v>1.024094822383416</v>
       </c>
       <c r="E17">
-        <v>1.010645956605059</v>
+        <v>1.010435976949185</v>
       </c>
       <c r="F17">
-        <v>1.028992474569228</v>
+        <v>1.028566694539985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045400844788693</v>
+        <v>1.045156418072686</v>
       </c>
       <c r="J17">
-        <v>1.028347364043109</v>
+        <v>1.028143363212878</v>
       </c>
       <c r="K17">
-        <v>1.038335354781847</v>
+        <v>1.037693171871151</v>
       </c>
       <c r="L17">
-        <v>1.024469863413982</v>
+        <v>1.024263466917435</v>
       </c>
       <c r="M17">
-        <v>1.042510564939258</v>
+        <v>1.042091723300204</v>
       </c>
       <c r="N17">
-        <v>1.013330672044769</v>
+        <v>1.014748006812299</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043345368752218</v>
+        <v>1.04301427577261</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038256493650249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037819038531814</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022363351748152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001546040662427</v>
+        <v>1.001317822791566</v>
       </c>
       <c r="D18">
-        <v>1.025056412195768</v>
+        <v>1.024385825665452</v>
       </c>
       <c r="E18">
-        <v>1.011142165180281</v>
+        <v>1.010916197753313</v>
       </c>
       <c r="F18">
-        <v>1.029112016222421</v>
+        <v>1.028672758781886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045460061982239</v>
+        <v>1.045207524744994</v>
       </c>
       <c r="J18">
-        <v>1.02855076741215</v>
+        <v>1.028331136648095</v>
       </c>
       <c r="K18">
-        <v>1.03845621520157</v>
+        <v>1.0377964977597</v>
       </c>
       <c r="L18">
-        <v>1.024771302579588</v>
+        <v>1.024549126703606</v>
       </c>
       <c r="M18">
-        <v>1.042446471820042</v>
+        <v>1.042014260162089</v>
       </c>
       <c r="N18">
-        <v>1.013378178096478</v>
+        <v>1.014742511875831</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043057488498564</v>
+        <v>1.042715755607674</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038330340696205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037879354470767</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022360164305865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001556314613096</v>
+        <v>1.001346568507277</v>
       </c>
       <c r="D19">
-        <v>1.024932171451327</v>
+        <v>1.024282334775876</v>
       </c>
       <c r="E19">
-        <v>1.011111945401524</v>
+        <v>1.010904248396483</v>
       </c>
       <c r="F19">
-        <v>1.028662863059993</v>
+        <v>1.028238814836429</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045353521743815</v>
+        <v>1.045113586773837</v>
       </c>
       <c r="J19">
-        <v>1.028426370704742</v>
+        <v>1.028224470105878</v>
       </c>
       <c r="K19">
-        <v>1.038271673907504</v>
+        <v>1.03763231684009</v>
       </c>
       <c r="L19">
-        <v>1.024678059949317</v>
+        <v>1.024473829466934</v>
       </c>
       <c r="M19">
-        <v>1.041942530837735</v>
+        <v>1.041525255670769</v>
       </c>
       <c r="N19">
-        <v>1.013309675768498</v>
+        <v>1.014683760797751</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04233422147823</v>
+        <v>1.042004190897639</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038206243297409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.0377702773766</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022296351990136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.999840423766982</v>
+        <v>0.9997431325473412</v>
       </c>
       <c r="D20">
-        <v>1.023582775745468</v>
+        <v>1.023058524323056</v>
       </c>
       <c r="E20">
-        <v>1.009594751321915</v>
+        <v>1.009498457481234</v>
       </c>
       <c r="F20">
-        <v>1.026662314373688</v>
+        <v>1.026331967360383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044778626499729</v>
+        <v>1.044608026879026</v>
       </c>
       <c r="J20">
-        <v>1.027377498196497</v>
+        <v>1.027283959596236</v>
       </c>
       <c r="K20">
-        <v>1.037223249359416</v>
+        <v>1.036707683296569</v>
       </c>
       <c r="L20">
-        <v>1.023470960928364</v>
+        <v>1.023376319161837</v>
       </c>
       <c r="M20">
-        <v>1.040251999086077</v>
+        <v>1.039927081508652</v>
       </c>
       <c r="N20">
-        <v>1.012912874102623</v>
+        <v>1.014462962323679</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040469937107848</v>
+        <v>1.040212799271179</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037468881810665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037120831848588</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022059745913156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9956633929832428</v>
+        <v>0.995832050237815</v>
       </c>
       <c r="D21">
-        <v>1.0208425410498</v>
+        <v>1.020587289793212</v>
       </c>
       <c r="E21">
-        <v>1.006067354444336</v>
+        <v>1.006234017654885</v>
       </c>
       <c r="F21">
-        <v>1.023665154113738</v>
+        <v>1.023541377794007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043806634480789</v>
+        <v>1.043786521170235</v>
       </c>
       <c r="J21">
-        <v>1.02534355158611</v>
+        <v>1.02550507125556</v>
       </c>
       <c r="K21">
-        <v>1.035439519019189</v>
+        <v>1.03518885192288</v>
       </c>
       <c r="L21">
-        <v>1.02093468349898</v>
+        <v>1.02109823939499</v>
       </c>
       <c r="M21">
-        <v>1.038211637499284</v>
+        <v>1.038090067872175</v>
       </c>
       <c r="N21">
-        <v>1.012216419544173</v>
+        <v>1.0143964865252</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038814336411766</v>
+        <v>1.038718121970754</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036210940789349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036050512435913</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021754265694215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9930048702087988</v>
+        <v>0.9933413448098296</v>
       </c>
       <c r="D22">
-        <v>1.019110581004008</v>
+        <v>1.019025039073196</v>
       </c>
       <c r="E22">
-        <v>1.003831412548613</v>
+        <v>1.004163559041336</v>
       </c>
       <c r="F22">
-        <v>1.021805138855496</v>
+        <v>1.021811823334293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04318631514706</v>
+        <v>1.043261196650588</v>
       </c>
       <c r="J22">
-        <v>1.024055186714692</v>
+        <v>1.02437660071472</v>
       </c>
       <c r="K22">
-        <v>1.034312727747245</v>
+        <v>1.034228798584392</v>
       </c>
       <c r="L22">
-        <v>1.019327348606844</v>
+        <v>1.019652983794806</v>
       </c>
       <c r="M22">
-        <v>1.036956664095439</v>
+        <v>1.036963223429185</v>
       </c>
       <c r="N22">
-        <v>1.011776149385552</v>
+        <v>1.014348158651208</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037821106086861</v>
+        <v>1.0378262973791</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035400771157279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035356935047703</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021560378134174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9944099187730557</v>
+        <v>0.9946464559207937</v>
       </c>
       <c r="D23">
-        <v>1.020019785310719</v>
+        <v>1.019836352548493</v>
       </c>
       <c r="E23">
-        <v>1.005011160026049</v>
+        <v>1.005244786025213</v>
       </c>
       <c r="F23">
-        <v>1.022785240371306</v>
+        <v>1.022716082903374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043510804411085</v>
+        <v>1.043529989373028</v>
       </c>
       <c r="J23">
-        <v>1.024732000542143</v>
+        <v>1.024958257760652</v>
       </c>
       <c r="K23">
-        <v>1.034900934452388</v>
+        <v>1.03472087288635</v>
       </c>
       <c r="L23">
-        <v>1.020173467745994</v>
+        <v>1.020402633032035</v>
       </c>
       <c r="M23">
-        <v>1.037615755677719</v>
+        <v>1.037547860096514</v>
       </c>
       <c r="N23">
-        <v>1.012006518499706</v>
+        <v>1.01432910359411</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038342734641111</v>
+        <v>1.038288999677379</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035807039422182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035694291979407</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021657643334712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9998577894346991</v>
+        <v>0.999761896247692</v>
       </c>
       <c r="D24">
-        <v>1.02356654272092</v>
+        <v>1.02304382538403</v>
       </c>
       <c r="E24">
-        <v>1.009601990747588</v>
+        <v>1.009507078375079</v>
       </c>
       <c r="F24">
-        <v>1.026607534079357</v>
+        <v>1.026278323165678</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044761128230186</v>
+        <v>1.044591605041432</v>
       </c>
       <c r="J24">
-        <v>1.027361314736207</v>
+        <v>1.027269114861414</v>
       </c>
       <c r="K24">
-        <v>1.037192068056264</v>
+        <v>1.036677999909325</v>
       </c>
       <c r="L24">
-        <v>1.023462557130012</v>
+        <v>1.023369271003535</v>
       </c>
       <c r="M24">
-        <v>1.040182965986809</v>
+        <v>1.039859159647509</v>
       </c>
       <c r="N24">
-        <v>1.012902938881686</v>
+        <v>1.014451784454191</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040374512700063</v>
+        <v>1.040118241602875</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037419488713279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037069828118489</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022047565637024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005987165299274</v>
+        <v>1.005667938849271</v>
       </c>
       <c r="D25">
-        <v>1.027580341439258</v>
+        <v>1.026782522166355</v>
       </c>
       <c r="E25">
-        <v>1.014795244630837</v>
+        <v>1.014478580125421</v>
       </c>
       <c r="F25">
-        <v>1.030944501264215</v>
+        <v>1.03041331884292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046137040936596</v>
+        <v>1.045827035362798</v>
       </c>
       <c r="J25">
-        <v>1.03031470387582</v>
+        <v>1.030006048346847</v>
       </c>
       <c r="K25">
-        <v>1.039765080110334</v>
+        <v>1.038978828706141</v>
       </c>
       <c r="L25">
-        <v>1.027168144402728</v>
+        <v>1.026856216892082</v>
       </c>
       <c r="M25">
-        <v>1.043080711163283</v>
+        <v>1.042557164486253</v>
       </c>
       <c r="N25">
-        <v>1.013909582277138</v>
+        <v>1.015144212155372</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042667880478486</v>
+        <v>1.042253529509484</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039235877442755</v>
+        <v>1.038693464046037</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022508587969255</v>
       </c>
     </row>
   </sheetData>
